--- a/Excel/STUDI KASUS.xlsx
+++ b/Excel/STUDI KASUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SEMESTER 7\PROPOSAL SKRIPSI\skripsi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54368FA-0DB4-4E6B-8869-E721CF92759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7AD738-62BC-47DC-A182-C5680BEE615D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="691" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="497">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -1444,6 +1444,135 @@
   </si>
   <si>
     <t>bulanan</t>
+  </si>
+  <si>
+    <t>Pondok Virda</t>
+  </si>
+  <si>
+    <t>Jalan Sahabat 6</t>
+  </si>
+  <si>
+    <t>Putri/Putra</t>
+  </si>
+  <si>
+    <t>CCTV sama penjaga</t>
+  </si>
+  <si>
+    <t>pemilk = Akil, narasumber = irfan</t>
+  </si>
+  <si>
+    <t>085323455503 = akil</t>
+  </si>
+  <si>
+    <t>ibu susan</t>
+  </si>
+  <si>
+    <t>Pondok Azizah</t>
+  </si>
+  <si>
+    <t>Jalan Sahabat 5</t>
+  </si>
+  <si>
+    <t>Rp. 9.000.000 per tahun</t>
+  </si>
+  <si>
+    <t>Rp. 7.500.000 per tahun</t>
+  </si>
+  <si>
+    <t>lemari, spring bed, wc dalam, rak penyimpanan alat masak, AC, parkir</t>
+  </si>
+  <si>
+    <t>Perbulan dan sumur bor</t>
+  </si>
+  <si>
+    <t>23,00</t>
+  </si>
+  <si>
+    <t>Pondok Yumma</t>
+  </si>
+  <si>
+    <t>Akbar</t>
+  </si>
+  <si>
+    <t>Rp. 8.500.000 per tahun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perbulan </t>
+  </si>
+  <si>
+    <t>tidak ada batas jam malam</t>
+  </si>
+  <si>
+    <t>0812 9898 1575</t>
+  </si>
+  <si>
+    <t>Pondok PG ONE</t>
+  </si>
+  <si>
+    <t>Anis Adrian</t>
+  </si>
+  <si>
+    <t>08124255730</t>
+  </si>
+  <si>
+    <t>Jalan sahabt 6 no 5</t>
+  </si>
+  <si>
+    <t>Rp. 7.000.000 per tahun</t>
+  </si>
+  <si>
+    <t>Kasur, lemari, meja, kipas, parkir</t>
+  </si>
+  <si>
+    <t>wc dalam,  lemari, kipas, tempat tidur, parkir</t>
+  </si>
+  <si>
+    <t>Tempat tidur,  lemari, wc dalam, parkir</t>
+  </si>
+  <si>
+    <t>3 x 5</t>
+  </si>
+  <si>
+    <t>diberi kunci</t>
+  </si>
+  <si>
+    <t>Fajarnur</t>
+  </si>
+  <si>
+    <t>Jalan sahabat 6 no 6</t>
+  </si>
+  <si>
+    <t>Rp. 730.000 per bulan</t>
+  </si>
+  <si>
+    <t>Kipas angin , lemari, tempat tidur, wc dalam, parkir</t>
+  </si>
+  <si>
+    <t>Pembayaran Awal</t>
+  </si>
+  <si>
+    <t>pemilik = saipul, narasumber = Ernawati</t>
+  </si>
+  <si>
+    <t>Ernawati=083852260303</t>
+  </si>
+  <si>
+    <t>Pondok Ananda 2</t>
+  </si>
+  <si>
+    <t>sadli</t>
+  </si>
+  <si>
+    <t>Jalan sahabat 6</t>
+  </si>
+  <si>
+    <t>085256608655</t>
+  </si>
+  <si>
+    <t>Rp. 8.000.000 per tahun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring bed, Lemari, kipas, wc dalam, parkir              </t>
   </si>
 </sst>
 </file>
@@ -2805,30 +2934,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46AEE5-C1DF-4E3B-B1A0-CC373A6F6C73}">
   <dimension ref="A2:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="76" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" customWidth="1"/>
+    <col min="1" max="2" width="4.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="18.08984375" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="14" max="14" width="18.90625" customWidth="1"/>
+    <col min="15" max="15" width="20.6328125" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>77</v>
       </c>
@@ -2878,7 +3007,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2925,7 +3054,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -2972,7 +3101,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -3019,7 +3148,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -3069,7 +3198,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -3119,7 +3248,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -3169,7 +3298,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -3219,7 +3348,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -3265,7 +3394,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -3315,7 +3444,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -3365,147 +3494,373 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
+    <row r="13" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>462</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="F18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" s="9"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
       <c r="F21" s="2"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="9"/>
       <c r="F22" s="2"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
       <c r="F23" s="2"/>
       <c r="N23" s="28"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="9"/>
     </row>
   </sheetData>
@@ -3518,31 +3873,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015FA8AF-97B1-4BAE-BA56-FF4AAB7B8C3B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.21875" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="23.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="21.90625" customWidth="1"/>
+    <col min="12" max="12" width="27.453125" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+    <col min="14" max="14" width="22.6328125" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" customWidth="1"/>
+    <col min="16" max="16" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>149</v>
       </c>
@@ -3592,7 +3947,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>168</v>
       </c>
@@ -3640,7 +3995,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>169</v>
       </c>
@@ -3688,7 +4043,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>170</v>
       </c>
@@ -3736,7 +4091,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>223</v>
       </c>
@@ -3786,7 +4141,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>229</v>
       </c>
@@ -3836,7 +4191,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>234</v>
       </c>
@@ -3886,7 +4241,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>353</v>
       </c>
@@ -3936,7 +4291,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>356</v>
       </c>
@@ -3986,7 +4341,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>358</v>
       </c>
@@ -4036,7 +4391,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>359</v>
       </c>
@@ -4080,7 +4435,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>416</v>
       </c>
@@ -4104,22 +4459,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87EEF9-7F2E-4545-9951-0F532151B120}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="117" workbookViewId="0">
+    <sheetView zoomScale="117" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.81640625" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="22" max="22" width="19.88671875" customWidth="1"/>
+    <col min="22" max="22" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4139,7 +4494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4158,7 +4513,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4192,7 +4547,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4226,7 +4581,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4260,7 +4615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4294,7 +4649,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4325,7 +4680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>324</v>
       </c>
@@ -4359,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4393,7 +4748,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4409,7 +4764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>327</v>
       </c>
@@ -4449,7 +4804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B12">
         <f>Ressponden!B12</f>
         <v>100</v>
@@ -4482,7 +4837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
         <v>140</v>
       </c>
@@ -4511,7 +4866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
         <v>180</v>
       </c>
@@ -4540,7 +4895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>181</v>
       </c>
@@ -4569,7 +4924,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4598,7 +4953,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4624,7 +4979,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4644,7 +4999,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -4661,7 +5016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -4678,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4707,7 +5062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4736,7 +5091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -4759,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4782,7 +5137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4805,7 +5160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4828,7 +5183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>324</v>
       </c>
@@ -4861,28 +5216,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:P142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="121" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="79" zoomScaleNormal="121" workbookViewId="0">
       <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" customWidth="1"/>
+    <col min="19" max="19" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -4890,7 +5245,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>152</v>
       </c>
@@ -4898,7 +5253,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -4924,7 +5279,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -4950,7 +5305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -4976,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -5002,7 +5357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -5022,7 +5377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -5042,7 +5397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -5062,7 +5417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -5070,7 +5425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -5096,7 +5451,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="G12" t="s">
@@ -5118,7 +5473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="15"/>
       <c r="G13" t="s">
         <v>140</v>
@@ -5139,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="15"/>
       <c r="G14" t="s">
         <v>448</v>
@@ -5160,7 +5515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>150</v>
       </c>
@@ -5172,7 +5527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="G16" t="s">
@@ -5182,7 +5537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>152</v>
       </c>
@@ -5201,7 +5556,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -5221,7 +5576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -5241,7 +5596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -5261,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -5293,7 +5648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -5319,7 +5674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -5345,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -5371,7 +5726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -5397,7 +5752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -5423,7 +5778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15">
@@ -5441,7 +5796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="46" t="s">
@@ -5451,12 +5806,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="15" t="s">
         <v>152</v>
       </c>
@@ -5464,7 +5819,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
@@ -5472,7 +5827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -5483,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>21</v>
       </c>
@@ -5494,7 +5849,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
@@ -5505,7 +5860,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
@@ -5516,7 +5871,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>24</v>
       </c>
@@ -5527,7 +5882,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -5538,7 +5893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -5549,7 +5904,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -5560,32 +5915,32 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="E42" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="37" t="s">
         <v>149</v>
       </c>
@@ -5622,7 +5977,7 @@
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="39" t="s">
         <v>168</v>
       </c>
@@ -5659,7 +6014,7 @@
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="39" t="s">
         <v>169</v>
       </c>
@@ -5696,7 +6051,7 @@
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="39" t="s">
         <v>170</v>
       </c>
@@ -5733,7 +6088,7 @@
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="39" t="s">
         <v>223</v>
       </c>
@@ -5768,7 +6123,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="39" t="s">
         <v>229</v>
       </c>
@@ -5803,7 +6158,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="39" t="s">
         <v>234</v>
       </c>
@@ -5838,7 +6193,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="39" t="s">
         <v>353</v>
       </c>
@@ -5873,7 +6228,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="39" t="s">
         <v>356</v>
       </c>
@@ -5910,7 +6265,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="39" t="s">
         <v>358</v>
       </c>
@@ -5947,7 +6302,7 @@
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="39" t="s">
         <v>359</v>
       </c>
@@ -5984,17 +6339,17 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="41" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="42" t="s">
         <v>179</v>
       </c>
@@ -6026,7 +6381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="44" t="s">
         <v>168</v>
       </c>
@@ -6058,7 +6413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="44" t="s">
         <v>169</v>
       </c>
@@ -6091,7 +6446,7 @@
       </c>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="44" t="s">
         <v>170</v>
       </c>
@@ -6124,7 +6479,7 @@
       </c>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="44" t="s">
         <v>223</v>
       </c>
@@ -6158,7 +6513,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="44" t="s">
         <v>229</v>
       </c>
@@ -6192,7 +6547,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="44" t="s">
         <v>234</v>
       </c>
@@ -6226,7 +6581,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="44" t="s">
         <v>353</v>
       </c>
@@ -6260,7 +6615,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="44" t="s">
         <v>356</v>
       </c>
@@ -6294,7 +6649,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="44" t="s">
         <v>358</v>
       </c>
@@ -6328,7 +6683,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="44" t="s">
         <v>359</v>
       </c>
@@ -6362,12 +6717,12 @@
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>184</v>
       </c>
@@ -6378,7 +6733,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>168</v>
       </c>
@@ -6401,7 +6756,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -6424,7 +6779,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -6447,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -6470,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>229</v>
       </c>
@@ -6493,7 +6848,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>234</v>
       </c>
@@ -6516,7 +6871,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>353</v>
       </c>
@@ -6539,7 +6894,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>356</v>
       </c>
@@ -6562,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>358</v>
       </c>
@@ -6585,7 +6940,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>359</v>
       </c>
@@ -6608,7 +6963,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>270</v>
       </c>
@@ -6619,7 +6974,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>168</v>
       </c>
@@ -6642,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>169</v>
       </c>
@@ -6665,7 +7020,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>170</v>
       </c>
@@ -6688,7 +7043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>223</v>
       </c>
@@ -6711,7 +7066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>229</v>
       </c>
@@ -6734,7 +7089,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>234</v>
       </c>
@@ -6757,7 +7112,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>353</v>
       </c>
@@ -6780,7 +7135,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>356</v>
       </c>
@@ -6803,7 +7158,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>358</v>
       </c>
@@ -6826,7 +7181,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>359</v>
       </c>
@@ -6849,7 +7204,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>190</v>
       </c>
@@ -6860,7 +7215,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>168</v>
       </c>
@@ -6883,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>169</v>
       </c>
@@ -6906,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>170</v>
       </c>
@@ -6929,7 +7284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>223</v>
       </c>
@@ -6952,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>229</v>
       </c>
@@ -6975,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>234</v>
       </c>
@@ -6998,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>353</v>
       </c>
@@ -7021,7 +7376,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>356</v>
       </c>
@@ -7044,7 +7399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>358</v>
       </c>
@@ -7067,7 +7422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>359</v>
       </c>
@@ -7090,12 +7445,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>179</v>
       </c>
@@ -7128,7 +7483,7 @@
       </c>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>168</v>
       </c>
@@ -7170,7 +7525,7 @@
       </c>
       <c r="L118" s="20"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>169</v>
       </c>
@@ -7212,7 +7567,7 @@
       </c>
       <c r="L119" s="20"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>170</v>
       </c>
@@ -7254,7 +7609,7 @@
       </c>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>223</v>
       </c>
@@ -7296,7 +7651,7 @@
       </c>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>229</v>
       </c>
@@ -7338,7 +7693,7 @@
       </c>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>234</v>
       </c>
@@ -7380,7 +7735,7 @@
       </c>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>353</v>
       </c>
@@ -7421,7 +7776,7 @@
       </c>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>356</v>
       </c>
@@ -7463,7 +7818,7 @@
       </c>
       <c r="L125" s="9"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>358</v>
       </c>
@@ -7505,7 +7860,7 @@
       </c>
       <c r="L126" s="9"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>359</v>
       </c>
@@ -7546,7 +7901,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>195</v>
       </c>
@@ -7554,7 +7909,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>179</v>
       </c>
@@ -7592,7 +7947,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>168</v>
       </c>
@@ -7644,7 +7999,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>169</v>
       </c>
@@ -7696,7 +8051,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>170</v>
       </c>
@@ -7748,7 +8103,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>223</v>
       </c>
@@ -7800,7 +8155,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>229</v>
       </c>
@@ -7849,7 +8204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>234</v>
       </c>
@@ -7898,7 +8253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>353</v>
       </c>
@@ -7950,7 +8305,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>356</v>
       </c>
@@ -8002,7 +8357,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>358</v>
       </c>
@@ -8054,7 +8409,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>359</v>
       </c>
@@ -8130,28 +8485,28 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="8" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
-    <col min="19" max="19" width="22.21875" customWidth="1"/>
-    <col min="20" max="20" width="33.109375" customWidth="1"/>
-    <col min="24" max="24" width="17.44140625" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
+    <col min="18" max="18" width="18.453125" customWidth="1"/>
+    <col min="19" max="19" width="22.1796875" customWidth="1"/>
+    <col min="20" max="20" width="33.08984375" customWidth="1"/>
+    <col min="24" max="24" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -8159,7 +8514,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>152</v>
       </c>
@@ -8167,7 +8522,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -8193,7 +8548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -8222,7 +8577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -8251,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -8280,7 +8635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -8309,7 +8664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -8338,7 +8693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -8346,7 +8701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -8354,7 +8709,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -8380,7 +8735,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="J12" t="s">
@@ -8402,7 +8757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="J13" t="s">
         <v>241</v>
@@ -8423,7 +8778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="J14" t="s">
         <v>242</v>
@@ -8444,7 +8799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>150</v>
       </c>
@@ -8462,7 +8817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="J16" t="s">
@@ -8478,7 +8833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>152</v>
       </c>
@@ -8500,7 +8855,7 @@
       <c r="G17" s="9"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -8532,7 +8887,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -8564,7 +8919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -8596,7 +8951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -8640,7 +8995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -8687,7 +9042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -8728,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -8769,7 +9124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -8810,7 +9165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -8851,7 +9206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17">
@@ -8873,19 +9228,19 @@
       <c r="G27" s="9"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>152</v>
       </c>
@@ -8913,7 +9268,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
@@ -8943,7 +9298,7 @@
         <v>31.432980599647259</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -8973,7 +9328,7 @@
         <v>20.321869488536155</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>21</v>
       </c>
@@ -9003,7 +9358,7 @@
         <v>14.766313932980598</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
@@ -9033,7 +9388,7 @@
         <v>11.062610229276896</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
@@ -9063,7 +9418,7 @@
         <v>8.284832451499117</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>24</v>
       </c>
@@ -9095,7 +9450,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -9127,7 +9482,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -9159,7 +9514,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -9189,7 +9544,7 @@
         <v>1.2345679012345678</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -9210,15 +9565,15 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -9259,7 +9614,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
     </row>
-    <row r="49" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>168</v>
       </c>
@@ -9300,7 +9655,7 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>169</v>
       </c>
@@ -9341,7 +9696,7 @@
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
     </row>
-    <row r="51" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>170</v>
       </c>
@@ -9382,7 +9737,7 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
     </row>
-    <row r="52" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>223</v>
       </c>
@@ -9421,7 +9776,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>229</v>
       </c>
@@ -9460,7 +9815,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>234</v>
       </c>
@@ -9499,7 +9854,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>149</v>
       </c>
@@ -9540,7 +9895,7 @@
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
     </row>
-    <row r="57" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>168</v>
       </c>
@@ -9581,7 +9936,7 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>169</v>
       </c>
@@ -9622,7 +9977,7 @@
       <c r="Q58" s="9"/>
       <c r="R58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>170</v>
       </c>
@@ -9663,7 +10018,7 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>223</v>
       </c>
@@ -9704,7 +10059,7 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>229</v>
       </c>
@@ -9745,7 +10100,7 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>234</v>
       </c>
@@ -9786,22 +10141,22 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="17"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="Q63" s="9"/>
       <c r="R63" s="17"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>178</v>
       </c>
       <c r="Q64" s="9"/>
       <c r="R64" s="17"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="Q65" s="9"/>
       <c r="R65" s="17"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>179</v>
       </c>
@@ -9838,7 +10193,7 @@
       </c>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>168</v>
       </c>
@@ -9875,7 +10230,7 @@
       </c>
       <c r="O67" s="9"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>169</v>
       </c>
@@ -9912,7 +10267,7 @@
       </c>
       <c r="O68" s="9"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>170</v>
       </c>
@@ -9949,7 +10304,7 @@
       </c>
       <c r="O69" s="9"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>223</v>
       </c>
@@ -9986,7 +10341,7 @@
       </c>
       <c r="O70" s="9"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>229</v>
       </c>
@@ -10023,7 +10378,7 @@
       </c>
       <c r="O71" s="9"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>234</v>
       </c>
@@ -10060,15 +10415,15 @@
       </c>
       <c r="O72" s="9"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>184</v>
       </c>
@@ -10079,7 +10434,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>168</v>
       </c>
@@ -10102,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>169</v>
       </c>
@@ -10125,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>170</v>
       </c>
@@ -10148,7 +10503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -10171,7 +10526,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>229</v>
       </c>
@@ -10194,7 +10549,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>234</v>
       </c>
@@ -10217,7 +10572,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -10228,7 +10583,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -10251,7 +10606,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -10274,7 +10629,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -10297,7 +10652,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>223</v>
       </c>
@@ -10320,7 +10675,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>229</v>
       </c>
@@ -10343,7 +10698,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -10366,7 +10721,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>267</v>
       </c>
@@ -10377,7 +10732,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>168</v>
       </c>
@@ -10401,7 +10756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>169</v>
       </c>
@@ -10425,7 +10780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>170</v>
       </c>
@@ -10448,7 +10803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>223</v>
       </c>
@@ -10471,7 +10826,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>229</v>
       </c>
@@ -10494,7 +10849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>234</v>
       </c>
@@ -10517,16 +10872,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J100" s="19"/>
       <c r="O100" s="19"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>179</v>
       </c>
@@ -10563,7 +10918,7 @@
       </c>
       <c r="P103" s="9"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>168</v>
       </c>
@@ -10609,7 +10964,7 @@
       </c>
       <c r="P104" s="20"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>169</v>
       </c>
@@ -10655,7 +11010,7 @@
       </c>
       <c r="P105" s="20"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>170</v>
       </c>
@@ -10701,7 +11056,7 @@
       </c>
       <c r="P106" s="9"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>223</v>
       </c>
@@ -10748,7 +11103,7 @@
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>229</v>
       </c>
@@ -10793,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>234</v>
       </c>
@@ -10838,12 +11193,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>179</v>
       </c>
@@ -10885,7 +11240,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>168</v>
       </c>
@@ -10938,7 +11293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>169</v>
       </c>
@@ -10991,7 +11346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>170</v>
       </c>
@@ -11044,7 +11399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>223</v>
       </c>
@@ -11098,7 +11453,7 @@
       </c>
       <c r="R117" s="9"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>229</v>
       </c>
@@ -11151,7 +11506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>234</v>
       </c>
@@ -11225,24 +11580,24 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" customWidth="1"/>
-    <col min="18" max="18" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" customWidth="1"/>
+    <col min="18" max="18" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -11253,12 +11608,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="U2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -11287,7 +11642,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -11316,7 +11671,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -11345,7 +11700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -11374,7 +11729,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -11394,7 +11749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -11417,7 +11772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -11440,7 +11795,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -11451,7 +11806,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -11480,7 +11835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="F12" t="s">
@@ -11505,7 +11860,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="F13" t="s">
         <v>140</v>
@@ -11529,7 +11884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="F14" t="s">
         <v>180</v>
@@ -11553,7 +11908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>150</v>
       </c>
@@ -11574,7 +11929,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="F16" t="s">
@@ -11593,7 +11948,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>152</v>
       </c>
@@ -11619,7 +11974,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -11640,7 +11995,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -11658,7 +12013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -11676,7 +12031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -11706,7 +12061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -11730,7 +12085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -11754,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -11778,7 +12133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -11802,7 +12157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -11826,7 +12181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="15"/>
       <c r="C27" s="30">
@@ -11846,17 +12201,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>152</v>
       </c>
@@ -11864,7 +12219,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
@@ -11872,7 +12227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -11880,7 +12235,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>21</v>
       </c>
@@ -11888,7 +12243,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
@@ -11896,7 +12251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
@@ -11904,7 +12259,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>24</v>
       </c>
@@ -11912,7 +12267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -11920,7 +12275,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -11928,7 +12283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -11936,7 +12291,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>28</v>
       </c>
@@ -11944,15 +12299,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -11990,7 +12345,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>1</v>
       </c>
@@ -12006,7 +12361,7 @@
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>2</v>
       </c>
@@ -12022,7 +12377,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>3</v>
       </c>
@@ -12038,12 +12393,12 @@
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>149</v>
       </c>
@@ -12081,7 +12436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>168</v>
       </c>
@@ -12097,7 +12452,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>169</v>
       </c>
@@ -12113,7 +12468,7 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>170</v>
       </c>
@@ -12129,12 +12484,12 @@
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>179</v>
       </c>
@@ -12169,7 +12524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>168</v>
       </c>
@@ -12184,7 +12539,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>169</v>
       </c>
@@ -12199,7 +12554,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>170</v>
       </c>
@@ -12214,12 +12569,12 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>184</v>
       </c>
@@ -12230,7 +12585,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>168</v>
       </c>
@@ -12253,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>169</v>
       </c>
@@ -12276,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -12299,7 +12654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>187</v>
       </c>
@@ -12310,7 +12665,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -12333,7 +12688,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -12356,7 +12711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>170</v>
       </c>
@@ -12379,7 +12734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -12390,7 +12745,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -12413,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -12436,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -12459,12 +12814,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E91" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E92" t="s">
         <v>168</v>
       </c>
@@ -12473,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E93" t="s">
         <v>169</v>
       </c>
@@ -12482,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E94" t="s">
         <v>170</v>
       </c>
@@ -12491,12 +12846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>179</v>
       </c>
@@ -12531,7 +12886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>168</v>
       </c>
@@ -12576,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>169</v>
       </c>
@@ -12621,7 +12976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>170</v>
       </c>
@@ -12666,12 +13021,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>179</v>
       </c>
@@ -12712,7 +13067,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>168</v>
       </c>
@@ -12765,7 +13120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>169</v>
       </c>
@@ -12818,7 +13173,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>170</v>
       </c>
@@ -12890,14 +13245,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>285</v>
       </c>
@@ -12908,7 +13263,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>287</v>
       </c>
@@ -12919,7 +13274,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>288</v>
       </c>
@@ -12930,7 +13285,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>289</v>
       </c>
@@ -12938,7 +13293,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>290</v>
       </c>
@@ -12946,7 +13301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>291</v>
       </c>
@@ -12954,7 +13309,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>292</v>
       </c>
@@ -12962,7 +13317,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>293</v>
       </c>
@@ -12970,7 +13325,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>294</v>
       </c>
@@ -12991,15 +13346,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -13010,7 +13365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13022,7 +13377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13034,7 +13389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13046,7 +13401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13058,7 +13413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -13070,7 +13425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -13082,7 +13437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -13094,7 +13449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13106,7 +13461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -13118,7 +13473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -13130,13 +13485,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12">
         <f>SUM(B2:B11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -13150,7 +13505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -13182,7 +13537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -13214,7 +13569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -13246,7 +13601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -13278,7 +13633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -13310,7 +13665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -13342,7 +13697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -13374,7 +13729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -13406,7 +13761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -13438,7 +13793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -13470,7 +13825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -13502,7 +13857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B25">
         <f>SUM(B15:B24)</f>
         <v>100</v>

--- a/Excel/STUDI KASUS.xlsx
+++ b/Excel/STUDI KASUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\skripsi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6179FD2B-A508-4F50-8C31-EA300B4EA514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C1B7CC-850D-4E49-8298-1A4C3F6EAEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="2" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="1" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="495">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -1570,6 +1570,12 @@
   </si>
   <si>
     <t>E26</t>
+  </si>
+  <si>
+    <t>hamida@gmail.com</t>
+  </si>
+  <si>
+    <t>hamida</t>
   </si>
 </sst>
 </file>
@@ -3889,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015FA8AF-97B1-4BAE-BA56-FF4AAB7B8C3B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="L11" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4457,10 +4463,10 @@
         <v>343</v>
       </c>
       <c r="O11" s="55" t="s">
-        <v>363</v>
+        <v>493</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>365</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -4794,7 +4800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:AB189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G158" zoomScale="96" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView topLeftCell="G158" zoomScale="96" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="K178" sqref="K178"/>
     </sheetView>
   </sheetViews>

--- a/Excel/STUDI KASUS.xlsx
+++ b/Excel/STUDI KASUS.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\skripsi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C1B7CC-850D-4E49-8298-1A4C3F6EAEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F750D752-9DDC-4C5C-915F-4CC054EA707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="1" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
     <sheet name="kost rapi" sheetId="11" r:id="rId2"/>
-    <sheet name="Studi Kasus for me" sheetId="4" r:id="rId3"/>
-    <sheet name="Studi Kasus for jurnal" sheetId="8" r:id="rId4"/>
-    <sheet name="Ressponden" sheetId="1" r:id="rId5"/>
+    <sheet name="Studi Kasus for me awalan" sheetId="4" r:id="rId3"/>
+    <sheet name="Studi Kasus for me revisi" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId5"/>
+    <sheet name="Studi Kasus for jurnal" sheetId="8" r:id="rId6"/>
+    <sheet name="Ressponden" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="509">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -1577,18 +1579,73 @@
   <si>
     <t>hamida</t>
   </si>
+  <si>
+    <t>meteran dan perbulan</t>
+  </si>
+  <si>
+    <t>3.5 x 4</t>
+  </si>
+  <si>
+    <t>Pasabayar</t>
+  </si>
+  <si>
+    <t>include pembayaran</t>
+  </si>
+  <si>
+    <t>ini revisi</t>
+  </si>
+  <si>
+    <t>versi lama</t>
+  </si>
+  <si>
+    <t>versi baru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9= Benefit: Nilai Alternatif Kriteria/ Nilai Maximal </t>
+  </si>
+  <si>
+    <t>versi revisi</t>
+  </si>
+  <si>
+    <r>
+      <t>14m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>hasil perhitungan yang berbeda dari word</t>
+  </si>
+  <si>
+    <t>hasil dari perhitungan excel ini</t>
+  </si>
+  <si>
+    <t>hasil rank perhitungan berbeda dengan di word</t>
+  </si>
+  <si>
+    <t>hasil perhitungan excel ini</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1677,8 +1734,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1706,6 +1769,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,7 +1856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1969,6 +2050,74 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2954,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46AEE5-C1DF-4E3B-B1A0-CC373A6F6C73}">
   <dimension ref="A2:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="C12" zoomScale="93" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3895,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015FA8AF-97B1-4BAE-BA56-FF4AAB7B8C3B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4583,16 +4732,16 @@
         <v>406</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>398</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>240</v>
+        <v>496</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>430</v>
+        <v>329</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>399</v>
@@ -4800,8 +4949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:AB189"/>
   <sheetViews>
-    <sheetView topLeftCell="G158" zoomScale="96" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="K178" sqref="K178"/>
+    <sheetView topLeftCell="A7" zoomScale="96" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10420,7 +10569,7 @@
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="K178" s="62">
-        <f t="shared" si="27"/>
+        <f>SUM(B178:J178)</f>
         <v>0.76700666666666661</v>
       </c>
       <c r="L178" s="9">
@@ -11031,6 +11180,6996 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871AEF4C-9567-4F69-A103-F367FD8FD456}">
+  <dimension ref="A1:AD189"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G165" zoomScale="115" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="Q165" sqref="Q165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.21875" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>327</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>265</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>326</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>266</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>328</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="17"/>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="15"/>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>329</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>497</v>
+      </c>
+      <c r="U13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15"/>
+      <c r="G14" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>170</v>
+      </c>
+      <c r="U14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="G15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>268</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>298</v>
+      </c>
+      <c r="U15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15"/>
+      <c r="G16" t="s">
+        <v>378</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="G17" t="s">
+        <v>321</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.314</v>
+      </c>
+      <c r="E18">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="P18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="69">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.1477</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>136</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>136</v>
+      </c>
+      <c r="U20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.111</v>
+      </c>
+      <c r="E21">
+        <v>0.1106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>298</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="D22" s="27">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E22">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="D23" s="27">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="54">
+        <v>0.875</v>
+      </c>
+      <c r="M23" s="54"/>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="D24" s="27">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E24">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>323</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="L24" s="54">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="M24" s="54"/>
+      <c r="N24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="D25" s="27">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E25">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>324</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="L25" s="54">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="M25" s="54"/>
+      <c r="N25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="27">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.23E-2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="L26" s="58">
+        <v>1</v>
+      </c>
+      <c r="M26" s="58"/>
+      <c r="N26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15">
+        <f>SUM(C18:C26)</f>
+        <v>0.99</v>
+      </c>
+      <c r="D27" s="27">
+        <f>SUM(D18:D26)</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>SUM(E18:E26)</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G27" t="s">
+        <v>468</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>306</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="18"/>
+      <c r="L47" t="s">
+        <v>501</v>
+      </c>
+      <c r="N47" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="34"/>
+      <c r="L48" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="77"/>
+      <c r="N48" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="36">
+        <v>800</v>
+      </c>
+      <c r="D49" s="36">
+        <v>8</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H49" s="44">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K49" s="36"/>
+      <c r="L49" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="M49" s="78"/>
+      <c r="N49" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="O49" s="12"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="36">
+        <v>9</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J50" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K50" s="36"/>
+      <c r="L50" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="M50" s="78"/>
+      <c r="N50" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51" s="36">
+        <v>9</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H51" s="44">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K51" s="36"/>
+      <c r="L51" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="M51" s="78"/>
+      <c r="N51" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="O51" s="12"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="36">
+        <v>667.66700000000003</v>
+      </c>
+      <c r="D52" s="36">
+        <v>3</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K52" s="36"/>
+      <c r="L52" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="M52" s="78"/>
+      <c r="N52" s="75" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D53" s="36">
+        <v>6</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K53" s="36"/>
+      <c r="L53" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="M53" s="78"/>
+      <c r="N53" s="75" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D54" s="36">
+        <v>7</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J54" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K54" s="36"/>
+      <c r="L54" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="M54" s="78"/>
+      <c r="N54" s="75" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" s="36">
+        <v>5</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K55" s="36"/>
+      <c r="L55" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="M55" s="78"/>
+      <c r="N55" s="75" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C56" s="36">
+        <v>541.66700000000003</v>
+      </c>
+      <c r="D56" s="36">
+        <v>2</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H56" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="I56" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K56" s="36"/>
+      <c r="L56" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="M56" s="78"/>
+      <c r="N56" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="O56" s="9"/>
+    </row>
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D57" s="36">
+        <v>6</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J57" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K57" s="36"/>
+      <c r="L57" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="M57" s="78"/>
+      <c r="N57" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="O57" s="12"/>
+    </row>
+    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="36">
+        <v>600</v>
+      </c>
+      <c r="D58" s="36">
+        <v>3</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J58" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58" s="36"/>
+      <c r="L58" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="M58" s="78"/>
+      <c r="N58" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="O58" s="12"/>
+    </row>
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="C59" s="37">
+        <v>750</v>
+      </c>
+      <c r="D59" s="37">
+        <v>6</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H59" s="56">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J59" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K59" s="36"/>
+      <c r="L59" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="M59" s="78"/>
+      <c r="N59" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="O59" s="12"/>
+    </row>
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="C60" s="37">
+        <v>625</v>
+      </c>
+      <c r="D60" s="37">
+        <v>5</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H60" s="56">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I60" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J60" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K60" s="36"/>
+      <c r="L60" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="M60" s="97"/>
+      <c r="N60" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="O60" s="12"/>
+    </row>
+    <row r="61" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="C61" s="37">
+        <v>708.33299999999997</v>
+      </c>
+      <c r="D61" s="37">
+        <v>5</v>
+      </c>
+      <c r="E61" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="G61" s="83" t="s">
+        <v>329</v>
+      </c>
+      <c r="H61" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="I61" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" s="83" t="s">
+        <v>302</v>
+      </c>
+      <c r="K61" s="83"/>
+      <c r="L61" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="M61" s="97"/>
+      <c r="N61" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="O61" s="12"/>
+    </row>
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="C62" s="37">
+        <v>583.33299999999997</v>
+      </c>
+      <c r="D62" s="37">
+        <v>4</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H62" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="I62" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J62" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K62" s="36"/>
+      <c r="L62" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="M62" s="97"/>
+      <c r="N62" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="O62" s="12"/>
+    </row>
+    <row r="63" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="C63" s="37">
+        <v>730</v>
+      </c>
+      <c r="D63" s="37">
+        <v>5</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="G63" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="H63" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J63" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K63" s="36"/>
+      <c r="L63" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="M63" s="78"/>
+      <c r="N63" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="O63" s="12"/>
+    </row>
+    <row r="64" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="C64" s="37">
+        <v>666.66700000000003</v>
+      </c>
+      <c r="D64" s="37">
+        <v>5</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H64" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K64" s="36"/>
+      <c r="L64" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="M64" s="78"/>
+      <c r="N64" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="O64" s="12"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J67" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="K67" s="37"/>
+    </row>
+    <row r="68" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="90"/>
+    </row>
+    <row r="69" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="41">
+        <v>1</v>
+      </c>
+      <c r="C69" s="41">
+        <v>4</v>
+      </c>
+      <c r="D69" s="41">
+        <v>3</v>
+      </c>
+      <c r="E69" s="41">
+        <v>1</v>
+      </c>
+      <c r="F69" s="41">
+        <v>2</v>
+      </c>
+      <c r="G69" s="41">
+        <v>2</v>
+      </c>
+      <c r="H69" s="41">
+        <v>1</v>
+      </c>
+      <c r="I69" s="41">
+        <v>2</v>
+      </c>
+      <c r="J69" s="72">
+        <v>2</v>
+      </c>
+      <c r="K69" s="73"/>
+    </row>
+    <row r="70" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="41">
+        <v>2</v>
+      </c>
+      <c r="C70" s="41">
+        <v>5</v>
+      </c>
+      <c r="D70" s="41">
+        <v>3</v>
+      </c>
+      <c r="E70" s="41">
+        <v>1</v>
+      </c>
+      <c r="F70" s="41">
+        <v>2</v>
+      </c>
+      <c r="G70" s="41">
+        <v>5</v>
+      </c>
+      <c r="H70" s="41">
+        <v>1</v>
+      </c>
+      <c r="I70" s="41">
+        <v>2</v>
+      </c>
+      <c r="J70" s="72">
+        <v>2</v>
+      </c>
+      <c r="K70" s="73"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="41">
+        <v>3</v>
+      </c>
+      <c r="C71" s="41">
+        <v>5</v>
+      </c>
+      <c r="D71" s="41">
+        <v>5</v>
+      </c>
+      <c r="E71" s="41">
+        <v>1</v>
+      </c>
+      <c r="F71" s="41">
+        <v>2</v>
+      </c>
+      <c r="G71" s="41">
+        <v>2</v>
+      </c>
+      <c r="H71" s="41">
+        <v>2</v>
+      </c>
+      <c r="I71" s="41">
+        <v>2</v>
+      </c>
+      <c r="J71" s="72">
+        <v>2</v>
+      </c>
+      <c r="K71" s="73"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="41">
+        <v>1</v>
+      </c>
+      <c r="C72" s="41">
+        <v>2</v>
+      </c>
+      <c r="D72" s="41">
+        <v>5</v>
+      </c>
+      <c r="E72" s="41">
+        <v>1</v>
+      </c>
+      <c r="F72" s="41">
+        <v>2</v>
+      </c>
+      <c r="G72" s="41">
+        <v>5</v>
+      </c>
+      <c r="H72" s="41">
+        <v>2</v>
+      </c>
+      <c r="I72" s="41">
+        <v>1</v>
+      </c>
+      <c r="J72" s="72">
+        <v>2</v>
+      </c>
+      <c r="K72" s="73"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="41">
+        <v>3</v>
+      </c>
+      <c r="C73" s="41">
+        <v>3</v>
+      </c>
+      <c r="D73" s="41">
+        <v>3</v>
+      </c>
+      <c r="E73" s="41">
+        <v>1</v>
+      </c>
+      <c r="F73" s="41">
+        <v>2</v>
+      </c>
+      <c r="G73" s="41">
+        <v>5</v>
+      </c>
+      <c r="H73" s="41">
+        <v>1</v>
+      </c>
+      <c r="I73" s="41">
+        <v>2</v>
+      </c>
+      <c r="J73" s="72">
+        <v>2</v>
+      </c>
+      <c r="K73" s="73"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="41">
+        <v>3</v>
+      </c>
+      <c r="C74" s="41">
+        <v>4</v>
+      </c>
+      <c r="D74" s="41">
+        <v>3</v>
+      </c>
+      <c r="E74" s="41">
+        <v>1</v>
+      </c>
+      <c r="F74" s="41">
+        <v>2</v>
+      </c>
+      <c r="G74" s="41">
+        <v>5</v>
+      </c>
+      <c r="H74" s="41">
+        <v>2</v>
+      </c>
+      <c r="I74" s="41">
+        <v>2</v>
+      </c>
+      <c r="J74" s="72">
+        <v>2</v>
+      </c>
+      <c r="K74" s="73"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B75" s="41">
+        <v>2</v>
+      </c>
+      <c r="C75" s="41">
+        <v>3</v>
+      </c>
+      <c r="D75" s="41">
+        <v>3</v>
+      </c>
+      <c r="E75" s="41">
+        <v>1</v>
+      </c>
+      <c r="F75" s="41">
+        <v>2</v>
+      </c>
+      <c r="G75" s="41">
+        <v>5</v>
+      </c>
+      <c r="H75" s="41">
+        <v>2</v>
+      </c>
+      <c r="I75" s="41">
+        <v>2</v>
+      </c>
+      <c r="J75" s="72">
+        <v>1</v>
+      </c>
+      <c r="K75" s="73"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" s="41">
+        <v>1</v>
+      </c>
+      <c r="C76" s="41">
+        <v>1</v>
+      </c>
+      <c r="D76" s="41">
+        <v>5</v>
+      </c>
+      <c r="E76" s="41">
+        <v>2</v>
+      </c>
+      <c r="F76" s="41">
+        <v>2</v>
+      </c>
+      <c r="G76" s="41">
+        <v>5</v>
+      </c>
+      <c r="H76" s="41">
+        <v>1</v>
+      </c>
+      <c r="I76" s="41">
+        <v>2</v>
+      </c>
+      <c r="J76" s="72">
+        <v>1</v>
+      </c>
+      <c r="K76" s="73"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+    </row>
+    <row r="77" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B77" s="41">
+        <v>2</v>
+      </c>
+      <c r="C77" s="41">
+        <v>3</v>
+      </c>
+      <c r="D77" s="41">
+        <v>3</v>
+      </c>
+      <c r="E77" s="41">
+        <v>1</v>
+      </c>
+      <c r="F77" s="41">
+        <v>2</v>
+      </c>
+      <c r="G77" s="41">
+        <v>5</v>
+      </c>
+      <c r="H77" s="41">
+        <v>1</v>
+      </c>
+      <c r="I77" s="41">
+        <v>2</v>
+      </c>
+      <c r="J77" s="72">
+        <v>1</v>
+      </c>
+      <c r="K77" s="73"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+    </row>
+    <row r="78" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="B78" s="41">
+        <v>1</v>
+      </c>
+      <c r="C78" s="41">
+        <v>2</v>
+      </c>
+      <c r="D78" s="41">
+        <v>3</v>
+      </c>
+      <c r="E78" s="41">
+        <v>1</v>
+      </c>
+      <c r="F78" s="41">
+        <v>2</v>
+      </c>
+      <c r="G78" s="41">
+        <v>5</v>
+      </c>
+      <c r="H78" s="41">
+        <v>1</v>
+      </c>
+      <c r="I78" s="41">
+        <v>2</v>
+      </c>
+      <c r="J78" s="72">
+        <v>1</v>
+      </c>
+      <c r="K78" s="73"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="B79" s="57">
+        <v>1</v>
+      </c>
+      <c r="C79" s="57">
+        <v>3</v>
+      </c>
+      <c r="D79" s="57">
+        <v>3</v>
+      </c>
+      <c r="E79" s="57">
+        <v>1</v>
+      </c>
+      <c r="F79" s="57">
+        <v>2</v>
+      </c>
+      <c r="G79" s="57">
+        <v>2</v>
+      </c>
+      <c r="H79" s="57">
+        <v>1</v>
+      </c>
+      <c r="I79" s="57">
+        <v>2</v>
+      </c>
+      <c r="J79" s="73">
+        <v>2</v>
+      </c>
+      <c r="K79" s="73"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B80" s="57">
+        <v>1</v>
+      </c>
+      <c r="C80" s="57">
+        <v>3</v>
+      </c>
+      <c r="D80" s="57">
+        <v>3</v>
+      </c>
+      <c r="E80" s="57">
+        <v>1</v>
+      </c>
+      <c r="F80" s="57">
+        <v>2</v>
+      </c>
+      <c r="G80" s="57">
+        <v>3</v>
+      </c>
+      <c r="H80" s="57">
+        <v>2</v>
+      </c>
+      <c r="I80" s="57">
+        <v>2</v>
+      </c>
+      <c r="J80" s="73">
+        <v>1</v>
+      </c>
+      <c r="K80" s="73"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="B81" s="57">
+        <v>1</v>
+      </c>
+      <c r="C81" s="57">
+        <v>3</v>
+      </c>
+      <c r="D81" s="84">
+        <v>4</v>
+      </c>
+      <c r="E81" s="57">
+        <v>1</v>
+      </c>
+      <c r="F81" s="84">
+        <v>1</v>
+      </c>
+      <c r="G81" s="57">
+        <v>5</v>
+      </c>
+      <c r="H81" s="57">
+        <v>2</v>
+      </c>
+      <c r="I81" s="84">
+        <v>1</v>
+      </c>
+      <c r="J81" s="73">
+        <v>1</v>
+      </c>
+      <c r="K81" s="73"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="B82" s="57">
+        <v>1</v>
+      </c>
+      <c r="C82" s="57">
+        <v>2</v>
+      </c>
+      <c r="D82" s="57">
+        <v>4</v>
+      </c>
+      <c r="E82" s="57">
+        <v>1</v>
+      </c>
+      <c r="F82" s="57">
+        <v>2</v>
+      </c>
+      <c r="G82" s="57">
+        <v>5</v>
+      </c>
+      <c r="H82" s="57">
+        <v>2</v>
+      </c>
+      <c r="I82" s="57">
+        <v>2</v>
+      </c>
+      <c r="J82" s="73">
+        <v>1</v>
+      </c>
+      <c r="K82" s="73"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="B83" s="57">
+        <v>1</v>
+      </c>
+      <c r="C83" s="57">
+        <v>3</v>
+      </c>
+      <c r="D83" s="57">
+        <v>3</v>
+      </c>
+      <c r="E83" s="57">
+        <v>1</v>
+      </c>
+      <c r="F83" s="57">
+        <v>1</v>
+      </c>
+      <c r="G83" s="57">
+        <v>5</v>
+      </c>
+      <c r="H83" s="57">
+        <v>2</v>
+      </c>
+      <c r="I83" s="57">
+        <v>3</v>
+      </c>
+      <c r="J83" s="73">
+        <v>2</v>
+      </c>
+      <c r="K83" s="73"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="B84" s="57">
+        <v>1</v>
+      </c>
+      <c r="C84" s="57">
+        <v>3</v>
+      </c>
+      <c r="D84" s="57">
+        <v>3</v>
+      </c>
+      <c r="E84" s="57">
+        <v>1</v>
+      </c>
+      <c r="F84" s="57">
+        <v>2</v>
+      </c>
+      <c r="G84" s="57">
+        <v>5</v>
+      </c>
+      <c r="H84" s="57">
+        <v>2</v>
+      </c>
+      <c r="I84" s="57">
+        <v>2</v>
+      </c>
+      <c r="J84" s="73">
+        <v>2</v>
+      </c>
+      <c r="K84" s="73"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>140</v>
+      </c>
+      <c r="F89" t="s">
+        <v>141</v>
+      </c>
+      <c r="J89" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="48">
+        <f t="shared" ref="B90:B105" si="0">1/B69</f>
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>127</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ref="G90:G105" si="1">C69/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+      <c r="L90">
+        <f t="shared" ref="L90:L105" si="2">D69/5</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="48">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>128</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="48">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F92" t="s">
+        <v>129</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>176</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="J93" t="s">
+        <v>176</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="48">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F94" t="s">
+        <v>182</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J94" t="s">
+        <v>182</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="48">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F95" t="s">
+        <v>187</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J95" t="s">
+        <v>187</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>285</v>
+      </c>
+      <c r="B96" s="48">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>285</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J96" t="s">
+        <v>285</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" s="48">
+        <f>1/B76</f>
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>288</v>
+      </c>
+      <c r="G97" s="48">
+        <f>C76/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>288</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>290</v>
+      </c>
+      <c r="B98" s="48">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>290</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J98" t="s">
+        <v>290</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>291</v>
+      </c>
+      <c r="B99" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>291</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="J99" t="s">
+        <v>291</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>424</v>
+      </c>
+      <c r="B100" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>424</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J100" t="s">
+        <v>424</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>425</v>
+      </c>
+      <c r="B101" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>425</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J101" t="s">
+        <v>425</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>426</v>
+      </c>
+      <c r="B102" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>426</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J102" t="s">
+        <v>426</v>
+      </c>
+      <c r="L102" s="81">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="M102" s="81"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>427</v>
+      </c>
+      <c r="B103" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>427</v>
+      </c>
+      <c r="G103">
+        <f>C82/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="J103" t="s">
+        <v>427</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>428</v>
+      </c>
+      <c r="B104" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>428</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J104" t="s">
+        <v>428</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>429</v>
+      </c>
+      <c r="B105" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>429</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J105" t="s">
+        <v>429</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>223</v>
+      </c>
+      <c r="F107" t="s">
+        <v>143</v>
+      </c>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ref="B108:B123" si="3">E69/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>127</v>
+      </c>
+      <c r="G108">
+        <f t="shared" ref="G108:G123" si="4">F69/2</f>
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>127</v>
+      </c>
+      <c r="L108">
+        <f t="shared" ref="L108:L123" si="5">2/G69</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>128</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>128</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>129</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>129</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>176</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>176</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>182</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F113" t="s">
+        <v>187</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>187</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>285</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F114" t="s">
+        <v>285</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>285</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>288</v>
+      </c>
+      <c r="B115">
+        <f>E76/2</f>
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>288</v>
+      </c>
+      <c r="G115">
+        <f>F76/2</f>
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>288</v>
+      </c>
+      <c r="L115">
+        <f>2/G76</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>290</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>290</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>290</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>291</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>291</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>291</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>424</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>424</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>424</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>425</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F119" t="s">
+        <v>425</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>425</v>
+      </c>
+      <c r="L119">
+        <f>2/G80</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>426</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>426</v>
+      </c>
+      <c r="G120" s="81">
+        <f>F81/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="J120" t="s">
+        <v>426</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>427</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>427</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>427</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>428</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>428</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="J122" t="s">
+        <v>428</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>429</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>429</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>429</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>145</v>
+      </c>
+      <c r="F125" t="s">
+        <v>146</v>
+      </c>
+      <c r="J125" s="79" t="s">
+        <v>502</v>
+      </c>
+      <c r="K125" s="79"/>
+      <c r="L125" s="79"/>
+      <c r="M125" s="79"/>
+      <c r="N125" s="79"/>
+      <c r="P125" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q125" s="85"/>
+      <c r="R125" s="85"/>
+      <c r="S125" s="85"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ref="B126:B141" si="6">H69/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>127</v>
+      </c>
+      <c r="G126" s="19">
+        <f t="shared" ref="G126:G141" si="7">I69/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J126" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="K126" s="79"/>
+      <c r="L126" s="80">
+        <f t="shared" ref="L126:L141" si="8">J69/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M126" s="80"/>
+      <c r="N126" s="79"/>
+      <c r="P126" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q126" s="86">
+        <f>J69/2</f>
+        <v>1</v>
+      </c>
+      <c r="R126" s="85"/>
+      <c r="S126" s="85"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>128</v>
+      </c>
+      <c r="G127" s="19">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J127" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="K127" s="79"/>
+      <c r="L127" s="80">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M127" s="80"/>
+      <c r="N127" s="79"/>
+      <c r="P127" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q127" s="86">
+        <f t="shared" ref="Q127:Q141" si="9">J70/2</f>
+        <v>1</v>
+      </c>
+      <c r="R127" s="85"/>
+      <c r="S127" s="85"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>129</v>
+      </c>
+      <c r="G128" s="19">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J128" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="K128" s="79"/>
+      <c r="L128" s="80">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M128" s="80"/>
+      <c r="N128" s="79"/>
+      <c r="P128" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q128" s="86">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R128" s="85"/>
+      <c r="S128" s="85"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>176</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>176</v>
+      </c>
+      <c r="G129" s="19">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J129" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="K129" s="79"/>
+      <c r="L129" s="80">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M129" s="80"/>
+      <c r="N129" s="79"/>
+      <c r="P129" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q129" s="86">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R129" s="85"/>
+      <c r="S129" s="85"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>182</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>182</v>
+      </c>
+      <c r="G130" s="19">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J130" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="K130" s="79"/>
+      <c r="L130" s="80">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M130" s="80"/>
+      <c r="N130" s="79"/>
+      <c r="P130" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q130" s="86">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R130" s="85"/>
+      <c r="S130" s="85"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>187</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>187</v>
+      </c>
+      <c r="G131" s="19">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J131" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="K131" s="79"/>
+      <c r="L131" s="80">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M131" s="80"/>
+      <c r="N131" s="79"/>
+      <c r="P131" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q131" s="86">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R131" s="85"/>
+      <c r="S131" s="85"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>285</v>
+      </c>
+      <c r="G132" s="19">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J132" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="K132" s="79"/>
+      <c r="L132" s="80">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M132" s="80"/>
+      <c r="N132" s="79"/>
+      <c r="P132" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q132" s="86">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="R132" s="85"/>
+      <c r="S132" s="85"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>288</v>
+      </c>
+      <c r="B133">
+        <f>H76/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F133" t="s">
+        <v>288</v>
+      </c>
+      <c r="G133" s="19">
+        <f>I76/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J133" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="K133" s="79"/>
+      <c r="L133" s="80">
+        <f>J76/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M133" s="80"/>
+      <c r="N133" s="79"/>
+      <c r="P133" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q133" s="86">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="R133" s="85"/>
+      <c r="S133" s="85"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>290</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F134" t="s">
+        <v>290</v>
+      </c>
+      <c r="G134" s="19">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J134" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="K134" s="79"/>
+      <c r="L134" s="80">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M134" s="80"/>
+      <c r="N134" s="79"/>
+      <c r="P134" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q134" s="86">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="R134" s="85"/>
+      <c r="S134" s="85"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>291</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F135" t="s">
+        <v>291</v>
+      </c>
+      <c r="G135" s="19">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J135" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="K135" s="79"/>
+      <c r="L135" s="80">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M135" s="80"/>
+      <c r="N135" s="79"/>
+      <c r="P135" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q135" s="86">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="R135" s="85"/>
+      <c r="S135" s="85"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>424</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F136" t="s">
+        <v>424</v>
+      </c>
+      <c r="G136" s="19">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J136" s="79" t="s">
+        <v>424</v>
+      </c>
+      <c r="K136" s="79"/>
+      <c r="L136" s="80">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M136" s="80"/>
+      <c r="N136" s="79"/>
+      <c r="P136" s="85" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q136" s="86">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R136" s="85"/>
+      <c r="S136" s="85"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>425</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>425</v>
+      </c>
+      <c r="G137" s="19">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J137" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="K137" s="79"/>
+      <c r="L137" s="80">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M137" s="80"/>
+      <c r="N137" s="79"/>
+      <c r="P137" s="85" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q137" s="86">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="R137" s="85"/>
+      <c r="S137" s="85"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>426</v>
+      </c>
+      <c r="B138">
+        <f>H81/2</f>
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>426</v>
+      </c>
+      <c r="G138" s="82">
+        <f>I81/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J138" s="79" t="s">
+        <v>426</v>
+      </c>
+      <c r="K138" s="79"/>
+      <c r="L138" s="80">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M138" s="80"/>
+      <c r="N138" s="79"/>
+      <c r="P138" s="85" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q138" s="86">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="R138" s="85"/>
+      <c r="S138" s="85"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>427</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>427</v>
+      </c>
+      <c r="G139" s="19">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J139" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="K139" s="79"/>
+      <c r="L139" s="80">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M139" s="80"/>
+      <c r="N139" s="79"/>
+      <c r="P139" s="85" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q139" s="86">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="R139" s="85"/>
+      <c r="S139" s="85"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>428</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>428</v>
+      </c>
+      <c r="G140" s="19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J140" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="K140" s="79"/>
+      <c r="L140" s="80">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M140" s="80"/>
+      <c r="N140" s="79"/>
+      <c r="P140" s="85" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q140" s="86">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R140" s="85"/>
+      <c r="S140" s="85"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>429</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>429</v>
+      </c>
+      <c r="G141" s="19">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J141" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="K141" s="79"/>
+      <c r="L141" s="80">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M141" s="80"/>
+      <c r="N141" s="79"/>
+      <c r="P141" s="85" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q141" s="86">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R141" s="85"/>
+      <c r="S141" s="85"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L142" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J144" t="s">
+        <v>500</v>
+      </c>
+      <c r="L144" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J145" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="K145" s="87"/>
+      <c r="L145" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="M145" s="66"/>
+      <c r="N145" s="9"/>
+      <c r="R145" t="s">
+        <v>138</v>
+      </c>
+      <c r="S145" t="s">
+        <v>17</v>
+      </c>
+      <c r="T145" t="s">
+        <v>18</v>
+      </c>
+      <c r="U145" t="s">
+        <v>19</v>
+      </c>
+      <c r="V145" t="s">
+        <v>20</v>
+      </c>
+      <c r="W145" t="s">
+        <v>21</v>
+      </c>
+      <c r="X145" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA145" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B146" s="59">
+        <f>B90</f>
+        <v>1</v>
+      </c>
+      <c r="C146" s="59">
+        <f>G90</f>
+        <v>0.8</v>
+      </c>
+      <c r="D146" s="59">
+        <f t="shared" ref="D146:D161" si="10">L90</f>
+        <v>0.6</v>
+      </c>
+      <c r="E146" s="59">
+        <f>B108</f>
+        <v>0.5</v>
+      </c>
+      <c r="F146" s="59">
+        <f>G108</f>
+        <v>1</v>
+      </c>
+      <c r="G146" s="59">
+        <f>L108</f>
+        <v>1</v>
+      </c>
+      <c r="H146" s="59">
+        <f>B126</f>
+        <v>0.5</v>
+      </c>
+      <c r="I146" s="59">
+        <f>G126</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J146" s="88">
+        <f>L126</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K146" s="88"/>
+      <c r="L146" s="86">
+        <f t="shared" ref="L146:L161" si="11">Q126</f>
+        <v>1</v>
+      </c>
+      <c r="M146" s="86"/>
+      <c r="N146" s="20"/>
+      <c r="R146" t="s">
+        <v>127</v>
+      </c>
+      <c r="S146">
+        <v>1</v>
+      </c>
+      <c r="T146">
+        <v>0.8</v>
+      </c>
+      <c r="U146">
+        <v>0.6</v>
+      </c>
+      <c r="V146">
+        <v>0.5</v>
+      </c>
+      <c r="W146">
+        <v>1</v>
+      </c>
+      <c r="X146">
+        <v>1</v>
+      </c>
+      <c r="Y146">
+        <v>0.5</v>
+      </c>
+      <c r="Z146">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B147" s="59">
+        <f t="shared" ref="B147:B161" si="12">B91</f>
+        <v>0.5</v>
+      </c>
+      <c r="C147" s="59">
+        <f t="shared" ref="C147:C161" si="13">G91</f>
+        <v>1</v>
+      </c>
+      <c r="D147" s="59">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="E147" s="59">
+        <f t="shared" ref="E147:E161" si="14">B109</f>
+        <v>0.5</v>
+      </c>
+      <c r="F147" s="59">
+        <f t="shared" ref="F147:F161" si="15">G109</f>
+        <v>1</v>
+      </c>
+      <c r="G147" s="59">
+        <f t="shared" ref="G147:G161" si="16">L109</f>
+        <v>0.4</v>
+      </c>
+      <c r="H147" s="59">
+        <f t="shared" ref="H147:H161" si="17">B127</f>
+        <v>0.5</v>
+      </c>
+      <c r="I147" s="59">
+        <f t="shared" ref="I147:I161" si="18">G127</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J147" s="88">
+        <f t="shared" ref="J147:J161" si="19">L127</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K147" s="88"/>
+      <c r="L147" s="86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M147" s="86"/>
+      <c r="N147" s="20"/>
+      <c r="R147" t="s">
+        <v>128</v>
+      </c>
+      <c r="S147">
+        <v>0.5</v>
+      </c>
+      <c r="T147">
+        <v>1</v>
+      </c>
+      <c r="U147">
+        <v>0.6</v>
+      </c>
+      <c r="V147">
+        <v>0.5</v>
+      </c>
+      <c r="W147">
+        <v>1</v>
+      </c>
+      <c r="X147">
+        <v>0.4</v>
+      </c>
+      <c r="Y147">
+        <v>0.5</v>
+      </c>
+      <c r="Z147">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" s="59">
+        <f t="shared" si="12"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C148" s="59">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D148" s="59">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E148" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F148" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G148" s="59">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H148" s="59">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I148" s="59">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J148" s="88">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K148" s="88"/>
+      <c r="L148" s="86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M148" s="86"/>
+      <c r="N148" s="9"/>
+      <c r="R148" t="s">
+        <v>129</v>
+      </c>
+      <c r="S148">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T148">
+        <v>1</v>
+      </c>
+      <c r="U148">
+        <v>1</v>
+      </c>
+      <c r="V148">
+        <v>0.5</v>
+      </c>
+      <c r="W148">
+        <v>1</v>
+      </c>
+      <c r="X148">
+        <v>1</v>
+      </c>
+      <c r="Y148">
+        <v>1</v>
+      </c>
+      <c r="Z148">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B149" s="59">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C149" s="59">
+        <f t="shared" si="13"/>
+        <v>0.4</v>
+      </c>
+      <c r="D149" s="59">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E149" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F149" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G149" s="59">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="H149" s="59">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I149" s="59">
+        <f t="shared" si="18"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J149" s="88">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K149" s="88"/>
+      <c r="L149" s="86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M149" s="86"/>
+      <c r="N149" s="9"/>
+      <c r="R149" t="s">
+        <v>176</v>
+      </c>
+      <c r="S149">
+        <v>1</v>
+      </c>
+      <c r="T149">
+        <v>0.4</v>
+      </c>
+      <c r="U149">
+        <v>1</v>
+      </c>
+      <c r="V149">
+        <v>0.5</v>
+      </c>
+      <c r="W149">
+        <v>1</v>
+      </c>
+      <c r="X149">
+        <v>0.4</v>
+      </c>
+      <c r="Y149">
+        <v>1</v>
+      </c>
+      <c r="Z149">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B150" s="59">
+        <f t="shared" si="12"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C150" s="59">
+        <f t="shared" si="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="D150" s="59">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="E150" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F150" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G150" s="59">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="H150" s="59">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I150" s="59">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J150" s="88">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K150" s="88"/>
+      <c r="L150" s="86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M150" s="86"/>
+      <c r="N150" s="9"/>
+      <c r="R150" t="s">
+        <v>182</v>
+      </c>
+      <c r="S150">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T150">
+        <v>0.6</v>
+      </c>
+      <c r="U150">
+        <v>0.6</v>
+      </c>
+      <c r="V150">
+        <v>0.5</v>
+      </c>
+      <c r="W150">
+        <v>1</v>
+      </c>
+      <c r="X150">
+        <v>0.4</v>
+      </c>
+      <c r="Y150">
+        <v>0.5</v>
+      </c>
+      <c r="Z150">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B151" s="59">
+        <f t="shared" si="12"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C151" s="59">
+        <f>G95</f>
+        <v>0.8</v>
+      </c>
+      <c r="D151" s="59">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="E151" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F151" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G151" s="59">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="H151" s="59">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I151" s="59">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J151" s="88">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K151" s="88"/>
+      <c r="L151" s="86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M151" s="86"/>
+      <c r="N151" s="9"/>
+      <c r="R151" t="s">
+        <v>187</v>
+      </c>
+      <c r="S151">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T151">
+        <v>0.8</v>
+      </c>
+      <c r="U151">
+        <v>0.6</v>
+      </c>
+      <c r="V151">
+        <v>0.5</v>
+      </c>
+      <c r="W151">
+        <v>1</v>
+      </c>
+      <c r="X151">
+        <v>0.4</v>
+      </c>
+      <c r="Y151">
+        <v>1</v>
+      </c>
+      <c r="Z151">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A152" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B152" s="59">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="C152" s="59">
+        <f t="shared" si="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="D152" s="59">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="E152" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F152" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G152" s="59">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="H152" s="59">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I152" s="59">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J152" s="88">
+        <f>L132</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K152" s="88"/>
+      <c r="L152" s="86">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="M152" s="86"/>
+      <c r="N152" s="9"/>
+      <c r="R152" t="s">
+        <v>285</v>
+      </c>
+      <c r="S152">
+        <v>0.5</v>
+      </c>
+      <c r="T152">
+        <v>0.6</v>
+      </c>
+      <c r="U152">
+        <v>0.6</v>
+      </c>
+      <c r="V152">
+        <v>0.5</v>
+      </c>
+      <c r="W152">
+        <v>1</v>
+      </c>
+      <c r="X152">
+        <v>0.4</v>
+      </c>
+      <c r="Y152">
+        <v>1</v>
+      </c>
+      <c r="Z152">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA152">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A153" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B153" s="59">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C153" s="59">
+        <f t="shared" si="13"/>
+        <v>0.2</v>
+      </c>
+      <c r="D153" s="59">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="59">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F153" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G153" s="59">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="H153" s="59">
+        <f>B133</f>
+        <v>0.5</v>
+      </c>
+      <c r="I153" s="59">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J153" s="88">
+        <f t="shared" si="19"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K153" s="88"/>
+      <c r="L153" s="86">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="M153" s="86"/>
+      <c r="N153" s="9"/>
+      <c r="R153" t="s">
+        <v>288</v>
+      </c>
+      <c r="S153">
+        <v>1</v>
+      </c>
+      <c r="T153">
+        <v>0.2</v>
+      </c>
+      <c r="U153">
+        <v>1</v>
+      </c>
+      <c r="V153">
+        <v>1</v>
+      </c>
+      <c r="W153">
+        <v>1</v>
+      </c>
+      <c r="X153">
+        <v>0.4</v>
+      </c>
+      <c r="Y153">
+        <v>0.5</v>
+      </c>
+      <c r="Z153">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA153">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A154" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B154" s="59">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="C154" s="59">
+        <f t="shared" si="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="D154" s="59">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="E154" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F154" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G154" s="59">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="H154" s="59">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I154" s="59">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J154" s="88">
+        <f t="shared" si="19"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K154" s="88"/>
+      <c r="L154" s="86">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="M154" s="86"/>
+      <c r="N154" s="9"/>
+      <c r="R154" t="s">
+        <v>290</v>
+      </c>
+      <c r="S154">
+        <v>0.5</v>
+      </c>
+      <c r="T154">
+        <v>0.6</v>
+      </c>
+      <c r="U154">
+        <v>0.6</v>
+      </c>
+      <c r="V154">
+        <v>0.5</v>
+      </c>
+      <c r="W154">
+        <v>1</v>
+      </c>
+      <c r="X154">
+        <v>0.4</v>
+      </c>
+      <c r="Y154">
+        <v>0.5</v>
+      </c>
+      <c r="Z154">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA154">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B155" s="59">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C155" s="59">
+        <f t="shared" si="13"/>
+        <v>0.4</v>
+      </c>
+      <c r="D155" s="59">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="E155" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F155" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G155" s="59">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="H155" s="59">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I155" s="59">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J155" s="88">
+        <f t="shared" si="19"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K155" s="88"/>
+      <c r="L155" s="86">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="M155" s="86"/>
+      <c r="R155" t="s">
+        <v>291</v>
+      </c>
+      <c r="S155">
+        <v>1</v>
+      </c>
+      <c r="T155">
+        <v>0.4</v>
+      </c>
+      <c r="U155">
+        <v>0.6</v>
+      </c>
+      <c r="V155">
+        <v>0.5</v>
+      </c>
+      <c r="W155">
+        <v>1</v>
+      </c>
+      <c r="X155">
+        <v>0.4</v>
+      </c>
+      <c r="Y155">
+        <v>0.5</v>
+      </c>
+      <c r="Z155">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA155">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A156" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B156" s="59">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C156" s="59">
+        <f t="shared" si="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="D156" s="59">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="E156" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F156" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G156" s="59">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H156" s="59">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I156" s="59">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J156" s="88">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K156" s="88"/>
+      <c r="L156" s="86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M156" s="86"/>
+      <c r="R156" t="s">
+        <v>424</v>
+      </c>
+      <c r="S156">
+        <v>1</v>
+      </c>
+      <c r="T156">
+        <v>0.6</v>
+      </c>
+      <c r="U156">
+        <v>0.6</v>
+      </c>
+      <c r="V156">
+        <v>0.5</v>
+      </c>
+      <c r="W156">
+        <v>1</v>
+      </c>
+      <c r="X156">
+        <v>1</v>
+      </c>
+      <c r="Y156">
+        <v>0.5</v>
+      </c>
+      <c r="Z156">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A157" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B157" s="59">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C157" s="59">
+        <f t="shared" si="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="D157" s="59">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="E157" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F157" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G157" s="59">
+        <f>L119</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H157" s="59">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I157" s="59">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J157" s="88">
+        <f t="shared" si="19"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K157" s="88"/>
+      <c r="L157" s="86">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="M157" s="86"/>
+      <c r="R157" t="s">
+        <v>425</v>
+      </c>
+      <c r="S157">
+        <v>1</v>
+      </c>
+      <c r="T157">
+        <v>0.6</v>
+      </c>
+      <c r="U157">
+        <v>0.6</v>
+      </c>
+      <c r="V157">
+        <v>0.5</v>
+      </c>
+      <c r="W157">
+        <v>1</v>
+      </c>
+      <c r="X157">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y157">
+        <v>1</v>
+      </c>
+      <c r="Z157">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA157">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B158" s="59">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C158" s="59">
+        <f t="shared" si="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="D158" s="89">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="E158" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F158" s="89">
+        <f>G120</f>
+        <v>0.5</v>
+      </c>
+      <c r="G158" s="59">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="H158" s="59">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I158" s="89">
+        <f>G138</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J158" s="88">
+        <f t="shared" si="19"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K158" s="88"/>
+      <c r="L158" s="86">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="M158" s="86"/>
+      <c r="R158" t="s">
+        <v>426</v>
+      </c>
+      <c r="S158">
+        <v>1</v>
+      </c>
+      <c r="T158">
+        <v>0.6</v>
+      </c>
+      <c r="U158">
+        <v>0.6</v>
+      </c>
+      <c r="V158">
+        <v>0.5</v>
+      </c>
+      <c r="W158">
+        <v>1</v>
+      </c>
+      <c r="X158">
+        <v>0.4</v>
+      </c>
+      <c r="Y158">
+        <v>1</v>
+      </c>
+      <c r="Z158">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA158">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B159" s="59">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C159" s="59">
+        <f t="shared" si="13"/>
+        <v>0.4</v>
+      </c>
+      <c r="D159" s="59">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="E159" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F159" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G159" s="59">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="H159" s="59">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I159" s="59">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J159" s="88">
+        <f t="shared" si="19"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K159" s="88"/>
+      <c r="L159" s="86">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="M159" s="86"/>
+      <c r="R159" t="s">
+        <v>427</v>
+      </c>
+      <c r="S159">
+        <v>1</v>
+      </c>
+      <c r="T159">
+        <v>0.4</v>
+      </c>
+      <c r="U159">
+        <v>0.8</v>
+      </c>
+      <c r="V159">
+        <v>0.5</v>
+      </c>
+      <c r="W159">
+        <v>1</v>
+      </c>
+      <c r="X159">
+        <v>0.4</v>
+      </c>
+      <c r="Y159">
+        <v>1</v>
+      </c>
+      <c r="Z159">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA159">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A160" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B160" s="59">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C160" s="59">
+        <f t="shared" si="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="D160" s="59">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="E160" s="59">
+        <f>B122</f>
+        <v>0.5</v>
+      </c>
+      <c r="F160" s="59">
+        <f>G122</f>
+        <v>0.5</v>
+      </c>
+      <c r="G160" s="59">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="H160" s="59">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I160" s="59">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="J160" s="88">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K160" s="88"/>
+      <c r="L160" s="86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M160" s="86"/>
+      <c r="R160" t="s">
+        <v>428</v>
+      </c>
+      <c r="S160">
+        <v>1</v>
+      </c>
+      <c r="T160">
+        <v>0.6</v>
+      </c>
+      <c r="U160">
+        <v>0.6</v>
+      </c>
+      <c r="V160">
+        <v>0.5</v>
+      </c>
+      <c r="W160">
+        <v>0.5</v>
+      </c>
+      <c r="X160">
+        <v>0.4</v>
+      </c>
+      <c r="Y160">
+        <v>1</v>
+      </c>
+      <c r="Z160">
+        <v>1</v>
+      </c>
+      <c r="AA160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A161" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B161" s="59">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C161" s="59">
+        <f t="shared" si="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="D161" s="59">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="E161" s="59">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F161" s="59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G161" s="59">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="H161" s="59">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I161" s="59">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J161" s="88">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K161" s="88"/>
+      <c r="L161" s="86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M161" s="86"/>
+      <c r="R161" t="s">
+        <v>429</v>
+      </c>
+      <c r="S161">
+        <v>1</v>
+      </c>
+      <c r="T161">
+        <v>0.6</v>
+      </c>
+      <c r="U161">
+        <v>0.6</v>
+      </c>
+      <c r="V161">
+        <v>0.5</v>
+      </c>
+      <c r="W161">
+        <v>1</v>
+      </c>
+      <c r="X161">
+        <v>0.4</v>
+      </c>
+      <c r="Y161">
+        <v>1</v>
+      </c>
+      <c r="Z161">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A164" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="J164" t="s">
+        <v>501</v>
+      </c>
+      <c r="K164" t="s">
+        <v>500</v>
+      </c>
+      <c r="R164" s="18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+      <c r="A165" s="9"/>
+      <c r="B165" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="J165" s="66" t="s">
+        <v>492</v>
+      </c>
+      <c r="K165" s="87" t="s">
+        <v>492</v>
+      </c>
+      <c r="L165" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="M165" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="N165" s="9"/>
+      <c r="O165" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="P165" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="R165" s="9"/>
+      <c r="S165" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="T165" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="U165" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="V165" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="W165" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="X165" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y165" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z165" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA165" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB165" s="9"/>
+      <c r="AC165" s="9"/>
+      <c r="AD165" s="9"/>
+    </row>
+    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A166" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J166" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K166" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="L166" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M166" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="N166" s="9"/>
+      <c r="O166" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="P166" t="s">
+        <v>226</v>
+      </c>
+      <c r="R166" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="S166" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="T166" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="U166" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="V166" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="W166" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="X166" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y166" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z166" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA166" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB166" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC166" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD166" s="9"/>
+    </row>
+    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B167" s="9">
+        <f>B146*E18</f>
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="C167" s="62">
+        <f>C146*E19</f>
+        <v>0.16256000000000001</v>
+      </c>
+      <c r="D167" s="62">
+        <f>D146*E20</f>
+        <v>8.861999999999999E-2</v>
+      </c>
+      <c r="E167" s="9">
+        <f>E146*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F167" s="9">
+        <f>F146*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G167" s="9">
+        <f>G146*E23</f>
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="H167" s="62">
+        <f>H146*E24</f>
+        <v>2.1049999999999999E-2</v>
+      </c>
+      <c r="I167" s="62">
+        <f>I146*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J167" s="85">
+        <f>L146*E26</f>
+        <v>1.23E-2</v>
+      </c>
+      <c r="K167" s="87">
+        <f>J146*E26</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="L167" s="92">
+        <f>SUM(B167:J167)</f>
+        <v>0.8149966666666667</v>
+      </c>
+      <c r="M167" s="92">
+        <v>0.8149966666666667</v>
+      </c>
+      <c r="N167" s="9"/>
+      <c r="O167" s="9">
+        <f>_xlfn.RANK.EQ(L167,$L$167:$L$182,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P167">
+        <v>1</v>
+      </c>
+      <c r="R167" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S167" s="62">
+        <f>B146*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T167" s="62">
+        <f>C146*D19</f>
+        <v>0.16240000000000002</v>
+      </c>
+      <c r="U167" s="62">
+        <f>D146*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V167" s="62">
+        <f>E146*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W167" s="62">
+        <f>F146*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X167" s="62">
+        <f>G146*D23</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Y167" s="62">
+        <f>H146*D24</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z167" s="62">
+        <f>I146*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA167" s="62">
+        <f>J146*D26</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB167" s="62">
+        <f t="shared" ref="AB167:AB181" si="20">SUM(S167:AA167)</f>
+        <v>0.81103333333333327</v>
+      </c>
+      <c r="AC167" s="21">
+        <f>_xlfn.RANK.EQ(AB167,$AB$167:$AB$182,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD167" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A168" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B168" s="62">
+        <f>B147*E18</f>
+        <v>0.15715000000000001</v>
+      </c>
+      <c r="C168" s="9">
+        <f>C147*E19</f>
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="D168" s="62">
+        <f>D147*E20</f>
+        <v>8.861999999999999E-2</v>
+      </c>
+      <c r="E168" s="9">
+        <f>E147*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F168" s="9">
+        <f>F147*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G168" s="62">
+        <f>G147*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H168" s="62">
+        <f>H147*E24</f>
+        <v>2.1049999999999999E-2</v>
+      </c>
+      <c r="I168" s="62">
+        <f>I147*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J168" s="85">
+        <f>L147*E26</f>
+        <v>1.23E-2</v>
+      </c>
+      <c r="K168" s="87">
+        <f>J147*E26</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="L168" s="92">
+        <f t="shared" ref="L168:L182" si="21">SUM(B168:J168)</f>
+        <v>0.66212666666666664</v>
+      </c>
+      <c r="M168" s="92">
+        <v>0.66212666666666664</v>
+      </c>
+      <c r="N168" s="9"/>
+      <c r="O168" s="9">
+        <f t="shared" ref="O168:O182" si="22">_xlfn.RANK.EQ(L168,$L$167:$L$182,0)</f>
+        <v>12</v>
+      </c>
+      <c r="P168">
+        <v>12</v>
+      </c>
+      <c r="R168" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="S168" s="62">
+        <f>B147*D18</f>
+        <v>0.157</v>
+      </c>
+      <c r="T168" s="62">
+        <f>C147*D19</f>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="U168" s="62">
+        <f>D147*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V168" s="62">
+        <f>E147*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W168" s="62">
+        <f>F147*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X168" s="62">
+        <f>G147*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y168" s="62">
+        <f>H147*D24</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z168" s="62">
+        <f>I147*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA168" s="62">
+        <f>J147*D26</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB168" s="62">
+        <f t="shared" si="20"/>
+        <v>0.65803333333333325</v>
+      </c>
+      <c r="AC168" s="21">
+        <f t="shared" ref="AC168:AC182" si="23">_xlfn.RANK.EQ(AB168,$AB$167:$AB$182,0)</f>
+        <v>12</v>
+      </c>
+      <c r="AD168" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A169" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B169" s="62">
+        <f>B148*E18</f>
+        <v>0.10476666666666667</v>
+      </c>
+      <c r="C169" s="9">
+        <f>C148*E19</f>
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="D169" s="9">
+        <f>D148*E20</f>
+        <v>0.1477</v>
+      </c>
+      <c r="E169" s="9">
+        <f>E148*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F169" s="9">
+        <f>F148*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G169" s="9">
+        <f>G148*E23</f>
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="H169" s="9">
+        <f>H148*E24</f>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="I169" s="62">
+        <f>I148*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J169" s="85">
+        <f>L148*E26</f>
+        <v>1.23E-2</v>
+      </c>
+      <c r="K169" s="87">
+        <f>J148*E26</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="L169" s="92">
+        <f t="shared" si="21"/>
+        <v>0.72623333333333329</v>
+      </c>
+      <c r="M169" s="92">
+        <v>0.72623333333333329</v>
+      </c>
+      <c r="N169" s="60">
+        <v>10</v>
+      </c>
+      <c r="O169" s="9">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="P169">
+        <v>10</v>
+      </c>
+      <c r="R169" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="S169" s="68">
+        <f>B148*D18</f>
+        <v>0.10466666666666666</v>
+      </c>
+      <c r="T169" s="68">
+        <f>C148*D19</f>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="U169" s="68">
+        <f>D148*D20</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V169" s="68">
+        <f>E148*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W169" s="68">
+        <f>F148*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X169" s="68">
+        <f>G148*D23</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Y169" s="68">
+        <f>H148*D24</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Z169" s="68">
+        <f>I148*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA169" s="68">
+        <f>J148*D26</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB169" s="68">
+        <f t="shared" si="20"/>
+        <v>0.72250000000000003</v>
+      </c>
+      <c r="AC169" s="67">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="AD169" s="66"/>
+    </row>
+    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A170" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" s="9">
+        <f>B149*E18</f>
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="C170" s="62">
+        <f>C149*E19</f>
+        <v>8.1280000000000005E-2</v>
+      </c>
+      <c r="D170" s="9">
+        <f>D149*E20</f>
+        <v>0.1477</v>
+      </c>
+      <c r="E170" s="9">
+        <f>E149*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F170" s="9">
+        <f>F149*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G170" s="62">
+        <f>G149*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H170" s="9">
+        <f>H149*E24</f>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="I170" s="62">
+        <f>I149*E25</f>
+        <v>8.7333333333333325E-3</v>
+      </c>
+      <c r="J170" s="85">
+        <f>L149*E26</f>
+        <v>1.23E-2</v>
+      </c>
+      <c r="K170" s="87">
+        <f>J149*E26</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="L170" s="92">
+        <f t="shared" si="21"/>
+        <v>0.7687533333333334</v>
+      </c>
+      <c r="M170" s="92">
+        <v>0.7687533333333334</v>
+      </c>
+      <c r="N170" s="9"/>
+      <c r="O170" s="9">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="P170">
+        <v>4</v>
+      </c>
+      <c r="R170" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="S170" s="62">
+        <f>B149*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T170" s="62">
+        <f>C149*D19</f>
+        <v>8.1200000000000008E-2</v>
+      </c>
+      <c r="U170" s="62">
+        <f>D149*D20</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V170" s="62">
+        <f>E149*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W170" s="62">
+        <f>F149*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X170" s="62">
+        <f>G149*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y170" s="62">
+        <f>H149*D24</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Z170" s="62">
+        <f>I149*D25</f>
+        <v>8.6666666666666663E-3</v>
+      </c>
+      <c r="AA170" s="62">
+        <f>J149*D26</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB170" s="62">
+        <f t="shared" si="20"/>
+        <v>0.76476666666666671</v>
+      </c>
+      <c r="AC170" s="21">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="AD170" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A171" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" s="62">
+        <f>B150*E18</f>
+        <v>0.10476666666666667</v>
+      </c>
+      <c r="C171" s="62">
+        <f>C150*E19</f>
+        <v>0.12191999999999999</v>
+      </c>
+      <c r="D171" s="62">
+        <f>D150*E20</f>
+        <v>8.861999999999999E-2</v>
+      </c>
+      <c r="E171" s="9">
+        <f>E150*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F171" s="9">
+        <f>F150*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G171" s="62">
+        <f>G150*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H171" s="62">
+        <f>H150*E24</f>
+        <v>2.1049999999999999E-2</v>
+      </c>
+      <c r="I171" s="62">
+        <f>I150*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J171" s="85">
+        <f>L150*E26</f>
+        <v>1.23E-2</v>
+      </c>
+      <c r="K171" s="87">
+        <f>J150*E26</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="L171" s="92">
+        <f t="shared" si="21"/>
+        <v>0.52846333333333328</v>
+      </c>
+      <c r="M171" s="92">
+        <v>0.52846333333333328</v>
+      </c>
+      <c r="N171" s="9"/>
+      <c r="O171" s="9">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="P171">
+        <v>16</v>
+      </c>
+      <c r="R171" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="S171" s="62">
+        <f>B150*D18</f>
+        <v>0.10466666666666666</v>
+      </c>
+      <c r="T171" s="62">
+        <f>C150*D19</f>
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="U171" s="62">
+        <f>D150*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V171" s="62">
+        <f>E150*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W171" s="62">
+        <f>F150*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X171" s="62">
+        <f>G150*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y171" s="62">
+        <f>H150*D24</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z171" s="62">
+        <f>I150*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA171" s="62">
+        <f>J150*D26</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB171" s="62">
+        <f t="shared" si="20"/>
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="AC171" s="21">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="AD171" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A172" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B172" s="62">
+        <f>B151*E18</f>
+        <v>0.10476666666666667</v>
+      </c>
+      <c r="C172" s="62">
+        <f>C151*E19</f>
+        <v>0.16256000000000001</v>
+      </c>
+      <c r="D172" s="62">
+        <f>D151*E20</f>
+        <v>8.861999999999999E-2</v>
+      </c>
+      <c r="E172" s="9">
+        <f>E150*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F172" s="9">
+        <f>F151*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G172" s="62">
+        <f>G151*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H172" s="9">
+        <f>H151*E24</f>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="I172" s="62">
+        <f>I151*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J172" s="85">
+        <f>L151*E26</f>
+        <v>1.23E-2</v>
+      </c>
+      <c r="K172" s="87">
+        <f>J151*E26</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="L172" s="92">
+        <f t="shared" si="21"/>
+        <v>0.59015333333333331</v>
+      </c>
+      <c r="M172" s="92">
+        <v>0.59015333333333331</v>
+      </c>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="P172">
+        <v>14</v>
+      </c>
+      <c r="R172" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="S172" s="62">
+        <f>B151*D18</f>
+        <v>0.10466666666666666</v>
+      </c>
+      <c r="T172" s="62">
+        <f>C151*D19</f>
+        <v>0.16240000000000002</v>
+      </c>
+      <c r="U172" s="62">
+        <f>D151*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V172" s="62">
+        <f>E151*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W172" s="62">
+        <f>F151*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X172" s="62">
+        <f>G151*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y172" s="62">
+        <f>H151*D24</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Z172" s="62">
+        <f>I151*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA172" s="62">
+        <f>J151*D26</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB172" s="62">
+        <f t="shared" si="20"/>
+        <v>0.58610000000000007</v>
+      </c>
+      <c r="AC172" s="21">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="AD172" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A173" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B173" s="62">
+        <f>B152*E18</f>
+        <v>0.15715000000000001</v>
+      </c>
+      <c r="C173" s="62">
+        <f>C152*E19</f>
+        <v>0.12191999999999999</v>
+      </c>
+      <c r="D173" s="62">
+        <f>D152*E20</f>
+        <v>8.861999999999999E-2</v>
+      </c>
+      <c r="E173" s="9">
+        <f>E152*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F173" s="9">
+        <f>F152*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G173" s="62">
+        <f>G152*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H173" s="9">
+        <f>H152*E24</f>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="I173" s="62">
+        <f>I152*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J173" s="93">
+        <f>L152*E26</f>
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="K173" s="87">
+        <f>J152*E26</f>
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="L173" s="94">
+        <f t="shared" si="21"/>
+        <v>0.59574666666666665</v>
+      </c>
+      <c r="M173" s="94">
+        <v>0.59574666666666665</v>
+      </c>
+      <c r="N173" s="60"/>
+      <c r="O173" s="9">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="P173">
+        <v>13</v>
+      </c>
+      <c r="R173" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="S173" s="62">
+        <f>B152*D18</f>
+        <v>0.157</v>
+      </c>
+      <c r="T173" s="62">
+        <f>C152*D19</f>
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="U173" s="62">
+        <f>D152*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V173" s="62">
+        <f>E152*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W173" s="62">
+        <f>F152*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X173" s="62">
+        <f>G152*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y173" s="62">
+        <f>H152*D24</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Z173" s="62">
+        <f>I152*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA173" s="62">
+        <f>J152*D26</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB173" s="62">
+        <f t="shared" si="20"/>
+        <v>0.59383333333333332</v>
+      </c>
+      <c r="AC173" s="21">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="AD173" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A174" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B174" s="17">
+        <f>B153*E18</f>
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="C174" s="70">
+        <f>C153*E19</f>
+        <v>4.0640000000000003E-2</v>
+      </c>
+      <c r="D174" s="17">
+        <f>D153*E20</f>
+        <v>0.1477</v>
+      </c>
+      <c r="E174" s="17">
+        <f>E153*E21</f>
+        <v>0.1106</v>
+      </c>
+      <c r="F174" s="17">
+        <f>F153*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G174" s="70">
+        <f>G154*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H174" s="70">
+        <f>H154*E24</f>
+        <v>2.1049999999999999E-2</v>
+      </c>
+      <c r="I174" s="70">
+        <f>I154*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J174" s="93">
+        <f>L153*E26</f>
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="K174" s="87">
+        <f>J154*E26</f>
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="L174" s="94">
+        <f t="shared" si="21"/>
+        <v>0.76494666666666666</v>
+      </c>
+      <c r="M174" s="94">
+        <v>0.76494666666666666</v>
+      </c>
+      <c r="N174" s="17">
+        <v>5</v>
+      </c>
+      <c r="O174" s="9">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="P174">
+        <v>5</v>
+      </c>
+      <c r="R174" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="S174" s="64">
+        <f>B153*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T174" s="64">
+        <f>C153*D19</f>
+        <v>4.0600000000000004E-2</v>
+      </c>
+      <c r="U174" s="64">
+        <f>D153*D20</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V174" s="64">
+        <f>E153*D21</f>
+        <v>0.111</v>
+      </c>
+      <c r="W174" s="64">
+        <f>F153*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X174" s="64">
+        <f>G153*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y174" s="64">
+        <f>H153*D24</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z174" s="64">
+        <f>I153*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA174" s="64">
+        <f>J153*D26</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB174" s="64">
+        <f t="shared" si="20"/>
+        <v>0.76333333333333331</v>
+      </c>
+      <c r="AC174" s="65">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="AD174" s="63"/>
+    </row>
+    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A175" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B175" s="62">
+        <f>B154*E18</f>
+        <v>0.15715000000000001</v>
+      </c>
+      <c r="C175" s="62">
+        <f>C154*E19</f>
+        <v>0.12191999999999999</v>
+      </c>
+      <c r="D175" s="62">
+        <f>D154*E20</f>
+        <v>8.861999999999999E-2</v>
+      </c>
+      <c r="E175" s="9">
+        <f>E154*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F175" s="9">
+        <f>F154*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G175" s="62">
+        <f>G154*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H175" s="62">
+        <f>H154*E24</f>
+        <v>2.1049999999999999E-2</v>
+      </c>
+      <c r="I175" s="62">
+        <f>I154*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J175" s="93">
+        <f>L154*E26</f>
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="K175" s="87">
+        <f>J154*E26</f>
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="L175" s="94">
+        <f t="shared" si="21"/>
+        <v>0.57469666666666663</v>
+      </c>
+      <c r="M175" s="94">
+        <v>0.57469666666666663</v>
+      </c>
+      <c r="N175" s="9"/>
+      <c r="O175" s="9">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="P175">
+        <v>15</v>
+      </c>
+      <c r="R175" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="S175" s="62">
+        <f>B154*D18</f>
+        <v>0.157</v>
+      </c>
+      <c r="T175" s="62">
+        <f>C154*D19</f>
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="U175" s="62">
+        <f>D154*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V175" s="62">
+        <f>E154*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W175" s="62">
+        <f>F154*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X175" s="62">
+        <f>G154*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y175" s="62">
+        <f>H154*D24</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z175" s="62">
+        <f>I154*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA175" s="62">
+        <f>J154*D26</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB175" s="62">
+        <f t="shared" si="20"/>
+        <v>0.57283333333333331</v>
+      </c>
+      <c r="AC175" s="21">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="AD175" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A176" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B176" s="9">
+        <f>B155*E18</f>
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="C176" s="62">
+        <f>C155*E19</f>
+        <v>8.1280000000000005E-2</v>
+      </c>
+      <c r="D176" s="62">
+        <f>D155*E20</f>
+        <v>8.861999999999999E-2</v>
+      </c>
+      <c r="E176" s="9">
+        <f>E155*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F176" s="9">
+        <f>F156*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G176" s="70">
+        <f>G155*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H176" s="62">
+        <f>H156*E24</f>
+        <v>2.1049999999999999E-2</v>
+      </c>
+      <c r="I176" s="62">
+        <f>I156*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J176" s="93">
+        <f>L155*E26</f>
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="K176" s="91">
+        <f>J155*E26</f>
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="L176" s="94">
+        <f t="shared" si="21"/>
+        <v>0.69120666666666664</v>
+      </c>
+      <c r="M176" s="94">
+        <v>0.69120666666666664</v>
+      </c>
+      <c r="N176" s="9"/>
+      <c r="O176" s="9">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="P176">
+        <v>11</v>
+      </c>
+      <c r="R176" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="S176" s="62">
+        <f>B155*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T176" s="62">
+        <f>C155*D19</f>
+        <v>8.1200000000000008E-2</v>
+      </c>
+      <c r="U176" s="62">
+        <f>D155*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V176" s="62">
+        <f>E155*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W176" s="62">
+        <f>F155*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X176" s="62">
+        <f>G155*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y176" s="62">
+        <f>H155*D24</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z176" s="62">
+        <f>I155*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA176" s="62">
+        <f>J155*D26</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB176" s="62">
+        <f t="shared" si="20"/>
+        <v>0.68923333333333325</v>
+      </c>
+      <c r="AC176" s="21">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="AD176" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A177" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B177" s="9">
+        <f>B156*E18</f>
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="C177" s="62">
+        <f>C156*E19</f>
+        <v>0.12191999999999999</v>
+      </c>
+      <c r="D177" s="62">
+        <f>D156*E20</f>
+        <v>8.861999999999999E-2</v>
+      </c>
+      <c r="E177" s="9">
+        <f>E156*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F177" s="9">
+        <f>F156*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G177" s="17">
+        <f>G156*E23</f>
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="H177" s="62">
+        <f>H156*E24</f>
+        <v>2.1049999999999999E-2</v>
+      </c>
+      <c r="I177" s="62">
+        <f>I156*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J177" s="85">
+        <f>L156*E26</f>
+        <v>1.23E-2</v>
+      </c>
+      <c r="K177" s="87">
+        <f>J156*E26</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="L177" s="92">
+        <f t="shared" si="21"/>
+        <v>0.77435666666666658</v>
+      </c>
+      <c r="M177" s="92">
+        <v>0.77435666666666658</v>
+      </c>
+      <c r="N177" s="9"/>
+      <c r="O177" s="9">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="P177">
+        <v>2</v>
+      </c>
+      <c r="R177" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="S177" s="62">
+        <f>B156*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T177" s="62">
+        <f>C156*D19</f>
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="U177" s="62">
+        <f>D156*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V177" s="62">
+        <f>E156*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W177" s="62">
+        <f>F156*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X177" s="62">
+        <f>G156*D23</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Y177" s="62">
+        <f>H156*D24</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z177" s="62">
+        <f>I156*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA177" s="62">
+        <f>J156*D26</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB177" s="62">
+        <f t="shared" si="20"/>
+        <v>0.7704333333333333</v>
+      </c>
+      <c r="AC177" s="21">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AD177" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A178" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B178" s="9">
+        <f>B157*E18</f>
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="C178" s="62">
+        <f>C157*E19</f>
+        <v>0.12191999999999999</v>
+      </c>
+      <c r="D178" s="62">
+        <f>D157*E20</f>
+        <v>8.861999999999999E-2</v>
+      </c>
+      <c r="E178" s="62">
+        <f>E157*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F178" s="9">
+        <f>F157*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G178" s="9">
+        <f>G157*E23</f>
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="H178" s="9">
+        <f>H157*E24</f>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="I178" s="62">
+        <f>I157*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J178" s="93">
+        <f>L157*E26</f>
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="K178" s="87">
+        <f>J157*E26</f>
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="L178" s="94">
+        <f t="shared" si="21"/>
+        <v>0.76905666666666661</v>
+      </c>
+      <c r="M178" s="94">
+        <v>0.76905666666666661</v>
+      </c>
+      <c r="N178" s="9">
+        <v>4</v>
+      </c>
+      <c r="O178" s="9">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="P178">
+        <v>3</v>
+      </c>
+      <c r="R178" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="S178" s="64">
+        <f>B157*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T178" s="64">
+        <f>C157*D19</f>
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="U178" s="64">
+        <f>D157*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V178" s="64">
+        <f>E157*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W178" s="64">
+        <f>F157*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X178" s="64">
+        <f>G157*D23</f>
+        <v>4.0666666666666663E-2</v>
+      </c>
+      <c r="Y178" s="64">
+        <f>H157*D24</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Z178" s="64">
+        <f>I157*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA178" s="64">
+        <f>J157*D26</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB178" s="64">
+        <f t="shared" si="20"/>
+        <v>0.76709999999999989</v>
+      </c>
+      <c r="AC178" s="65">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AD178" s="63"/>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A179" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B179" s="9">
+        <f>B158*E18</f>
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="C179" s="62">
+        <f>C158*E19</f>
+        <v>0.12191999999999999</v>
+      </c>
+      <c r="D179" s="95">
+        <f>D158*E20</f>
+        <v>0.11816</v>
+      </c>
+      <c r="E179" s="9">
+        <f>E158*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F179" s="96">
+        <f>F158*E22</f>
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="G179" s="62">
+        <f>G158*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H179" s="9">
+        <f>H158*E24</f>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="I179" s="95">
+        <f>I158*E25</f>
+        <v>8.7333333333333325E-3</v>
+      </c>
+      <c r="J179" s="93">
+        <f>L158*E26</f>
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="K179" s="87">
+        <f>J158*E26</f>
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="L179" s="94">
+        <f t="shared" si="21"/>
+        <v>0.73230333333333342</v>
+      </c>
+      <c r="M179" s="94">
+        <v>0.73230333333333342</v>
+      </c>
+      <c r="N179" s="9"/>
+      <c r="O179" s="9">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="P179">
+        <v>8</v>
+      </c>
+      <c r="R179" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="S179" s="62">
+        <f>B158*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T179" s="62">
+        <f>C158*D19</f>
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="U179" s="62">
+        <f>D158*D20</f>
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="V179" s="62">
+        <f>E158*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W179" s="62">
+        <f>F158*D22</f>
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="X179" s="62">
+        <f>G158*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y179" s="62">
+        <f>H158*D24</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Z179" s="62">
+        <f>I158*D25</f>
+        <v>8.6666666666666663E-3</v>
+      </c>
+      <c r="AA179" s="62">
+        <f>J158*D26</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB179" s="62">
+        <f t="shared" si="20"/>
+        <v>0.73026666666666673</v>
+      </c>
+      <c r="AC179" s="21">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="AD179" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A180" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B180" s="9">
+        <f>B159*E18</f>
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="C180" s="62">
+        <f>C159*E19</f>
+        <v>8.1280000000000005E-2</v>
+      </c>
+      <c r="D180" s="62">
+        <f>D159*E20</f>
+        <v>0.11816</v>
+      </c>
+      <c r="E180" s="9">
+        <f>E159*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F180" s="9">
+        <f>F159*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G180" s="62">
+        <f>G159*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H180" s="9">
+        <f>H159*E24</f>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="I180" s="62">
+        <f>I159*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J180" s="93">
+        <f>L159*E26</f>
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="K180" s="87">
+        <f>J159*E26</f>
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="L180" s="94">
+        <f t="shared" si="21"/>
+        <v>0.74179666666666677</v>
+      </c>
+      <c r="M180" s="94">
+        <v>0.74179666666666677</v>
+      </c>
+      <c r="N180" s="9"/>
+      <c r="O180" s="9">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="P180">
+        <v>7</v>
+      </c>
+      <c r="R180" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="S180" s="62">
+        <f>B159*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T180" s="62">
+        <f>C159*D19</f>
+        <v>8.1200000000000008E-2</v>
+      </c>
+      <c r="U180" s="62">
+        <f>D159*D20</f>
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="V180" s="62">
+        <f>E159*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W180" s="62">
+        <f>F159*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X180" s="62">
+        <f>G159*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y180" s="62">
+        <f>H159*D24</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Z180" s="62">
+        <f>I159*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA180" s="62">
+        <f>J159*D26</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB180" s="62">
+        <f t="shared" si="20"/>
+        <v>0.73983333333333334</v>
+      </c>
+      <c r="AC180" s="21">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="AD180" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A181" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B181" s="9">
+        <f>B160*E18</f>
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="C181" s="62">
+        <f>C160*E19</f>
+        <v>0.12191999999999999</v>
+      </c>
+      <c r="D181" s="62">
+        <f>D160*E20</f>
+        <v>8.861999999999999E-2</v>
+      </c>
+      <c r="E181" s="9">
+        <f>E160*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F181" s="9">
+        <f>F160*E22</f>
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="G181" s="62">
+        <f>G160*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H181" s="9">
+        <f>H160*E24</f>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="I181" s="9">
+        <f>I160*E25</f>
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="J181" s="85">
+        <f>L160*E26</f>
+        <v>1.23E-2</v>
+      </c>
+      <c r="K181" s="87">
+        <f>J160*E26</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="L181" s="92">
+        <f t="shared" si="21"/>
+        <v>0.72638000000000003</v>
+      </c>
+      <c r="M181" s="92">
+        <v>0.72638000000000003</v>
+      </c>
+      <c r="N181" s="9">
+        <v>9</v>
+      </c>
+      <c r="O181" s="9">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="P181">
+        <v>9</v>
+      </c>
+      <c r="R181" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="S181" s="68">
+        <f>B160*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T181" s="68">
+        <f>C160*D19</f>
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="U181" s="68">
+        <f>D160*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V181" s="68">
+        <f>E160*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W181" s="68">
+        <f>F160*D22</f>
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="X181" s="68">
+        <f>G160*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y181" s="68">
+        <f>H160*D24</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Z181" s="68">
+        <f>I160*D25</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AA181" s="68">
+        <f>J160*D26</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB181" s="68">
+        <f t="shared" si="20"/>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AC181" s="67">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="AD181" s="66"/>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A182" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B182" s="9">
+        <f>B161*E18</f>
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="C182" s="62">
+        <f>C161*E19</f>
+        <v>0.12191999999999999</v>
+      </c>
+      <c r="D182" s="62">
+        <f>D161*E20</f>
+        <v>8.861999999999999E-2</v>
+      </c>
+      <c r="E182" s="9">
+        <f>E161*E21</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F182" s="9">
+        <f>F161*E22</f>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="G182" s="62">
+        <f>G161*E23</f>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="H182" s="9">
+        <f>H161*E24</f>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="I182" s="62">
+        <f>I161*E25</f>
+        <v>1.7466666666666665E-2</v>
+      </c>
+      <c r="J182" s="85">
+        <f>L161*E26</f>
+        <v>1.23E-2</v>
+      </c>
+      <c r="K182" s="87">
+        <f>J161*E26</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="L182" s="92">
+        <f t="shared" si="21"/>
+        <v>0.75904666666666665</v>
+      </c>
+      <c r="M182" s="92">
+        <v>0.75904666666666665</v>
+      </c>
+      <c r="N182" s="9"/>
+      <c r="O182" s="9">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="P182">
+        <v>6</v>
+      </c>
+      <c r="R182" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="S182" s="62">
+        <f>B161*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T182" s="62">
+        <f>C161*D19</f>
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="U182" s="62">
+        <f>D161*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V182" s="62">
+        <f>E161*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W182" s="62">
+        <f>F161*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X182" s="62">
+        <f>G161*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y182" s="62">
+        <f>H161*D24</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Z182" s="62">
+        <f>I161*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA182" s="62">
+        <f>J161*D26</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB182" s="62">
+        <f>SUM(S182:AA182)</f>
+        <v>0.75483333333333325</v>
+      </c>
+      <c r="AC182" s="21">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="AD182" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R185" t="s">
+        <v>288</v>
+      </c>
+      <c r="S185">
+        <f>B153*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T185">
+        <f>C153*D19</f>
+        <v>4.0600000000000004E-2</v>
+      </c>
+      <c r="U185">
+        <f>D153* D20</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V185">
+        <f>E153*D21</f>
+        <v>0.111</v>
+      </c>
+      <c r="W185">
+        <f>G153*D22</f>
+        <v>3.32E-2</v>
+      </c>
+      <c r="X185">
+        <f>G153*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y185">
+        <f>H153*D24</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z185">
+        <f>I153*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA185">
+        <f>J153*D26</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB185">
+        <f>SUM(S185:AA185)</f>
+        <v>0.71353333333333335</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R187" t="s">
+        <v>481</v>
+      </c>
+      <c r="S187">
+        <f>B153*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T187">
+        <f>C153*D19</f>
+        <v>4.0600000000000004E-2</v>
+      </c>
+      <c r="U187">
+        <f>D153*D20</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V187">
+        <f>E153*D21</f>
+        <v>0.111</v>
+      </c>
+      <c r="W187">
+        <f>F153*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X187">
+        <f>G153*D23</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="Y187">
+        <f>H153*D24</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z187">
+        <f>I153*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA187">
+        <f>J153*D26</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB187">
+        <f>SUM(S187:AA187)</f>
+        <v>0.76333333333333331</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R189" t="s">
+        <v>482</v>
+      </c>
+      <c r="S189">
+        <f>B157*D18</f>
+        <v>0.314</v>
+      </c>
+      <c r="T189">
+        <f>C157*D19</f>
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="U189">
+        <f>D157*D20</f>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="V189">
+        <f>E157*D21</f>
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="W189">
+        <f>F157*D22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="X189">
+        <f>G157*D23</f>
+        <v>4.0666666666666663E-2</v>
+      </c>
+      <c r="Y189">
+        <f>H157*D24</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Z189">
+        <f>I157*D25</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+      <c r="AA189">
+        <f>J157*D26</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB189">
+        <f>SUM(S189:AA189)</f>
+        <v>0.76709999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2CA57A-A845-4DC7-9421-80539E659A63}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="98">
+        <f>(1/9) *(1/1 + 1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7/ + 1/8 + 1/9)</f>
+        <v>0.28655202821869485</v>
+      </c>
+      <c r="D2">
+        <f>(1+1/2+1/3+1/4 +1/5+1/6+1/7+1/8+1/9)/9</f>
+        <v>0.31432980599647264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>((1/9) *(1/1 + 1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7/ + 1/8))</f>
+        <v>0.27420634920634918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>(1/9) *(1/1 + 1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7)</f>
+        <v>0.28809523809523802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6626FB-65A5-4DCB-9E1D-A2FA0EB2B8E1}">
   <dimension ref="A1:T119"/>
   <sheetViews>
@@ -14125,7 +21264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7917028-436B-4FE2-9CD4-951DC7160D43}">
   <dimension ref="A1:N25"/>
   <sheetViews>

--- a/Excel/STUDI KASUS.xlsx
+++ b/Excel/STUDI KASUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\skripsi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F750D752-9DDC-4C5C-915F-4CC054EA707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D41B774-DF01-49E0-91B3-83166E5D42B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="506">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -1021,10 +1021,6 @@
 Dapur Dalam, AC, Wifi, Tempat parkir         </t>
   </si>
   <si>
-    <t>Spring Bed,
-Lemari, tempat parkir</t>
-  </si>
-  <si>
     <t>Spring bed, lemari, meja,  ac, tempat parkir</t>
   </si>
   <si>
@@ -1622,16 +1618,11 @@
     </r>
   </si>
   <si>
-    <t>hasil perhitungan yang berbeda dari word</t>
-  </si>
-  <si>
-    <t>hasil dari perhitungan excel ini</t>
-  </si>
-  <si>
-    <t>hasil rank perhitungan berbeda dengan di word</t>
-  </si>
-  <si>
-    <t>hasil perhitungan excel ini</t>
+    <t>Spring Bed,
+Lemari, tempat parkir, kamar mandi dalam</t>
+  </si>
+  <si>
+    <t>Kasur, lemari, meja, kipas, parkir, kamar mandi dalam</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1732,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1775,18 +1766,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,7 +1835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2101,13 +2080,7 @@
     <xf numFmtId="167" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,6 +2091,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3671,25 +3647,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="F13" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>383</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>135</v>
@@ -3701,7 +3677,7 @@
         <v>240</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>38</v>
@@ -3715,40 +3691,40 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>389</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>135</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>240</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
@@ -3759,40 +3735,40 @@
         <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>396</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>72</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>240</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -3803,25 +3779,25 @@
         <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>72</v>
@@ -3830,13 +3806,13 @@
         <v>241</v>
       </c>
       <c r="L16" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="O16" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -3847,40 +3823,40 @@
         <v>15</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="F17" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>240</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -3891,40 +3867,40 @@
         <v>16</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>72</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>240</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -4044,8 +4020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015FA8AF-97B1-4BAE-BA56-FF4AAB7B8C3B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4109,13 +4085,13 @@
         <v>48</v>
       </c>
       <c r="N1" s="49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O1" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="P1" s="49" t="s">
         <v>354</v>
-      </c>
-      <c r="P1" s="49" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
@@ -4153,19 +4129,19 @@
         <v>61</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>63</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="72" x14ac:dyDescent="0.3">
@@ -4179,7 +4155,7 @@
         <v>277</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>72</v>
@@ -4194,7 +4170,7 @@
         <v>275</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>81</v>
@@ -4203,19 +4179,19 @@
         <v>61</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>63</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
@@ -4253,19 +4229,19 @@
         <v>61</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>63</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
@@ -4279,7 +4255,7 @@
         <v>281</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>314</v>
+        <v>504</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>136</v>
@@ -4303,19 +4279,19 @@
         <v>91</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>94</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
@@ -4329,7 +4305,7 @@
         <v>278</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>72</v>
@@ -4344,7 +4320,7 @@
         <v>275</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>81</v>
@@ -4353,19 +4329,19 @@
         <v>78</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O6" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
@@ -4379,7 +4355,7 @@
         <v>278</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>72</v>
@@ -4394,7 +4370,7 @@
         <v>275</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>93</v>
@@ -4403,19 +4379,19 @@
         <v>96</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>97</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -4429,7 +4405,7 @@
         <v>286</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>72</v>
@@ -4444,7 +4420,7 @@
         <v>275</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>93</v>
@@ -4453,19 +4429,19 @@
         <v>238</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>258</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O8" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -4479,7 +4455,7 @@
         <v>289</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>72</v>
@@ -4503,19 +4479,19 @@
         <v>238</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>259</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O9" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
@@ -4529,7 +4505,7 @@
         <v>286</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>72</v>
@@ -4553,19 +4529,19 @@
         <v>238</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>259</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O10" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
@@ -4579,7 +4555,7 @@
         <v>292</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>72</v>
@@ -4603,33 +4579,33 @@
         <v>255</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>260</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O11" s="55" t="s">
+        <v>492</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>493</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>135</v>
@@ -4641,7 +4617,7 @@
         <v>240</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>38</v>
@@ -4650,136 +4626,136 @@
         <v>265</v>
       </c>
       <c r="K12" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>386</v>
-      </c>
       <c r="N12" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O12" s="55" t="s">
+        <v>448</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>135</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>240</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O13" s="55" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>406</v>
+        <v>505</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>136</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>399</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O14" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>72</v>
@@ -4788,139 +4764,139 @@
         <v>241</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>410</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K15" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>403</v>
-      </c>
       <c r="N15" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O15" s="55" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>414</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>298</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>240</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="M16" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>417</v>
-      </c>
       <c r="N16" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O16" s="51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>422</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>423</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>240</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O17" s="55" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4949,8 +4925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:AB189"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="96" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A158" zoomScale="96" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5047,13 +5023,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -5079,7 +5055,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -5105,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -5139,7 +5115,7 @@
         <v>294</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -5216,13 +5192,13 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="O13" s="46" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -5231,13 +5207,13 @@
     <row r="14" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="G14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -5255,7 +5231,7 @@
       </c>
       <c r="B15" s="15"/>
       <c r="G15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -5271,7 +5247,7 @@
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="G16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -5289,7 +5265,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="G17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -5359,7 +5335,7 @@
         <v>0.1477</v>
       </c>
       <c r="O20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -5452,7 +5428,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="G23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -5481,7 +5457,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="G24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -5510,7 +5486,7 @@
         <v>2.6200000000000001E-2</v>
       </c>
       <c r="G25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -5539,7 +5515,7 @@
         <v>1.23E-2</v>
       </c>
       <c r="G26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -5567,7 +5543,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="G27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -5589,7 +5565,7 @@
         <v>311</v>
       </c>
       <c r="E28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -5780,7 +5756,7 @@
         <v>296</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>297</v>
@@ -5817,7 +5793,7 @@
         <v>296</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>297</v>
@@ -5854,7 +5830,7 @@
         <v>301</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>297</v>
@@ -5863,7 +5839,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J51" s="36" t="s">
         <v>135</v>
@@ -5885,13 +5861,13 @@
         <v>667.66700000000003</v>
       </c>
       <c r="D52" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" s="36" t="s">
         <v>301</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>297</v>
@@ -5926,7 +5902,7 @@
         <v>296</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>303</v>
@@ -5961,7 +5937,7 @@
         <v>296</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>297</v>
@@ -5996,7 +5972,7 @@
         <v>296</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>297</v>
@@ -6031,7 +6007,7 @@
         <v>301</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>297</v>
@@ -6068,7 +6044,7 @@
         <v>296</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>297</v>
@@ -6105,7 +6081,7 @@
         <v>296</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>297</v>
@@ -6127,10 +6103,10 @@
     </row>
     <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" s="37">
         <v>750</v>
@@ -6142,7 +6118,7 @@
         <v>296</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>297</v>
@@ -6164,10 +6140,10 @@
     </row>
     <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C60" s="37">
         <v>625</v>
@@ -6179,7 +6155,7 @@
         <v>296</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>297</v>
@@ -6194,35 +6170,35 @@
         <v>135</v>
       </c>
       <c r="K60" s="37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
     </row>
     <row r="61" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C61" s="37">
         <v>708.33299999999997</v>
       </c>
       <c r="D61" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E61" s="36" t="s">
         <v>296</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>297</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I61" s="36" t="s">
         <v>93</v>
@@ -6231,17 +6207,17 @@
         <v>135</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
     </row>
     <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C62" s="37">
         <v>583.33299999999997</v>
@@ -6250,10 +6226,10 @@
         <v>4</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>297</v>
@@ -6275,10 +6251,10 @@
     </row>
     <row r="63" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C63" s="37">
         <v>730</v>
@@ -6290,13 +6266,13 @@
         <v>296</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I63" s="36" t="s">
         <v>93</v>
@@ -6312,10 +6288,10 @@
     </row>
     <row r="64" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C64" s="37">
         <v>666.66700000000003</v>
@@ -6327,13 +6303,13 @@
         <v>296</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>297</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I64" s="36" t="s">
         <v>93</v>
@@ -6723,7 +6699,7 @@
     </row>
     <row r="79" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B79" s="57">
         <v>1</v>
@@ -6757,7 +6733,7 @@
     </row>
     <row r="80" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B80" s="57">
         <v>1</v>
@@ -6791,7 +6767,7 @@
     </row>
     <row r="81" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B81" s="57">
         <v>1</v>
@@ -6825,7 +6801,7 @@
     </row>
     <row r="82" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B82" s="57">
         <v>1</v>
@@ -6859,7 +6835,7 @@
     </row>
     <row r="83" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B83" s="57">
         <v>1</v>
@@ -6893,7 +6869,7 @@
     </row>
     <row r="84" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B84" s="57">
         <v>1</v>
@@ -7173,21 +7149,21 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B100" s="48">
         <f t="shared" ref="B100:B105" si="3">1/B79</f>
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G100">
         <f t="shared" ref="G100:G105" si="4">C79/5</f>
         <v>0.6</v>
       </c>
       <c r="J100" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K100">
         <f t="shared" ref="K100:K105" si="5">D79/5</f>
@@ -7196,21 +7172,21 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B101" s="48">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G101">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="J101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K101">
         <f t="shared" si="5"/>
@@ -7219,21 +7195,21 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B102" s="48">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G102">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="J102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K102">
         <f t="shared" si="5"/>
@@ -7242,21 +7218,21 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B103" s="48">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G103">
         <f>C82/5</f>
         <v>0.4</v>
       </c>
       <c r="J103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K103">
         <f t="shared" si="5"/>
@@ -7265,21 +7241,21 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B104" s="48">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G104">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="J104" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K104">
         <f t="shared" si="5"/>
@@ -7288,21 +7264,21 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B105" s="48">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G105">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="J105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K105">
         <f t="shared" si="5"/>
@@ -7552,21 +7528,21 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B118">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G118">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K118">
         <f t="shared" ref="K118:K123" si="9">2/G79</f>
@@ -7575,21 +7551,21 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B119">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G119">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K119">
         <f>2/G80</f>
@@ -7598,21 +7574,21 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B120">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G120">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K120">
         <f t="shared" si="9"/>
@@ -7621,21 +7597,21 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B121">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F121" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G121">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K121">
         <f t="shared" si="9"/>
@@ -7644,21 +7620,21 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B122">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F122" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G122">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="J122" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K122">
         <f t="shared" si="9"/>
@@ -7667,21 +7643,21 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B123">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G123">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K123">
         <f t="shared" si="9"/>
@@ -7696,7 +7672,7 @@
         <v>146</v>
       </c>
       <c r="J125" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -7931,21 +7907,21 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B136">
         <f t="shared" ref="B136:B141" si="13">H79/2</f>
         <v>0.5</v>
       </c>
       <c r="F136" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G136" s="19">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J136" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K136" s="19">
         <f t="shared" si="12"/>
@@ -7954,21 +7930,21 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B137">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G137" s="19">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J137" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K137" s="19">
         <f t="shared" si="12"/>
@@ -7977,21 +7953,21 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B138">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G138" s="19">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J138" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K138" s="19">
         <f t="shared" si="12"/>
@@ -8000,21 +7976,21 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B139">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G139" s="19">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J139" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K139" s="19">
         <f t="shared" si="12"/>
@@ -8023,21 +7999,21 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B140">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G140" s="19">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K140" s="19">
         <f t="shared" si="12"/>
@@ -8046,21 +8022,21 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B141">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G141" s="19">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J141" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K141" s="19">
         <f t="shared" si="12"/>
@@ -8856,7 +8832,7 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B156" s="59">
         <f t="shared" si="14"/>
@@ -8895,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -8927,7 +8903,7 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B157" s="59">
         <f t="shared" si="14"/>
@@ -8966,7 +8942,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="P157" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q157">
         <v>1</v>
@@ -8998,7 +8974,7 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B158" s="59">
         <f t="shared" si="14"/>
@@ -9037,7 +9013,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="P158" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -9069,7 +9045,7 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B159" s="59">
         <f t="shared" si="14"/>
@@ -9108,7 +9084,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P159" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -9140,7 +9116,7 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B160" s="59">
         <f t="shared" si="14"/>
@@ -9179,7 +9155,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -9211,7 +9187,7 @@
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B161" s="59">
         <f t="shared" si="14"/>
@@ -9250,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -9282,71 +9258,71 @@
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P164" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C165" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="D165" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="E165" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="F165" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="G165" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="G165" s="9" t="s">
+      <c r="H165" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="H165" s="9" t="s">
+      <c r="I165" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="I165" s="9" t="s">
+      <c r="J165" s="9" t="s">
         <v>491</v>
-      </c>
-      <c r="J165" s="9" t="s">
-        <v>492</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
       <c r="P165" s="9"/>
       <c r="Q165" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="R165" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="S165" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="R165" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="S165" s="9" t="s">
+      <c r="T165" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="T165" s="9" t="s">
+      <c r="U165" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="U165" s="9" t="s">
+      <c r="V165" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="V165" s="9" t="s">
+      <c r="W165" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="W165" s="9" t="s">
+      <c r="X165" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="X165" s="9" t="s">
+      <c r="Y165" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="Y165" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
@@ -9525,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="AB167" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.3">
@@ -9625,7 +9601,7 @@
         <v>12</v>
       </c>
       <c r="AB168" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.3">
@@ -9825,7 +9801,7 @@
         <v>3</v>
       </c>
       <c r="AB170" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.3">
@@ -9925,7 +9901,7 @@
         <v>16</v>
       </c>
       <c r="AB171" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.3">
@@ -10025,7 +10001,7 @@
         <v>14</v>
       </c>
       <c r="AB172" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.3">
@@ -10125,7 +10101,7 @@
         <v>13</v>
       </c>
       <c r="AB173" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.3">
@@ -10325,7 +10301,7 @@
         <v>15</v>
       </c>
       <c r="AB175" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.3">
@@ -10425,12 +10401,12 @@
         <v>11</v>
       </c>
       <c r="AB176" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B177" s="9">
         <f>B156*E18</f>
@@ -10478,7 +10454,7 @@
         <v>2</v>
       </c>
       <c r="P177" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q177" s="62">
         <f>B156*D18</f>
@@ -10525,12 +10501,12 @@
         <v>2</v>
       </c>
       <c r="AB177" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B178" s="9">
         <f>B157*E18</f>
@@ -10580,7 +10556,7 @@
         <v>4</v>
       </c>
       <c r="P178" s="63" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q178" s="64">
         <f>B157*D18</f>
@@ -10630,7 +10606,7 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B179" s="9">
         <f>B158*E18</f>
@@ -10678,7 +10654,7 @@
         <v>7</v>
       </c>
       <c r="P179" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q179" s="62">
         <f>B158*D18</f>
@@ -10725,12 +10701,12 @@
         <v>7</v>
       </c>
       <c r="AB179" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B180" s="9">
         <f>B159*E18</f>
@@ -10778,7 +10754,7 @@
         <v>8</v>
       </c>
       <c r="P180" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q180" s="62">
         <f>B159*D18</f>
@@ -10825,12 +10801,12 @@
         <v>8</v>
       </c>
       <c r="AB180" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B181" s="9">
         <f>B160*E18</f>
@@ -10880,7 +10856,7 @@
         <v>9</v>
       </c>
       <c r="P181" s="66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q181" s="68">
         <f>B160*D18</f>
@@ -10930,7 +10906,7 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B182" s="9">
         <f>B161*E18</f>
@@ -10978,7 +10954,7 @@
         <v>6</v>
       </c>
       <c r="P182" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q182" s="62">
         <f>B161*D18</f>
@@ -11025,7 +11001,7 @@
         <v>6</v>
       </c>
       <c r="AB182" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.3">
@@ -11075,7 +11051,7 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="P187" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q187">
         <f>B153*D18</f>
@@ -11120,7 +11096,7 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="P189" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q189">
         <f>B157*D18</f>
@@ -11183,8 +11159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871AEF4C-9567-4F69-A103-F367FD8FD456}">
   <dimension ref="A1:AD189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G165" zoomScale="115" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="Q165" sqref="Q165"/>
+    <sheetView tabSelected="1" topLeftCell="C164" zoomScale="123" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11282,13 +11258,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -11314,7 +11290,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -11340,7 +11316,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -11374,7 +11350,7 @@
         <v>294</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -11451,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -11463,22 +11439,22 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="U13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="G14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14">
@@ -11503,7 +11479,7 @@
       </c>
       <c r="B15" s="15"/>
       <c r="G15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -11518,14 +11494,14 @@
         <v>298</v>
       </c>
       <c r="U15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="G16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -11543,7 +11519,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="G17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -11623,7 +11599,7 @@
         <v>136</v>
       </c>
       <c r="U20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -11707,7 +11683,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="G23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -11737,7 +11713,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="G24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -11767,7 +11743,7 @@
         <v>2.6200000000000001E-2</v>
       </c>
       <c r="G25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -11797,7 +11773,7 @@
         <v>1.23E-2</v>
       </c>
       <c r="G26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -11826,7 +11802,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="G27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -11848,7 +11824,7 @@
         <v>311</v>
       </c>
       <c r="E28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -11985,10 +11961,10 @@
     <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="L47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12049,7 +12025,7 @@
         <v>296</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>297</v>
@@ -12090,7 +12066,7 @@
         <v>296</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>297</v>
@@ -12131,7 +12107,7 @@
         <v>301</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>297</v>
@@ -12140,7 +12116,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J51" s="36" t="s">
         <v>135</v>
@@ -12172,7 +12148,7 @@
         <v>301</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>297</v>
@@ -12205,14 +12181,14 @@
       <c r="C53" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="D53" s="36">
-        <v>6</v>
+      <c r="D53" s="83">
+        <v>7</v>
       </c>
       <c r="E53" s="36" t="s">
         <v>296</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>303</v>
@@ -12252,7 +12228,7 @@
         <v>296</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>297</v>
@@ -12292,7 +12268,7 @@
         <v>296</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>297</v>
@@ -12332,7 +12308,7 @@
         <v>301</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>297</v>
@@ -12373,7 +12349,7 @@
         <v>296</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>297</v>
@@ -12414,7 +12390,7 @@
         <v>296</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>297</v>
@@ -12440,10 +12416,10 @@
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" s="37">
         <v>750</v>
@@ -12455,7 +12431,7 @@
         <v>296</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>297</v>
@@ -12481,10 +12457,10 @@
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C60" s="37">
         <v>625</v>
@@ -12496,7 +12472,7 @@
         <v>296</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>297</v>
@@ -12514,18 +12490,18 @@
       <c r="L60" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M60" s="97"/>
+      <c r="M60" s="95"/>
       <c r="N60" s="76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O60" s="12"/>
     </row>
     <row r="61" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C61" s="37">
         <v>708.33299999999997</v>
@@ -12534,16 +12510,16 @@
         <v>5</v>
       </c>
       <c r="E61" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G61" s="83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I61" s="36" t="s">
         <v>93</v>
@@ -12555,18 +12531,18 @@
       <c r="L61" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M61" s="97"/>
+      <c r="M61" s="95"/>
       <c r="N61" s="76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O61" s="12"/>
     </row>
     <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C62" s="37">
         <v>583.33299999999997</v>
@@ -12575,10 +12551,10 @@
         <v>4</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>297</v>
@@ -12596,7 +12572,7 @@
       <c r="L62" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="M62" s="97"/>
+      <c r="M62" s="95"/>
       <c r="N62" s="76" t="s">
         <v>287</v>
       </c>
@@ -12604,10 +12580,10 @@
     </row>
     <row r="63" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C63" s="37">
         <v>730</v>
@@ -12619,13 +12595,13 @@
         <v>296</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I63" s="36" t="s">
         <v>93</v>
@@ -12645,10 +12621,10 @@
     </row>
     <row r="64" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C64" s="37">
         <v>666.66700000000003</v>
@@ -12660,13 +12636,13 @@
         <v>296</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>297</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I64" s="36" t="s">
         <v>93</v>
@@ -12691,7 +12667,7 @@
     </row>
     <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J67" s="37" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K67" s="37"/>
     </row>
@@ -12872,8 +12848,8 @@
       <c r="B73" s="41">
         <v>3</v>
       </c>
-      <c r="C73" s="41">
-        <v>3</v>
+      <c r="C73" s="97">
+        <v>4</v>
       </c>
       <c r="D73" s="41">
         <v>3</v>
@@ -13083,7 +13059,7 @@
     </row>
     <row r="79" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B79" s="57">
         <v>1</v>
@@ -13119,7 +13095,7 @@
     </row>
     <row r="80" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B80" s="57">
         <v>1</v>
@@ -13155,7 +13131,7 @@
     </row>
     <row r="81" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B81" s="57">
         <v>1</v>
@@ -13191,7 +13167,7 @@
     </row>
     <row r="82" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B82" s="57">
         <v>1</v>
@@ -13227,7 +13203,7 @@
     </row>
     <row r="83" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B83" s="57">
         <v>1</v>
@@ -13263,7 +13239,7 @@
     </row>
     <row r="84" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B84" s="57">
         <v>1</v>
@@ -13416,9 +13392,9 @@
       <c r="F94" t="s">
         <v>182</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="81">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J94" t="s">
         <v>182</v>
@@ -13545,21 +13521,21 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B100" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G100">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J100" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L100">
         <f t="shared" si="2"/>
@@ -13568,21 +13544,21 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B101" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G101">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L101">
         <f t="shared" si="2"/>
@@ -13591,21 +13567,21 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B102" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G102">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L102" s="81">
         <f t="shared" si="2"/>
@@ -13615,21 +13591,21 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B103" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G103">
         <f>C82/5</f>
         <v>0.4</v>
       </c>
       <c r="J103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L103">
         <f t="shared" si="2"/>
@@ -13638,21 +13614,21 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B104" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G104">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J104" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L104">
         <f t="shared" si="2"/>
@@ -13661,21 +13637,21 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B105" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G105">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L105">
         <f t="shared" si="2"/>
@@ -13925,21 +13901,21 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B118">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G118">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L118">
         <f t="shared" si="5"/>
@@ -13948,21 +13924,21 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B119">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G119">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L119">
         <f>2/G80</f>
@@ -13971,21 +13947,21 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B120">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G120" s="81">
         <f>F81/2</f>
         <v>0.5</v>
       </c>
       <c r="J120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L120">
         <f t="shared" si="5"/>
@@ -13994,21 +13970,21 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B121">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F121" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G121">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L121">
         <f t="shared" si="5"/>
@@ -14017,21 +13993,21 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B122">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F122" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G122">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="J122" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L122">
         <f t="shared" si="5"/>
@@ -14040,21 +14016,21 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B123">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G123">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L123">
         <f t="shared" si="5"/>
@@ -14069,14 +14045,14 @@
         <v>146</v>
       </c>
       <c r="J125" s="79" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K125" s="79"/>
       <c r="L125" s="79"/>
       <c r="M125" s="79"/>
       <c r="N125" s="79"/>
       <c r="P125" s="85" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q125" s="85"/>
       <c r="R125" s="85"/>
@@ -14434,21 +14410,21 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B136">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F136" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G136" s="19">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J136" s="79" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K136" s="79"/>
       <c r="L136" s="80">
@@ -14458,7 +14434,7 @@
       <c r="M136" s="80"/>
       <c r="N136" s="79"/>
       <c r="P136" s="85" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q136" s="86">
         <f t="shared" si="9"/>
@@ -14469,21 +14445,21 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B137">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G137" s="19">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J137" s="79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K137" s="79"/>
       <c r="L137" s="80">
@@ -14493,7 +14469,7 @@
       <c r="M137" s="80"/>
       <c r="N137" s="79"/>
       <c r="P137" s="85" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q137" s="86">
         <f t="shared" si="9"/>
@@ -14504,21 +14480,21 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B138">
         <f>H81/2</f>
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G138" s="82">
         <f>I81/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="J138" s="79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K138" s="79"/>
       <c r="L138" s="80">
@@ -14528,7 +14504,7 @@
       <c r="M138" s="80"/>
       <c r="N138" s="79"/>
       <c r="P138" s="85" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q138" s="86">
         <f t="shared" si="9"/>
@@ -14539,21 +14515,21 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B139">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G139" s="19">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J139" s="79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K139" s="79"/>
       <c r="L139" s="80">
@@ -14563,7 +14539,7 @@
       <c r="M139" s="80"/>
       <c r="N139" s="79"/>
       <c r="P139" s="85" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q139" s="86">
         <f t="shared" si="9"/>
@@ -14574,21 +14550,21 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B140">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G140" s="19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J140" s="79" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K140" s="79"/>
       <c r="L140" s="80">
@@ -14598,7 +14574,7 @@
       <c r="M140" s="80"/>
       <c r="N140" s="79"/>
       <c r="P140" s="85" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q140" s="86">
         <f t="shared" si="9"/>
@@ -14609,21 +14585,21 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B141">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G141" s="19">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J141" s="79" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K141" s="79"/>
       <c r="L141" s="80">
@@ -14633,7 +14609,7 @@
       <c r="M141" s="80"/>
       <c r="N141" s="79"/>
       <c r="P141" s="85" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q141" s="86">
         <f t="shared" si="9"/>
@@ -14644,10 +14620,10 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L142" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q142" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.3">
@@ -14657,10 +14633,10 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J144" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L144" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.3">
@@ -15051,9 +15027,9 @@
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C150" s="59">
+      <c r="C150" s="89">
         <f t="shared" si="13"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D150" s="59">
         <f t="shared" si="10"/>
@@ -15512,7 +15488,7 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B156" s="59">
         <f t="shared" si="12"/>
@@ -15557,7 +15533,7 @@
       </c>
       <c r="M156" s="86"/>
       <c r="R156" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S156">
         <v>1</v>
@@ -15589,7 +15565,7 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B157" s="59">
         <f t="shared" si="12"/>
@@ -15634,7 +15610,7 @@
       </c>
       <c r="M157" s="86"/>
       <c r="R157" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S157">
         <v>1</v>
@@ -15666,7 +15642,7 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B158" s="59">
         <f t="shared" si="12"/>
@@ -15711,7 +15687,7 @@
       </c>
       <c r="M158" s="86"/>
       <c r="R158" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S158">
         <v>1</v>
@@ -15743,7 +15719,7 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B159" s="59">
         <f t="shared" si="12"/>
@@ -15788,7 +15764,7 @@
       </c>
       <c r="M159" s="86"/>
       <c r="R159" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S159">
         <v>1</v>
@@ -15820,7 +15796,7 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B160" s="59">
         <f t="shared" si="12"/>
@@ -15865,7 +15841,7 @@
       </c>
       <c r="M160" s="86"/>
       <c r="R160" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S160">
         <v>1</v>
@@ -15897,7 +15873,7 @@
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B161" s="59">
         <f t="shared" si="12"/>
@@ -15942,7 +15918,7 @@
       </c>
       <c r="M161" s="86"/>
       <c r="R161" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S161">
         <v>1</v>
@@ -15974,90 +15950,82 @@
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J164" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K164" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="R164" s="18" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="165" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C165" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="D165" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="E165" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="F165" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="G165" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="G165" s="9" t="s">
+      <c r="H165" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="H165" s="9" t="s">
+      <c r="I165" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="I165" s="9" t="s">
+      <c r="J165" s="66" t="s">
         <v>491</v>
       </c>
-      <c r="J165" s="66" t="s">
-        <v>492</v>
-      </c>
       <c r="K165" s="87" t="s">
-        <v>492</v>
-      </c>
-      <c r="L165" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="M165" s="12" t="s">
-        <v>506</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
       <c r="N165" s="9"/>
-      <c r="O165" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="P165" s="12" t="s">
-        <v>508</v>
-      </c>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
       <c r="R165" s="9"/>
       <c r="S165" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="T165" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="U165" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="T165" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="U165" s="9" t="s">
+      <c r="V165" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="V165" s="9" t="s">
+      <c r="W165" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="W165" s="9" t="s">
+      <c r="X165" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="X165" s="9" t="s">
+      <c r="Y165" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="Y165" s="9" t="s">
+      <c r="Z165" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="Z165" s="9" t="s">
+      <c r="AA165" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="AA165" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
@@ -16101,15 +16069,9 @@
         <v>149</v>
       </c>
       <c r="M166" s="9" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="N166" s="9"/>
-      <c r="O166" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="P166" t="s">
-        <v>226</v>
-      </c>
       <c r="R166" s="60" t="s">
         <v>138</v>
       </c>
@@ -16192,21 +16154,15 @@
         <f>J146*E26</f>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="L167" s="92">
+      <c r="L167" s="70">
         <f>SUM(B167:J167)</f>
         <v>0.8149966666666667</v>
       </c>
-      <c r="M167" s="92">
-        <v>0.8149966666666667</v>
+      <c r="M167" s="9">
+        <f>_xlfn.RANK.EQ(L167,$L$167:$L$182,0)</f>
+        <v>1</v>
       </c>
       <c r="N167" s="9"/>
-      <c r="O167" s="9">
-        <f>_xlfn.RANK.EQ(L167,$L$167:$L$182,0)</f>
-        <v>1</v>
-      </c>
-      <c r="P167">
-        <v>1</v>
-      </c>
       <c r="R167" s="9" t="s">
         <v>127</v>
       </c>
@@ -16255,7 +16211,7 @@
         <v>1</v>
       </c>
       <c r="AD167" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.3">
@@ -16302,21 +16258,15 @@
         <f>J147*E26</f>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="L168" s="92">
+      <c r="L168" s="70">
         <f t="shared" ref="L168:L182" si="21">SUM(B168:J168)</f>
         <v>0.66212666666666664</v>
       </c>
-      <c r="M168" s="92">
-        <v>0.66212666666666664</v>
+      <c r="M168" s="9">
+        <f>_xlfn.RANK.EQ(L168,$L$167:$L$182,0)</f>
+        <v>12</v>
       </c>
       <c r="N168" s="9"/>
-      <c r="O168" s="9">
-        <f t="shared" ref="O168:O182" si="22">_xlfn.RANK.EQ(L168,$L$167:$L$182,0)</f>
-        <v>12</v>
-      </c>
-      <c r="P168">
-        <v>12</v>
-      </c>
       <c r="R168" s="9" t="s">
         <v>128</v>
       </c>
@@ -16361,11 +16311,11 @@
         <v>0.65803333333333325</v>
       </c>
       <c r="AC168" s="21">
-        <f t="shared" ref="AC168:AC182" si="23">_xlfn.RANK.EQ(AB168,$AB$167:$AB$182,0)</f>
+        <f t="shared" ref="AC168:AC182" si="22">_xlfn.RANK.EQ(AB168,$AB$167:$AB$182,0)</f>
         <v>12</v>
       </c>
       <c r="AD168" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.3">
@@ -16412,23 +16362,15 @@
         <f>J148*E26</f>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="L169" s="92">
+      <c r="L169" s="70">
         <f t="shared" si="21"/>
         <v>0.72623333333333329</v>
       </c>
-      <c r="M169" s="92">
-        <v>0.72623333333333329</v>
-      </c>
-      <c r="N169" s="60">
+      <c r="M169" s="9">
+        <f>_xlfn.RANK.EQ(L169,$L$167:$L$182,0)</f>
         <v>10</v>
       </c>
-      <c r="O169" s="9">
-        <f t="shared" si="22"/>
-        <v>10</v>
-      </c>
-      <c r="P169">
-        <v>10</v>
-      </c>
+      <c r="N169" s="17"/>
       <c r="R169" s="66" t="s">
         <v>129</v>
       </c>
@@ -16473,7 +16415,7 @@
         <v>0.72250000000000003</v>
       </c>
       <c r="AC169" s="67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="AD169" s="66"/>
@@ -16522,21 +16464,15 @@
         <f>J149*E26</f>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="L170" s="92">
+      <c r="L170" s="70">
         <f t="shared" si="21"/>
         <v>0.7687533333333334</v>
       </c>
-      <c r="M170" s="92">
-        <v>0.7687533333333334</v>
+      <c r="M170" s="9">
+        <f>_xlfn.RANK.EQ(L170,$L$167:$L$182,0)</f>
+        <v>4</v>
       </c>
       <c r="N170" s="9"/>
-      <c r="O170" s="9">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="P170">
-        <v>4</v>
-      </c>
       <c r="R170" s="9" t="s">
         <v>176</v>
       </c>
@@ -16581,11 +16517,11 @@
         <v>0.76476666666666671</v>
       </c>
       <c r="AC170" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="AD170" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.3">
@@ -16596,9 +16532,9 @@
         <f>B150*E18</f>
         <v>0.10476666666666667</v>
       </c>
-      <c r="C171" s="62">
+      <c r="C171" s="93">
         <f>C150*E19</f>
-        <v>0.12191999999999999</v>
+        <v>0.16256000000000001</v>
       </c>
       <c r="D171" s="62">
         <f>D150*E20</f>
@@ -16632,21 +16568,15 @@
         <f>J150*E26</f>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="L171" s="92">
+      <c r="L171" s="93">
         <f t="shared" si="21"/>
-        <v>0.52846333333333328</v>
-      </c>
-      <c r="M171" s="92">
-        <v>0.52846333333333328</v>
+        <v>0.56910333333333329</v>
+      </c>
+      <c r="M171" s="9">
+        <f>_xlfn.RANK.EQ(L171,$L$167:$L$182,0)</f>
+        <v>16</v>
       </c>
       <c r="N171" s="9"/>
-      <c r="O171" s="9">
-        <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="P171">
-        <v>16</v>
-      </c>
       <c r="R171" s="9" t="s">
         <v>182</v>
       </c>
@@ -16656,7 +16586,7 @@
       </c>
       <c r="T171" s="62">
         <f>C150*D19</f>
-        <v>0.12180000000000001</v>
+        <v>0.16240000000000002</v>
       </c>
       <c r="U171" s="62">
         <f>D150*D20</f>
@@ -16688,14 +16618,14 @@
       </c>
       <c r="AB171" s="62">
         <f t="shared" si="20"/>
-        <v>0.52449999999999997</v>
+        <v>0.56510000000000005</v>
       </c>
       <c r="AC171" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="AD171" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.3">
@@ -16742,21 +16672,15 @@
         <f>J151*E26</f>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="L172" s="92">
+      <c r="L172" s="70">
         <f t="shared" si="21"/>
         <v>0.59015333333333331</v>
       </c>
-      <c r="M172" s="92">
-        <v>0.59015333333333331</v>
+      <c r="M172" s="9">
+        <f>_xlfn.RANK.EQ(L172,$L$167:$L$182,0)</f>
+        <v>14</v>
       </c>
       <c r="N172" s="9"/>
-      <c r="O172" s="9">
-        <f t="shared" si="22"/>
-        <v>14</v>
-      </c>
-      <c r="P172">
-        <v>14</v>
-      </c>
       <c r="R172" s="9" t="s">
         <v>187</v>
       </c>
@@ -16801,11 +16725,11 @@
         <v>0.58610000000000007</v>
       </c>
       <c r="AC172" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="AD172" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.3">
@@ -16844,7 +16768,7 @@
         <f>I152*E25</f>
         <v>1.7466666666666665E-2</v>
       </c>
-      <c r="J173" s="93">
+      <c r="J173" s="92">
         <f>L152*E26</f>
         <v>6.1500000000000001E-3</v>
       </c>
@@ -16852,21 +16776,15 @@
         <f>J152*E26</f>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="L173" s="94">
+      <c r="L173" s="70">
         <f t="shared" si="21"/>
         <v>0.59574666666666665</v>
       </c>
-      <c r="M173" s="94">
-        <v>0.59574666666666665</v>
-      </c>
-      <c r="N173" s="60"/>
-      <c r="O173" s="9">
-        <f t="shared" si="22"/>
+      <c r="M173" s="9">
+        <f>_xlfn.RANK.EQ(L173,$L$167:$L$182,0)</f>
         <v>13</v>
       </c>
-      <c r="P173">
-        <v>13</v>
-      </c>
+      <c r="N173" s="17"/>
       <c r="R173" s="9" t="s">
         <v>285</v>
       </c>
@@ -16911,11 +16829,11 @@
         <v>0.59383333333333332</v>
       </c>
       <c r="AC173" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="AD173" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.3">
@@ -16954,7 +16872,7 @@
         <f>I154*E25</f>
         <v>1.7466666666666665E-2</v>
       </c>
-      <c r="J174" s="93">
+      <c r="J174" s="92">
         <f>L153*E26</f>
         <v>6.1500000000000001E-3</v>
       </c>
@@ -16962,23 +16880,15 @@
         <f>J154*E26</f>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="L174" s="94">
+      <c r="L174" s="70">
         <f t="shared" si="21"/>
         <v>0.76494666666666666</v>
       </c>
-      <c r="M174" s="94">
-        <v>0.76494666666666666</v>
-      </c>
-      <c r="N174" s="17">
+      <c r="M174" s="9">
+        <f>_xlfn.RANK.EQ(L174,$L$167:$L$182,0)</f>
         <v>5</v>
       </c>
-      <c r="O174" s="9">
-        <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="P174">
-        <v>5</v>
-      </c>
+      <c r="N174" s="17"/>
       <c r="R174" s="63" t="s">
         <v>288</v>
       </c>
@@ -17023,7 +16933,7 @@
         <v>0.76333333333333331</v>
       </c>
       <c r="AC174" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="AD174" s="63"/>
@@ -17064,7 +16974,7 @@
         <f>I154*E25</f>
         <v>1.7466666666666665E-2</v>
       </c>
-      <c r="J175" s="93">
+      <c r="J175" s="92">
         <f>L154*E26</f>
         <v>6.1500000000000001E-3</v>
       </c>
@@ -17072,21 +16982,15 @@
         <f>J154*E26</f>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="L175" s="94">
+      <c r="L175" s="70">
         <f t="shared" si="21"/>
         <v>0.57469666666666663</v>
       </c>
-      <c r="M175" s="94">
-        <v>0.57469666666666663</v>
+      <c r="M175" s="9">
+        <f>_xlfn.RANK.EQ(L175,$L$167:$L$182,0)</f>
+        <v>15</v>
       </c>
       <c r="N175" s="9"/>
-      <c r="O175" s="9">
-        <f t="shared" si="22"/>
-        <v>15</v>
-      </c>
-      <c r="P175">
-        <v>15</v>
-      </c>
       <c r="R175" s="9" t="s">
         <v>290</v>
       </c>
@@ -17131,11 +17035,11 @@
         <v>0.57283333333333331</v>
       </c>
       <c r="AC175" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="AD175" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.3">
@@ -17174,7 +17078,7 @@
         <f>I156*E25</f>
         <v>1.7466666666666665E-2</v>
       </c>
-      <c r="J176" s="93">
+      <c r="J176" s="92">
         <f>L155*E26</f>
         <v>6.1500000000000001E-3</v>
       </c>
@@ -17182,21 +17086,15 @@
         <f>J155*E26</f>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="L176" s="94">
+      <c r="L176" s="70">
         <f t="shared" si="21"/>
         <v>0.69120666666666664</v>
       </c>
-      <c r="M176" s="94">
-        <v>0.69120666666666664</v>
+      <c r="M176" s="9">
+        <f>_xlfn.RANK.EQ(L176,$L$167:$L$182,0)</f>
+        <v>11</v>
       </c>
       <c r="N176" s="9"/>
-      <c r="O176" s="9">
-        <f t="shared" si="22"/>
-        <v>11</v>
-      </c>
-      <c r="P176">
-        <v>11</v>
-      </c>
       <c r="R176" s="9" t="s">
         <v>291</v>
       </c>
@@ -17241,16 +17139,16 @@
         <v>0.68923333333333325</v>
       </c>
       <c r="AC176" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="AD176" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B177" s="9">
         <f>B156*E18</f>
@@ -17292,23 +17190,17 @@
         <f>J156*E26</f>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="L177" s="92">
+      <c r="L177" s="70">
         <f t="shared" si="21"/>
         <v>0.77435666666666658</v>
       </c>
-      <c r="M177" s="92">
-        <v>0.77435666666666658</v>
+      <c r="M177" s="9">
+        <f>_xlfn.RANK.EQ(L177,$L$167:$L$182,0)</f>
+        <v>2</v>
       </c>
       <c r="N177" s="9"/>
-      <c r="O177" s="9">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="P177">
-        <v>2</v>
-      </c>
       <c r="R177" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S177" s="62">
         <f>B156*D18</f>
@@ -17351,16 +17243,16 @@
         <v>0.7704333333333333</v>
       </c>
       <c r="AC177" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="AD177" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B178" s="9">
         <f>B157*E18</f>
@@ -17394,7 +17286,7 @@
         <f>I157*E25</f>
         <v>1.7466666666666665E-2</v>
       </c>
-      <c r="J178" s="93">
+      <c r="J178" s="92">
         <f>L157*E26</f>
         <v>6.1500000000000001E-3</v>
       </c>
@@ -17402,25 +17294,17 @@
         <f>J157*E26</f>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="L178" s="94">
+      <c r="L178" s="70">
         <f t="shared" si="21"/>
         <v>0.76905666666666661</v>
       </c>
-      <c r="M178" s="94">
-        <v>0.76905666666666661</v>
-      </c>
-      <c r="N178" s="9">
-        <v>4</v>
-      </c>
-      <c r="O178" s="9">
-        <f t="shared" si="22"/>
+      <c r="M178" s="9">
+        <f>_xlfn.RANK.EQ(L178,$L$167:$L$182,0)</f>
         <v>3</v>
       </c>
-      <c r="P178">
-        <v>3</v>
-      </c>
+      <c r="N178" s="9"/>
       <c r="R178" s="63" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S178" s="64">
         <f>B157*D18</f>
@@ -17463,14 +17347,14 @@
         <v>0.76709999999999989</v>
       </c>
       <c r="AC178" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AD178" s="63"/>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B179" s="9">
         <f>B158*E18</f>
@@ -17480,7 +17364,7 @@
         <f>C158*E19</f>
         <v>0.12191999999999999</v>
       </c>
-      <c r="D179" s="95">
+      <c r="D179" s="93">
         <f>D158*E20</f>
         <v>0.11816</v>
       </c>
@@ -17488,7 +17372,7 @@
         <f>E158*E21</f>
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F179" s="96">
+      <c r="F179" s="94">
         <f>F158*E22</f>
         <v>4.1399999999999999E-2</v>
       </c>
@@ -17500,11 +17384,11 @@
         <f>H158*E24</f>
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="I179" s="95">
+      <c r="I179" s="93">
         <f>I158*E25</f>
         <v>8.7333333333333325E-3</v>
       </c>
-      <c r="J179" s="93">
+      <c r="J179" s="92">
         <f>L158*E26</f>
         <v>6.1500000000000001E-3</v>
       </c>
@@ -17512,23 +17396,17 @@
         <f>J158*E26</f>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="L179" s="94">
+      <c r="L179" s="70">
         <f t="shared" si="21"/>
         <v>0.73230333333333342</v>
       </c>
-      <c r="M179" s="94">
-        <v>0.73230333333333342</v>
+      <c r="M179" s="9">
+        <f>_xlfn.RANK.EQ(L179,$L$167:$L$182,0)</f>
+        <v>8</v>
       </c>
       <c r="N179" s="9"/>
-      <c r="O179" s="9">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="P179">
-        <v>8</v>
-      </c>
       <c r="R179" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S179" s="62">
         <f>B158*D18</f>
@@ -17571,16 +17449,16 @@
         <v>0.73026666666666673</v>
       </c>
       <c r="AC179" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="AD179" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B180" s="9">
         <f>B159*E18</f>
@@ -17614,7 +17492,7 @@
         <f>I159*E25</f>
         <v>1.7466666666666665E-2</v>
       </c>
-      <c r="J180" s="93">
+      <c r="J180" s="92">
         <f>L159*E26</f>
         <v>6.1500000000000001E-3</v>
       </c>
@@ -17622,23 +17500,17 @@
         <f>J159*E26</f>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="L180" s="94">
+      <c r="L180" s="70">
         <f t="shared" si="21"/>
         <v>0.74179666666666677</v>
       </c>
-      <c r="M180" s="94">
-        <v>0.74179666666666677</v>
+      <c r="M180" s="9">
+        <f>_xlfn.RANK.EQ(L180,$L$167:$L$182,0)</f>
+        <v>7</v>
       </c>
       <c r="N180" s="9"/>
-      <c r="O180" s="9">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="P180">
-        <v>7</v>
-      </c>
       <c r="R180" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S180" s="62">
         <f>B159*D18</f>
@@ -17681,16 +17553,16 @@
         <v>0.73983333333333334</v>
       </c>
       <c r="AC180" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="AD180" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B181" s="9">
         <f>B160*E18</f>
@@ -17732,25 +17604,17 @@
         <f>J160*E26</f>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="L181" s="92">
+      <c r="L181" s="70">
         <f t="shared" si="21"/>
         <v>0.72638000000000003</v>
       </c>
-      <c r="M181" s="92">
-        <v>0.72638000000000003</v>
-      </c>
-      <c r="N181" s="9">
+      <c r="M181" s="9">
+        <f>_xlfn.RANK.EQ(L181,$L$167:$L$182,0)</f>
         <v>9</v>
       </c>
-      <c r="O181" s="9">
-        <f t="shared" si="22"/>
-        <v>9</v>
-      </c>
-      <c r="P181">
-        <v>9</v>
-      </c>
+      <c r="N181" s="9"/>
       <c r="R181" s="66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S181" s="68">
         <f>B160*D18</f>
@@ -17793,14 +17657,14 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="AC181" s="67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AD181" s="66"/>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B182" s="9">
         <f>B161*E18</f>
@@ -17842,23 +17706,17 @@
         <f>J161*E26</f>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="L182" s="92">
+      <c r="L182" s="70">
         <f t="shared" si="21"/>
         <v>0.75904666666666665</v>
       </c>
-      <c r="M182" s="92">
-        <v>0.75904666666666665</v>
+      <c r="M182" s="9">
+        <f>_xlfn.RANK.EQ(L182,$L$167:$L$182,0)</f>
+        <v>6</v>
       </c>
       <c r="N182" s="9"/>
-      <c r="O182" s="9">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="P182">
-        <v>6</v>
-      </c>
       <c r="R182" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S182" s="62">
         <f>B161*D18</f>
@@ -17901,11 +17759,11 @@
         <v>0.75483333333333325</v>
       </c>
       <c r="AC182" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="AD182" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.3">
@@ -17955,7 +17813,7 @@
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R187" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S187">
         <f>B153*D18</f>
@@ -18000,7 +17858,7 @@
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R189" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S189">
         <f>B157*D18</f>
@@ -18083,7 +17941,7 @@
       <c r="B2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="98">
+      <c r="C2" s="96">
         <f>(1/9) *(1/1 + 1/2 + 1/3 + 1/4 + 1/5 + 1/6 + 1/7/ + 1/8 + 1/9)</f>
         <v>0.28655202821869485</v>
       </c>

--- a/Excel/STUDI KASUS.xlsx
+++ b/Excel/STUDI KASUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\skripsi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D41B774-DF01-49E0-91B3-83166E5D42B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43E6AF7-1B8D-4E7F-B9DD-F48BF18E5727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
@@ -1732,7 +1732,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1766,6 +1766,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1835,7 +1841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2092,6 +2098,21 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3079,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46AEE5-C1DF-4E3B-B1A0-CC373A6F6C73}">
   <dimension ref="A2:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="93" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScale="93" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -4020,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015FA8AF-97B1-4BAE-BA56-FF4AAB7B8C3B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11159,8 +11180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871AEF4C-9567-4F69-A103-F367FD8FD456}">
   <dimension ref="A1:AD189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C164" zoomScale="123" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="101" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="L175" sqref="L175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12071,7 +12092,7 @@
       <c r="G50" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="99" t="s">
         <v>299</v>
       </c>
       <c r="I50" s="36" t="s">
@@ -12112,7 +12133,7 @@
       <c r="G51" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H51" s="44">
+      <c r="H51" s="100">
         <v>0.91666666666666663</v>
       </c>
       <c r="I51" s="36" t="s">
@@ -12153,7 +12174,7 @@
       <c r="G52" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H52" s="36" t="s">
+      <c r="H52" s="99" t="s">
         <v>299</v>
       </c>
       <c r="I52" s="36" t="s">
@@ -12193,7 +12214,7 @@
       <c r="G53" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="H53" s="99" t="s">
         <v>299</v>
       </c>
       <c r="I53" s="36" t="s">
@@ -12233,7 +12254,7 @@
       <c r="G54" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H54" s="99" t="s">
         <v>299</v>
       </c>
       <c r="I54" s="36" t="s">
@@ -12273,7 +12294,7 @@
       <c r="G55" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H55" s="99" t="s">
         <v>306</v>
       </c>
       <c r="I55" s="36" t="s">
@@ -12313,7 +12334,7 @@
       <c r="G56" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H56" s="36" t="s">
+      <c r="H56" s="99" t="s">
         <v>299</v>
       </c>
       <c r="I56" s="36" t="s">
@@ -12354,7 +12375,7 @@
       <c r="G57" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H57" s="36" t="s">
+      <c r="H57" s="99" t="s">
         <v>307</v>
       </c>
       <c r="I57" s="36" t="s">
@@ -12395,7 +12416,7 @@
       <c r="G58" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="H58" s="99" t="s">
         <v>299</v>
       </c>
       <c r="I58" s="36" t="s">
@@ -12436,7 +12457,7 @@
       <c r="G59" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H59" s="56">
+      <c r="H59" s="101">
         <v>0.91666666666666663</v>
       </c>
       <c r="I59" s="36" t="s">
@@ -12477,7 +12498,7 @@
       <c r="G60" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H60" s="56">
+      <c r="H60" s="101">
         <v>0.95833333333333337</v>
       </c>
       <c r="I60" s="36" t="s">
@@ -12496,7 +12517,7 @@
       </c>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35" t="s">
         <v>425</v>
       </c>
@@ -12518,7 +12539,7 @@
       <c r="G61" s="83" t="s">
         <v>328</v>
       </c>
-      <c r="H61" s="37" t="s">
+      <c r="H61" s="102" t="s">
         <v>432</v>
       </c>
       <c r="I61" s="36" t="s">
@@ -12559,7 +12580,7 @@
       <c r="G62" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H62" s="37" t="s">
+      <c r="H62" s="102" t="s">
         <v>299</v>
       </c>
       <c r="I62" s="36" t="s">
@@ -12578,7 +12599,7 @@
       </c>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
         <v>427</v>
       </c>
@@ -12600,7 +12621,7 @@
       <c r="G63" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="H63" s="37" t="s">
+      <c r="H63" s="102" t="s">
         <v>432</v>
       </c>
       <c r="I63" s="36" t="s">
@@ -12619,7 +12640,7 @@
       </c>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
         <v>428</v>
       </c>
@@ -12641,7 +12662,7 @@
       <c r="G64" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="H64" s="37" t="s">
+      <c r="H64" s="102" t="s">
         <v>432</v>
       </c>
       <c r="I64" s="36" t="s">
@@ -12971,7 +12992,7 @@
       <c r="G76" s="41">
         <v>5</v>
       </c>
-      <c r="H76" s="41">
+      <c r="H76" s="98">
         <v>1</v>
       </c>
       <c r="I76" s="41">
@@ -16159,7 +16180,7 @@
         <v>0.8149966666666667</v>
       </c>
       <c r="M167" s="9">
-        <f>_xlfn.RANK.EQ(L167,$L$167:$L$182,0)</f>
+        <f t="shared" ref="M167:M182" si="20">_xlfn.RANK.EQ(L167,$L$167:$L$182,0)</f>
         <v>1</v>
       </c>
       <c r="N167" s="9"/>
@@ -16203,7 +16224,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB167" s="62">
-        <f t="shared" ref="AB167:AB181" si="20">SUM(S167:AA167)</f>
+        <f t="shared" ref="AB167:AB181" si="21">SUM(S167:AA167)</f>
         <v>0.81103333333333327</v>
       </c>
       <c r="AC167" s="21">
@@ -16259,11 +16280,11 @@
         <v>8.199999999999999E-3</v>
       </c>
       <c r="L168" s="70">
-        <f t="shared" ref="L168:L182" si="21">SUM(B168:J168)</f>
+        <f t="shared" ref="L168:L182" si="22">SUM(B168:J168)</f>
         <v>0.66212666666666664</v>
       </c>
       <c r="M168" s="9">
-        <f>_xlfn.RANK.EQ(L168,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="N168" s="9"/>
@@ -16307,11 +16328,11 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB168" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.65803333333333325</v>
       </c>
       <c r="AC168" s="21">
-        <f t="shared" ref="AC168:AC182" si="22">_xlfn.RANK.EQ(AB168,$AB$167:$AB$182,0)</f>
+        <f t="shared" ref="AC168:AC182" si="23">_xlfn.RANK.EQ(AB168,$AB$167:$AB$182,0)</f>
         <v>12</v>
       </c>
       <c r="AD168" s="9" t="s">
@@ -16363,11 +16384,11 @@
         <v>8.199999999999999E-3</v>
       </c>
       <c r="L169" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.72623333333333329</v>
       </c>
       <c r="M169" s="9">
-        <f>_xlfn.RANK.EQ(L169,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="N169" s="17"/>
@@ -16411,11 +16432,11 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB169" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.72250000000000003</v>
       </c>
       <c r="AC169" s="67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="AD169" s="66"/>
@@ -16465,11 +16486,11 @@
         <v>8.199999999999999E-3</v>
       </c>
       <c r="L170" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.7687533333333334</v>
       </c>
       <c r="M170" s="9">
-        <f>_xlfn.RANK.EQ(L170,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="N170" s="9"/>
@@ -16513,11 +16534,11 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB170" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.76476666666666671</v>
       </c>
       <c r="AC170" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AD170" s="9" t="s">
@@ -16569,11 +16590,11 @@
         <v>8.199999999999999E-3</v>
       </c>
       <c r="L171" s="93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.56910333333333329</v>
       </c>
       <c r="M171" s="9">
-        <f>_xlfn.RANK.EQ(L171,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="N171" s="9"/>
@@ -16617,11 +16638,11 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB171" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.56510000000000005</v>
       </c>
       <c r="AC171" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="AD171" s="9" t="s">
@@ -16673,11 +16694,11 @@
         <v>8.199999999999999E-3</v>
       </c>
       <c r="L172" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.59015333333333331</v>
       </c>
       <c r="M172" s="9">
-        <f>_xlfn.RANK.EQ(L172,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="N172" s="9"/>
@@ -16721,11 +16742,11 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB172" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.58610000000000007</v>
       </c>
       <c r="AC172" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="AD172" s="9" t="s">
@@ -16777,11 +16798,11 @@
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="L173" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.59574666666666665</v>
       </c>
       <c r="M173" s="9">
-        <f>_xlfn.RANK.EQ(L173,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="N173" s="17"/>
@@ -16825,11 +16846,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB173" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.59383333333333332</v>
       </c>
       <c r="AC173" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="AD173" s="9" t="s">
@@ -16881,11 +16902,11 @@
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="L174" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.76494666666666666</v>
       </c>
       <c r="M174" s="9">
-        <f>_xlfn.RANK.EQ(L174,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="N174" s="17"/>
@@ -16929,11 +16950,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB174" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.76333333333333331</v>
       </c>
       <c r="AC174" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AD174" s="63"/>
@@ -16983,11 +17004,11 @@
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="L175" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.57469666666666663</v>
       </c>
       <c r="M175" s="9">
-        <f>_xlfn.RANK.EQ(L175,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="N175" s="9"/>
@@ -17031,11 +17052,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB175" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.57283333333333331</v>
       </c>
       <c r="AC175" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="AD175" s="9" t="s">
@@ -17087,11 +17108,11 @@
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="L176" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.69120666666666664</v>
       </c>
       <c r="M176" s="9">
-        <f>_xlfn.RANK.EQ(L176,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="N176" s="9"/>
@@ -17135,11 +17156,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB176" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.68923333333333325</v>
       </c>
       <c r="AC176" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="AD176" s="9" t="s">
@@ -17191,11 +17212,11 @@
         <v>8.199999999999999E-3</v>
       </c>
       <c r="L177" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.77435666666666658</v>
       </c>
       <c r="M177" s="9">
-        <f>_xlfn.RANK.EQ(L177,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="N177" s="9"/>
@@ -17239,11 +17260,11 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB177" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.7704333333333333</v>
       </c>
       <c r="AC177" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AD177" s="9" t="s">
@@ -17295,11 +17316,11 @@
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="L178" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.76905666666666661</v>
       </c>
       <c r="M178" s="9">
-        <f>_xlfn.RANK.EQ(L178,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="N178" s="9"/>
@@ -17343,11 +17364,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB178" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.76709999999999989</v>
       </c>
       <c r="AC178" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AD178" s="63"/>
@@ -17397,11 +17418,11 @@
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="L179" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.73230333333333342</v>
       </c>
       <c r="M179" s="9">
-        <f>_xlfn.RANK.EQ(L179,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="N179" s="9"/>
@@ -17445,11 +17466,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB179" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.73026666666666673</v>
       </c>
       <c r="AC179" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="AD179" s="9" t="s">
@@ -17501,11 +17522,11 @@
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="L180" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.74179666666666677</v>
       </c>
       <c r="M180" s="9">
-        <f>_xlfn.RANK.EQ(L180,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="N180" s="9"/>
@@ -17549,11 +17570,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB180" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.73983333333333334</v>
       </c>
       <c r="AC180" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="AD180" s="9" t="s">
@@ -17605,11 +17626,11 @@
         <v>8.199999999999999E-3</v>
       </c>
       <c r="L181" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.72638000000000003</v>
       </c>
       <c r="M181" s="9">
-        <f>_xlfn.RANK.EQ(L181,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="N181" s="9"/>
@@ -17653,11 +17674,11 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AB181" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.72199999999999998</v>
       </c>
       <c r="AC181" s="67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="AD181" s="66"/>
@@ -17707,11 +17728,11 @@
         <v>8.199999999999999E-3</v>
       </c>
       <c r="L182" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.75904666666666665</v>
       </c>
       <c r="M182" s="9">
-        <f>_xlfn.RANK.EQ(L182,$L$167:$L$182,0)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="N182" s="9"/>
@@ -17759,7 +17780,7 @@
         <v>0.75483333333333325</v>
       </c>
       <c r="AC182" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="AD182" s="9" t="s">

--- a/Excel/STUDI KASUS.xlsx
+++ b/Excel/STUDI KASUS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\skripsi\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SEMESTER 7\PROPOSAL SKRIPSI\skripsi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43E6AF7-1B8D-4E7F-B9DD-F48BF18E5727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D56CA-E725-4A56-83F3-8D233AAB842B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="507">
   <si>
     <t xml:space="preserve">Biaya </t>
   </si>
@@ -1017,16 +1017,6 @@
 Dapur Dalam, wifi, tempat parkir</t>
   </si>
   <si>
-    <t xml:space="preserve">Spring Bed, Kipas, Lemari, Meja, Wc Dalam,
-Dapur Dalam, AC, Wifi, Tempat parkir         </t>
-  </si>
-  <si>
-    <t>Spring bed, lemari, meja,  ac, tempat parkir</t>
-  </si>
-  <si>
-    <t>Ac, spring bed, lemari, wc Dalam, wifi, tempat parkir</t>
-  </si>
-  <si>
     <t>Kasur, lemari, wifi, kamar mandi dalam, tempat parkir</t>
   </si>
   <si>
@@ -1393,12 +1383,6 @@
     <t>perbulan</t>
   </si>
   <si>
-    <t xml:space="preserve">Spring Bed,Kipas,
-Lemari, Meja,
-Wc Dalam,
-Dapur Dalam,Wifi, tempat parkir         </t>
-  </si>
-  <si>
     <t>(-5.126183752017252, 119.4894111008768)</t>
   </si>
   <si>
@@ -1623,6 +1607,25 @@
   </si>
   <si>
     <t>Kasur, lemari, meja, kipas, parkir, kamar mandi dalam</t>
+  </si>
+  <si>
+    <t>Spring bed, lemari, meja,  ac, tempat parkir, kamar mandi dalam, exhaust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Bed,
+Lemari, Meja,
+Wc Dalam,
+Dapur Dalam,Wifi, tempat parkir, AC, electrict hoist         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Bed, electrict hoist , Lemari, Meja, Wc Dalam,
+Dapur Dalam, AC, Wifi, Tempat parkir         </t>
+  </si>
+  <si>
+    <t>Narasumber</t>
+  </si>
+  <si>
+    <t>Ac, spring bed, lemari, wc Dalam, wifi, tempat parkir, electric hoist</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2113,6 +2116,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3100,30 +3106,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46AEE5-C1DF-4E3B-B1A0-CC373A6F6C73}">
   <dimension ref="A2:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="93" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A10" zoomScale="93" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="1" max="2" width="4.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="18.08984375" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="14" max="14" width="18.90625" customWidth="1"/>
+    <col min="15" max="15" width="20.6328125" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3220,7 +3226,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -3314,7 +3320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -3464,7 +3470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -3514,7 +3520,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -3610,7 +3616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -3668,25 +3674,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>135</v>
@@ -3698,13 +3704,13 @@
         <v>240</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -3712,43 +3718,43 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>135</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>240</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -3756,43 +3762,43 @@
         <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>72</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>240</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -3800,25 +3806,25 @@
         <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>403</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>72</v>
@@ -3827,16 +3833,16 @@
         <v>241</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -3844,43 +3850,43 @@
         <v>15</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>240</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -3888,147 +3894,147 @@
         <v>16</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>72</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>240</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" s="9"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
       <c r="F21" s="2"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="9"/>
       <c r="F22" s="2"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
       <c r="F23" s="2"/>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="9"/>
     </row>
   </sheetData>
@@ -4041,31 +4047,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015FA8AF-97B1-4BAE-BA56-FF4AAB7B8C3B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.21875" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="23.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="21.90625" customWidth="1"/>
+    <col min="12" max="12" width="27.453125" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+    <col min="14" max="14" width="22.6328125" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" customWidth="1"/>
+    <col min="16" max="16" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>109</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>49</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>46</v>
+        <v>505</v>
       </c>
       <c r="L1" s="49" t="s">
         <v>47</v>
@@ -4106,16 +4112,16 @@
         <v>48</v>
       </c>
       <c r="N1" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O1" s="52" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>127</v>
       </c>
@@ -4150,22 +4156,22 @@
         <v>61</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>63</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>128</v>
       </c>
@@ -4176,7 +4182,7 @@
         <v>277</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>72</v>
@@ -4191,7 +4197,7 @@
         <v>275</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>81</v>
@@ -4200,22 +4206,22 @@
         <v>61</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>63</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>129</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>278</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>313</v>
+        <v>504</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>72</v>
@@ -4250,22 +4256,22 @@
         <v>61</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>63</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>176</v>
       </c>
@@ -4276,7 +4282,7 @@
         <v>281</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>136</v>
@@ -4300,22 +4306,22 @@
         <v>91</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>94</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>182</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>278</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>314</v>
+        <v>502</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>72</v>
@@ -4341,7 +4347,7 @@
         <v>275</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>81</v>
@@ -4350,22 +4356,22 @@
         <v>78</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>187</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>278</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>315</v>
+        <v>506</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>72</v>
@@ -4391,7 +4397,7 @@
         <v>275</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>93</v>
@@ -4400,22 +4406,22 @@
         <v>96</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>97</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>285</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>286</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>72</v>
@@ -4441,7 +4447,7 @@
         <v>275</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>93</v>
@@ -4450,22 +4456,22 @@
         <v>238</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>258</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O8" s="55" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>288</v>
       </c>
@@ -4476,7 +4482,7 @@
         <v>289</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>72</v>
@@ -4500,22 +4506,22 @@
         <v>238</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>259</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O9" s="55" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>290</v>
       </c>
@@ -4526,7 +4532,7 @@
         <v>286</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>72</v>
@@ -4550,22 +4556,22 @@
         <v>238</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>259</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="O10" s="55" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>291</v>
       </c>
@@ -4576,7 +4582,7 @@
         <v>292</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>72</v>
@@ -4600,33 +4606,33 @@
         <v>255</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>260</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O11" s="55" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>135</v>
@@ -4638,7 +4644,7 @@
         <v>240</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>38</v>
@@ -4647,136 +4653,136 @@
         <v>265</v>
       </c>
       <c r="K12" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="O12" s="55" t="s">
+        <v>444</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="O12" s="55" t="s">
-        <v>448</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>390</v>
-      </c>
       <c r="D13" s="12" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>135</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>240</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L13" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="O13" s="55" t="s">
         <v>447</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="O13" s="55" t="s">
-        <v>451</v>
-      </c>
       <c r="P13" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>136</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O14" s="55" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>404</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>72</v>
@@ -4785,139 +4791,139 @@
         <v>241</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O15" s="55" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>413</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>298</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>240</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O16" s="51" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>240</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O17" s="55" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4946,29 +4952,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA1C62-8752-4999-BB16-F79297149C3E}">
   <dimension ref="A1:AB189"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScale="96" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView zoomScale="96" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" customWidth="1"/>
+    <col min="19" max="19" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -4976,7 +4982,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>112</v>
       </c>
@@ -4984,7 +4990,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -5036,7 +5042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -5044,13 +5050,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -5062,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -5076,7 +5082,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -5088,7 +5094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -5102,13 +5108,13 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -5128,7 +5134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -5136,7 +5142,7 @@
         <v>294</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -5148,7 +5154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
@@ -5156,7 +5162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -5182,7 +5188,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="G12" t="s">
@@ -5204,7 +5210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="15"/>
       <c r="G13" t="s">
         <v>105</v>
@@ -5213,28 +5219,28 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="O13" s="46" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="15"/>
       <c r="G14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -5246,13 +5252,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>110</v>
       </c>
       <c r="B15" s="15"/>
       <c r="G15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -5264,17 +5270,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="G16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>112</v>
       </c>
@@ -5286,14 +5292,14 @@
       </c>
       <c r="D17" s="15"/>
       <c r="G17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -5316,7 +5322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
@@ -5339,7 +5345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -5356,13 +5362,13 @@
         <v>0.1477</v>
       </c>
       <c r="O20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="G23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -5461,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
@@ -5478,7 +5484,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="G24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -5490,7 +5496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -5507,7 +5513,7 @@
         <v>2.6200000000000001E-2</v>
       </c>
       <c r="G25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -5519,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -5536,7 +5542,7 @@
         <v>1.23E-2</v>
       </c>
       <c r="G26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -5548,7 +5554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15">
@@ -5564,7 +5570,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="G27" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -5576,7 +5582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="42" t="s">
@@ -5586,15 +5592,15 @@
         <v>311</v>
       </c>
       <c r="E28" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="15" t="s">
         <v>112</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>17</v>
       </c>
@@ -5610,7 +5616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>18</v>
       </c>
@@ -5621,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
@@ -5632,7 +5638,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>20</v>
       </c>
@@ -5643,7 +5649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>21</v>
       </c>
@@ -5654,7 +5660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>22</v>
       </c>
@@ -5665,7 +5671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
         <v>23</v>
       </c>
@@ -5676,7 +5682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
         <v>24</v>
       </c>
@@ -5687,7 +5693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>25</v>
       </c>
@@ -5698,32 +5704,32 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="E42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="33" t="s">
         <v>109</v>
       </c>
@@ -5760,7 +5766,7 @@
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="35" t="s">
         <v>127</v>
       </c>
@@ -5777,7 +5783,7 @@
         <v>296</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>297</v>
@@ -5797,7 +5803,7 @@
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="35" t="s">
         <v>128</v>
       </c>
@@ -5814,7 +5820,7 @@
         <v>296</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>297</v>
@@ -5834,7 +5840,7 @@
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="35" t="s">
         <v>129</v>
       </c>
@@ -5851,7 +5857,7 @@
         <v>301</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>297</v>
@@ -5860,7 +5866,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J51" s="36" t="s">
         <v>135</v>
@@ -5871,7 +5877,7 @@
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="35" t="s">
         <v>176</v>
       </c>
@@ -5888,7 +5894,7 @@
         <v>301</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>297</v>
@@ -5906,7 +5912,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="35" t="s">
         <v>182</v>
       </c>
@@ -5923,7 +5929,7 @@
         <v>296</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>303</v>
@@ -5941,7 +5947,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="35" t="s">
         <v>187</v>
       </c>
@@ -5958,7 +5964,7 @@
         <v>296</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>297</v>
@@ -5976,7 +5982,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="35" t="s">
         <v>285</v>
       </c>
@@ -5993,7 +5999,7 @@
         <v>296</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>297</v>
@@ -6011,7 +6017,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="35" t="s">
         <v>288</v>
       </c>
@@ -6028,7 +6034,7 @@
         <v>301</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>297</v>
@@ -6048,7 +6054,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="35" t="s">
         <v>290</v>
       </c>
@@ -6065,7 +6071,7 @@
         <v>296</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>297</v>
@@ -6085,7 +6091,7 @@
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="35" t="s">
         <v>291</v>
       </c>
@@ -6102,7 +6108,7 @@
         <v>296</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>297</v>
@@ -6122,12 +6128,12 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="35" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C59" s="37">
         <v>750</v>
@@ -6139,7 +6145,7 @@
         <v>296</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>297</v>
@@ -6159,12 +6165,12 @@
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="35" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C60" s="37">
         <v>625</v>
@@ -6176,7 +6182,7 @@
         <v>296</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>297</v>
@@ -6191,17 +6197,17 @@
         <v>135</v>
       </c>
       <c r="K60" s="37" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="35" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C61" s="37">
         <v>708.33299999999997</v>
@@ -6213,13 +6219,13 @@
         <v>296</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>297</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I61" s="36" t="s">
         <v>93</v>
@@ -6228,17 +6234,17 @@
         <v>135</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="35" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C62" s="37">
         <v>583.33299999999997</v>
@@ -6247,10 +6253,10 @@
         <v>4</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>297</v>
@@ -6270,12 +6276,12 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="B63" s="37" t="s">
         <v>427</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>430</v>
       </c>
       <c r="C63" s="37">
         <v>730</v>
@@ -6287,13 +6293,13 @@
         <v>296</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I63" s="36" t="s">
         <v>93</v>
@@ -6307,12 +6313,12 @@
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="35" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C64" s="37">
         <v>666.66700000000003</v>
@@ -6324,13 +6330,13 @@
         <v>296</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>297</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I64" s="36" t="s">
         <v>93</v>
@@ -6344,13 +6350,13 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="68" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="38" t="s">
         <v>138</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="40" t="s">
         <v>127</v>
       </c>
@@ -6414,7 +6420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="40" t="s">
         <v>128</v>
       </c>
@@ -6447,7 +6453,7 @@
       </c>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="40" t="s">
         <v>129</v>
       </c>
@@ -6480,7 +6486,7 @@
       </c>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="40" t="s">
         <v>176</v>
       </c>
@@ -6514,7 +6520,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="40" t="s">
         <v>182</v>
       </c>
@@ -6548,7 +6554,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="40" t="s">
         <v>187</v>
       </c>
@@ -6582,7 +6588,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="40" t="s">
         <v>285</v>
       </c>
@@ -6616,7 +6622,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="40" t="s">
         <v>288</v>
       </c>
@@ -6650,7 +6656,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="40" t="s">
         <v>290</v>
       </c>
@@ -6684,7 +6690,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="40" t="s">
         <v>291</v>
       </c>
@@ -6718,9 +6724,9 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="40" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B79" s="57">
         <v>1</v>
@@ -6752,9 +6758,9 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="40" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B80" s="57">
         <v>1</v>
@@ -6786,9 +6792,9 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="40" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B81" s="57">
         <v>1</v>
@@ -6820,9 +6826,9 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="40" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B82" s="57">
         <v>1</v>
@@ -6854,9 +6860,9 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B83" s="57">
         <v>1</v>
@@ -6888,9 +6894,9 @@
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B84" s="57">
         <v>1</v>
@@ -6922,12 +6928,12 @@
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -6938,7 +6944,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -6961,7 +6967,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -6984,7 +6990,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -7007,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -7030,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>182</v>
       </c>
@@ -7053,7 +7059,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -7076,7 +7082,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>288</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -7145,7 +7151,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -7168,145 +7174,145 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B100" s="48">
         <f t="shared" ref="B100:B105" si="3">1/B79</f>
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G100">
         <f t="shared" ref="G100:G105" si="4">C79/5</f>
         <v>0.6</v>
       </c>
       <c r="J100" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K100">
         <f t="shared" ref="K100:K105" si="5">D79/5</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B101" s="48">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G101">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="J101" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K101">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B102" s="48">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G102">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="J102" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K102">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B103" s="48">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G103">
         <f>C82/5</f>
         <v>0.4</v>
       </c>
       <c r="J103" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K103">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B104" s="48">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G104">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="J104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K104">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B105" s="48">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G105">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="J105" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K105">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -7317,7 +7323,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -7340,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -7363,7 +7369,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -7386,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>176</v>
       </c>
@@ -7409,7 +7415,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>182</v>
       </c>
@@ -7432,7 +7438,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -7455,7 +7461,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>285</v>
       </c>
@@ -7478,7 +7484,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -7501,7 +7507,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>290</v>
       </c>
@@ -7524,7 +7530,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>291</v>
       </c>
@@ -7547,145 +7553,145 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B118">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F118" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G118">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K118">
         <f t="shared" ref="K118:K123" si="9">2/G79</f>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B119">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F119" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G119">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K119">
         <f>2/G80</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B120">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F120" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G120">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K120">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B121">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F121" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G121">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K121">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B122">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F122" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G122">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="J122" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K122">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B123">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F123" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G123">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K123">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>145</v>
       </c>
@@ -7693,10 +7699,10 @@
         <v>146</v>
       </c>
       <c r="J125" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -7719,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -7742,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -7765,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>176</v>
       </c>
@@ -7788,7 +7794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>182</v>
       </c>
@@ -7811,7 +7817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>187</v>
       </c>
@@ -7834,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>285</v>
       </c>
@@ -7857,7 +7863,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>288</v>
       </c>
@@ -7880,7 +7886,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -7903,7 +7909,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>291</v>
       </c>
@@ -7926,150 +7932,150 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B136">
         <f t="shared" ref="B136:B141" si="13">H79/2</f>
         <v>0.5</v>
       </c>
       <c r="F136" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G136" s="19">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J136" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K136" s="19">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B137">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G137" s="19">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J137" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K137" s="19">
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B138">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G138" s="19">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J138" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K138" s="19">
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B139">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G139" s="19">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J139" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K139" s="19">
         <f t="shared" si="12"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B140">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G140" s="19">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K140" s="19">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B141">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G141" s="19">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J141" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K141" s="19">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>138</v>
       </c>
@@ -8132,7 +8138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>127</v>
       </c>
@@ -8204,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>128</v>
       </c>
@@ -8276,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>129</v>
       </c>
@@ -8348,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
         <v>176</v>
       </c>
@@ -8420,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>182</v>
       </c>
@@ -8492,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>187</v>
       </c>
@@ -8564,7 +8570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
         <v>285</v>
       </c>
@@ -8636,7 +8642,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>288</v>
       </c>
@@ -8708,7 +8714,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
         <v>290</v>
       </c>
@@ -8780,7 +8786,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
         <v>291</v>
       </c>
@@ -8851,9 +8857,9 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B156" s="59">
         <f t="shared" si="14"/>
@@ -8892,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -8922,9 +8928,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B157" s="59">
         <f t="shared" si="14"/>
@@ -8963,7 +8969,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="P157" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q157">
         <v>1</v>
@@ -8993,9 +8999,9 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B158" s="59">
         <f t="shared" si="14"/>
@@ -9034,7 +9040,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="P158" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -9064,9 +9070,9 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B159" s="59">
         <f t="shared" si="14"/>
@@ -9105,7 +9111,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P159" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -9135,9 +9141,9 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B160" s="59">
         <f t="shared" si="14"/>
@@ -9176,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -9206,9 +9212,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B161" s="59">
         <f t="shared" si="14"/>
@@ -9247,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -9277,79 +9283,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P164" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F165" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="G165" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="H165" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="I165" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="J165" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="G165" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="H165" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="I165" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="J165" s="9" t="s">
-        <v>491</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
       <c r="P165" s="9"/>
       <c r="Q165" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="R165" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="S165" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="T165" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="U165" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="V165" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="R165" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="S165" s="9" t="s">
+      <c r="W165" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="T165" s="9" t="s">
+      <c r="X165" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="U165" s="9" t="s">
+      <c r="Y165" s="9" t="s">
         <v>474</v>
-      </c>
-      <c r="V165" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="W165" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="X165" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="Y165" s="9" t="s">
-        <v>478</v>
       </c>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>138</v>
       </c>
@@ -9425,7 +9431,7 @@
       </c>
       <c r="AB166" s="9"/>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
         <v>127</v>
       </c>
@@ -9522,10 +9528,10 @@
         <v>1</v>
       </c>
       <c r="AB167" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
         <v>128</v>
       </c>
@@ -9622,10 +9628,10 @@
         <v>12</v>
       </c>
       <c r="AB168" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
         <v>129</v>
       </c>
@@ -9725,7 +9731,7 @@
       </c>
       <c r="AB169" s="66"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="s">
         <v>176</v>
       </c>
@@ -9822,10 +9828,10 @@
         <v>3</v>
       </c>
       <c r="AB170" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="s">
         <v>182</v>
       </c>
@@ -9922,10 +9928,10 @@
         <v>16</v>
       </c>
       <c r="AB171" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="s">
         <v>187</v>
       </c>
@@ -10022,10 +10028,10 @@
         <v>14</v>
       </c>
       <c r="AB172" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="s">
         <v>285</v>
       </c>
@@ -10122,10 +10128,10 @@
         <v>13</v>
       </c>
       <c r="AB173" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
         <v>288</v>
       </c>
@@ -10225,7 +10231,7 @@
       </c>
       <c r="AB174" s="63"/>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
         <v>290</v>
       </c>
@@ -10322,10 +10328,10 @@
         <v>15</v>
       </c>
       <c r="AB175" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
         <v>291</v>
       </c>
@@ -10422,12 +10428,12 @@
         <v>11</v>
       </c>
       <c r="AB176" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B177" s="9">
         <f>B156*E18</f>
@@ -10475,7 +10481,7 @@
         <v>2</v>
       </c>
       <c r="P177" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q177" s="62">
         <f>B156*D18</f>
@@ -10522,12 +10528,12 @@
         <v>2</v>
       </c>
       <c r="AB177" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B178" s="9">
         <f>B157*E18</f>
@@ -10577,7 +10583,7 @@
         <v>4</v>
       </c>
       <c r="P178" s="63" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q178" s="64">
         <f>B157*D18</f>
@@ -10625,9 +10631,9 @@
       </c>
       <c r="AB178" s="63"/>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A179" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B179" s="9">
         <f>B158*E18</f>
@@ -10675,7 +10681,7 @@
         <v>7</v>
       </c>
       <c r="P179" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q179" s="62">
         <f>B158*D18</f>
@@ -10722,12 +10728,12 @@
         <v>7</v>
       </c>
       <c r="AB179" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B180" s="9">
         <f>B159*E18</f>
@@ -10775,7 +10781,7 @@
         <v>8</v>
       </c>
       <c r="P180" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q180" s="62">
         <f>B159*D18</f>
@@ -10822,12 +10828,12 @@
         <v>8</v>
       </c>
       <c r="AB180" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B181" s="9">
         <f>B160*E18</f>
@@ -10877,7 +10883,7 @@
         <v>9</v>
       </c>
       <c r="P181" s="66" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q181" s="68">
         <f>B160*D18</f>
@@ -10925,9 +10931,9 @@
       </c>
       <c r="AB181" s="66"/>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B182" s="9">
         <f>B161*E18</f>
@@ -10975,7 +10981,7 @@
         <v>6</v>
       </c>
       <c r="P182" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q182" s="62">
         <f>B161*D18</f>
@@ -11022,10 +11028,10 @@
         <v>6</v>
       </c>
       <c r="AB182" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P185" t="s">
         <v>288</v>
       </c>
@@ -11070,9 +11076,9 @@
         <v>0.71753333333333336</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P187" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q187">
         <f>B153*D18</f>
@@ -11115,9 +11121,9 @@
         <v>0.76733333333333331</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P189" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q189">
         <f>B157*D18</f>
@@ -11180,30 +11186,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871AEF4C-9567-4F69-A103-F367FD8FD456}">
   <dimension ref="A1:AD189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="101" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="L175" sqref="L175"/>
+    <sheetView tabSelected="1" topLeftCell="C124" zoomScale="118" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="13" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" customWidth="1"/>
+    <col min="10" max="11" width="14.453125" customWidth="1"/>
+    <col min="12" max="13" width="15.81640625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="17" max="17" width="20.21875" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" customWidth="1"/>
-    <col min="21" max="21" width="20.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" customWidth="1"/>
+    <col min="17" max="17" width="20.1796875" customWidth="1"/>
+    <col min="20" max="20" width="19.453125" customWidth="1"/>
+    <col min="21" max="21" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -11211,7 +11217,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>112</v>
       </c>
@@ -11219,7 +11225,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -11245,7 +11251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -11271,7 +11277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -11279,13 +11285,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -11297,7 +11303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -11311,7 +11317,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -11323,7 +11329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -11337,13 +11343,13 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -11363,7 +11369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -11371,7 +11377,7 @@
         <v>294</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -11383,7 +11389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
@@ -11391,7 +11397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -11417,7 +11423,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="G12" t="s">
@@ -11439,7 +11445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="15"/>
       <c r="G13" t="s">
         <v>105</v>
@@ -11448,7 +11454,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -11460,22 +11466,22 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="U13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="15"/>
       <c r="G14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14">
@@ -11494,13 +11500,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>110</v>
       </c>
       <c r="B15" s="15"/>
       <c r="G15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -11515,20 +11521,20 @@
         <v>298</v>
       </c>
       <c r="U15" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="G16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>112</v>
       </c>
@@ -11540,7 +11546,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="G17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -11548,7 +11554,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -11571,7 +11577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
@@ -11594,7 +11600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -11620,10 +11626,10 @@
         <v>136</v>
       </c>
       <c r="U20" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -11658,7 +11664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -11687,7 +11693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -11704,7 +11710,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="G23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -11717,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
@@ -11734,7 +11740,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="G24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -11747,7 +11753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -11764,7 +11770,7 @@
         <v>2.6200000000000001E-2</v>
       </c>
       <c r="G25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -11777,7 +11783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -11794,7 +11800,7 @@
         <v>1.23E-2</v>
       </c>
       <c r="G26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -11807,7 +11813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15">
@@ -11823,7 +11829,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="G27" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -11835,7 +11841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="42" t="s">
@@ -11845,15 +11851,15 @@
         <v>311</v>
       </c>
       <c r="E28" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="15" t="s">
         <v>112</v>
       </c>
@@ -11861,7 +11867,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>17</v>
       </c>
@@ -11869,7 +11875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>18</v>
       </c>
@@ -11880,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
@@ -11891,7 +11897,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>20</v>
       </c>
@@ -11902,7 +11908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>21</v>
       </c>
@@ -11913,7 +11919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>22</v>
       </c>
@@ -11924,7 +11930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
         <v>23</v>
       </c>
@@ -11935,7 +11941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
         <v>24</v>
       </c>
@@ -11946,7 +11952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>25</v>
       </c>
@@ -11957,38 +11963,38 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="E42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="18"/>
       <c r="L47" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N47" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="33" t="s">
         <v>109</v>
       </c>
@@ -12029,7 +12035,7 @@
       </c>
       <c r="O48" s="16"/>
     </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="35" t="s">
         <v>127</v>
       </c>
@@ -12046,7 +12052,7 @@
         <v>296</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>297</v>
@@ -12070,7 +12076,7 @@
       </c>
       <c r="O49" s="12"/>
     </row>
-    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="35" t="s">
         <v>128</v>
       </c>
@@ -12087,7 +12093,7 @@
         <v>296</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>297</v>
@@ -12111,7 +12117,7 @@
       </c>
       <c r="O50" s="12"/>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="35" t="s">
         <v>129</v>
       </c>
@@ -12128,7 +12134,7 @@
         <v>301</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>297</v>
@@ -12137,7 +12143,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J51" s="36" t="s">
         <v>135</v>
@@ -12152,7 +12158,7 @@
       </c>
       <c r="O51" s="12"/>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="35" t="s">
         <v>176</v>
       </c>
@@ -12169,7 +12175,7 @@
         <v>301</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>297</v>
@@ -12192,7 +12198,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="35" t="s">
         <v>182</v>
       </c>
@@ -12209,7 +12215,7 @@
         <v>296</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>303</v>
@@ -12232,7 +12238,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="35" t="s">
         <v>187</v>
       </c>
@@ -12249,7 +12255,7 @@
         <v>296</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>297</v>
@@ -12272,7 +12278,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="35" t="s">
         <v>285</v>
       </c>
@@ -12289,7 +12295,7 @@
         <v>296</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>297</v>
@@ -12312,7 +12318,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="35" t="s">
         <v>288</v>
       </c>
@@ -12329,7 +12335,7 @@
         <v>301</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>297</v>
@@ -12353,7 +12359,7 @@
       </c>
       <c r="O56" s="9"/>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="35" t="s">
         <v>290</v>
       </c>
@@ -12370,7 +12376,7 @@
         <v>296</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>297</v>
@@ -12394,7 +12400,7 @@
       </c>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="35" t="s">
         <v>291</v>
       </c>
@@ -12411,7 +12417,7 @@
         <v>296</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>297</v>
@@ -12435,12 +12441,12 @@
       </c>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="35" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C59" s="37">
         <v>750</v>
@@ -12452,7 +12458,7 @@
         <v>296</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>297</v>
@@ -12476,12 +12482,12 @@
       </c>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="35" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C60" s="37">
         <v>625</v>
@@ -12493,7 +12499,7 @@
         <v>296</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>297</v>
@@ -12513,16 +12519,16 @@
       </c>
       <c r="M60" s="95"/>
       <c r="N60" s="76" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="35" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C61" s="37">
         <v>708.33299999999997</v>
@@ -12531,16 +12537,16 @@
         <v>5</v>
       </c>
       <c r="E61" s="83" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G61" s="83" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H61" s="102" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I61" s="36" t="s">
         <v>93</v>
@@ -12554,16 +12560,16 @@
       </c>
       <c r="M61" s="95"/>
       <c r="N61" s="76" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="35" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C62" s="37">
         <v>583.33299999999997</v>
@@ -12572,10 +12578,10 @@
         <v>4</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>297</v>
@@ -12599,12 +12605,12 @@
       </c>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="B63" s="37" t="s">
         <v>427</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>430</v>
       </c>
       <c r="C63" s="37">
         <v>730</v>
@@ -12616,13 +12622,13 @@
         <v>296</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H63" s="102" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I63" s="36" t="s">
         <v>93</v>
@@ -12640,12 +12646,12 @@
       </c>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="35" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C64" s="37">
         <v>666.66700000000003</v>
@@ -12657,13 +12663,13 @@
         <v>296</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>297</v>
       </c>
       <c r="H64" s="102" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I64" s="36" t="s">
         <v>93</v>
@@ -12681,18 +12687,18 @@
       </c>
       <c r="O64" s="12"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J67" s="37" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K67" s="37"/>
     </row>
-    <row r="68" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="38" t="s">
         <v>138</v>
       </c>
@@ -12725,7 +12731,7 @@
       </c>
       <c r="K68" s="90"/>
     </row>
-    <row r="69" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="40" t="s">
         <v>127</v>
       </c>
@@ -12758,7 +12764,7 @@
       </c>
       <c r="K69" s="73"/>
     </row>
-    <row r="70" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="40" t="s">
         <v>128</v>
       </c>
@@ -12792,7 +12798,7 @@
       <c r="K70" s="73"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="40" t="s">
         <v>129</v>
       </c>
@@ -12826,7 +12832,7 @@
       <c r="K71" s="73"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="40" t="s">
         <v>176</v>
       </c>
@@ -12862,7 +12868,7 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="40" t="s">
         <v>182</v>
       </c>
@@ -12898,7 +12904,7 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="40" t="s">
         <v>187</v>
       </c>
@@ -12908,7 +12914,7 @@
       <c r="C74" s="41">
         <v>4</v>
       </c>
-      <c r="D74" s="41">
+      <c r="D74" s="103">
         <v>3</v>
       </c>
       <c r="E74" s="41">
@@ -12934,7 +12940,7 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="40" t="s">
         <v>285</v>
       </c>
@@ -12970,7 +12976,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="40" t="s">
         <v>288</v>
       </c>
@@ -13006,7 +13012,7 @@
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
     </row>
-    <row r="77" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="40" t="s">
         <v>290</v>
       </c>
@@ -13042,7 +13048,7 @@
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
     </row>
-    <row r="78" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="40" t="s">
         <v>291</v>
       </c>
@@ -13078,9 +13084,9 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="40" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B79" s="57">
         <v>1</v>
@@ -13114,9 +13120,9 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="40" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B80" s="57">
         <v>1</v>
@@ -13150,9 +13156,9 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="40" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B81" s="57">
         <v>1</v>
@@ -13186,9 +13192,9 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="40" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B82" s="57">
         <v>1</v>
@@ -13222,9 +13228,9 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B83" s="57">
         <v>1</v>
@@ -13258,9 +13264,9 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B84" s="57">
         <v>1</v>
@@ -13294,12 +13300,12 @@
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -13310,7 +13316,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -13333,7 +13339,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -13356,7 +13362,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -13379,7 +13385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -13402,7 +13408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>182</v>
       </c>
@@ -13425,7 +13431,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -13448,7 +13454,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -13471,7 +13477,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>288</v>
       </c>
@@ -13494,7 +13500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -13517,7 +13523,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -13540,69 +13546,69 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B100" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G100">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J100" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L100">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B101" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G101">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J101" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L101">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B102" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G102">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J102" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L102" s="81">
         <f t="shared" si="2"/>
@@ -13610,76 +13616,76 @@
       </c>
       <c r="M102" s="81"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B103" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G103">
         <f>C82/5</f>
         <v>0.4</v>
       </c>
       <c r="J103" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L103">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B104" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G104">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L104">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B105" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G105">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J105" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L105">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -13690,7 +13696,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -13713,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -13736,7 +13742,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -13759,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>176</v>
       </c>
@@ -13782,7 +13788,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>182</v>
       </c>
@@ -13805,7 +13811,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -13828,7 +13834,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>285</v>
       </c>
@@ -13851,7 +13857,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -13874,7 +13880,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>290</v>
       </c>
@@ -13897,7 +13903,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>291</v>
       </c>
@@ -13920,145 +13926,145 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B118">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F118" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G118">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L118">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B119">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F119" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G119">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L119">
         <f>2/G80</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B120">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F120" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G120" s="81">
         <f>F81/2</f>
         <v>0.5</v>
       </c>
       <c r="J120" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L120">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B121">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F121" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G121">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L121">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B122">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F122" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G122">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="J122" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L122">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B123">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F123" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G123">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L123">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>145</v>
       </c>
@@ -14066,20 +14072,20 @@
         <v>146</v>
       </c>
       <c r="J125" s="79" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K125" s="79"/>
       <c r="L125" s="79"/>
       <c r="M125" s="79"/>
       <c r="N125" s="79"/>
       <c r="P125" s="85" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Q125" s="85"/>
       <c r="R125" s="85"/>
       <c r="S125" s="85"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -14114,7 +14120,7 @@
       <c r="R126" s="85"/>
       <c r="S126" s="85"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -14149,7 +14155,7 @@
       <c r="R127" s="85"/>
       <c r="S127" s="85"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -14184,7 +14190,7 @@
       <c r="R128" s="85"/>
       <c r="S128" s="85"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>176</v>
       </c>
@@ -14219,7 +14225,7 @@
       <c r="R129" s="85"/>
       <c r="S129" s="85"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>182</v>
       </c>
@@ -14254,7 +14260,7 @@
       <c r="R130" s="85"/>
       <c r="S130" s="85"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>187</v>
       </c>
@@ -14289,7 +14295,7 @@
       <c r="R131" s="85"/>
       <c r="S131" s="85"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>285</v>
       </c>
@@ -14324,7 +14330,7 @@
       <c r="R132" s="85"/>
       <c r="S132" s="85"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>288</v>
       </c>
@@ -14359,7 +14365,7 @@
       <c r="R133" s="85"/>
       <c r="S133" s="85"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -14394,7 +14400,7 @@
       <c r="R134" s="85"/>
       <c r="S134" s="85"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>291</v>
       </c>
@@ -14429,23 +14435,23 @@
       <c r="R135" s="85"/>
       <c r="S135" s="85"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B136">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F136" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G136" s="19">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J136" s="79" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K136" s="79"/>
       <c r="L136" s="80">
@@ -14455,7 +14461,7 @@
       <c r="M136" s="80"/>
       <c r="N136" s="79"/>
       <c r="P136" s="85" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q136" s="86">
         <f t="shared" si="9"/>
@@ -14464,23 +14470,23 @@
       <c r="R136" s="85"/>
       <c r="S136" s="85"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B137">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G137" s="19">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J137" s="79" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K137" s="79"/>
       <c r="L137" s="80">
@@ -14490,7 +14496,7 @@
       <c r="M137" s="80"/>
       <c r="N137" s="79"/>
       <c r="P137" s="85" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q137" s="86">
         <f t="shared" si="9"/>
@@ -14499,23 +14505,23 @@
       <c r="R137" s="85"/>
       <c r="S137" s="85"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B138">
         <f>H81/2</f>
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G138" s="82">
         <f>I81/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="J138" s="79" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K138" s="79"/>
       <c r="L138" s="80">
@@ -14525,7 +14531,7 @@
       <c r="M138" s="80"/>
       <c r="N138" s="79"/>
       <c r="P138" s="85" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q138" s="86">
         <f t="shared" si="9"/>
@@ -14534,23 +14540,23 @@
       <c r="R138" s="85"/>
       <c r="S138" s="85"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B139">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G139" s="19">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J139" s="79" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K139" s="79"/>
       <c r="L139" s="80">
@@ -14560,7 +14566,7 @@
       <c r="M139" s="80"/>
       <c r="N139" s="79"/>
       <c r="P139" s="85" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q139" s="86">
         <f t="shared" si="9"/>
@@ -14569,23 +14575,23 @@
       <c r="R139" s="85"/>
       <c r="S139" s="85"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B140">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G140" s="19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J140" s="79" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K140" s="79"/>
       <c r="L140" s="80">
@@ -14595,7 +14601,7 @@
       <c r="M140" s="80"/>
       <c r="N140" s="79"/>
       <c r="P140" s="85" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q140" s="86">
         <f t="shared" si="9"/>
@@ -14604,23 +14610,23 @@
       <c r="R140" s="85"/>
       <c r="S140" s="85"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B141">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G141" s="19">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J141" s="79" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K141" s="79"/>
       <c r="L141" s="80">
@@ -14630,7 +14636,7 @@
       <c r="M141" s="80"/>
       <c r="N141" s="79"/>
       <c r="P141" s="85" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q141" s="86">
         <f t="shared" si="9"/>
@@ -14639,28 +14645,28 @@
       <c r="R141" s="85"/>
       <c r="S141" s="85"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="L142" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Q142" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J144" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L144" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>138</v>
       </c>
@@ -14728,7 +14734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>127</v>
       </c>
@@ -14806,7 +14812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>128</v>
       </c>
@@ -14884,7 +14890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>129</v>
       </c>
@@ -14962,7 +14968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
         <v>176</v>
       </c>
@@ -15040,7 +15046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>182</v>
       </c>
@@ -15118,7 +15124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>187</v>
       </c>
@@ -15196,7 +15202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
         <v>285</v>
       </c>
@@ -15274,7 +15280,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>288</v>
       </c>
@@ -15352,7 +15358,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
         <v>290</v>
       </c>
@@ -15430,7 +15436,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
         <v>291</v>
       </c>
@@ -15507,9 +15513,9 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B156" s="59">
         <f t="shared" si="12"/>
@@ -15554,7 +15560,7 @@
       </c>
       <c r="M156" s="86"/>
       <c r="R156" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="S156">
         <v>1</v>
@@ -15584,9 +15590,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B157" s="59">
         <f t="shared" si="12"/>
@@ -15631,7 +15637,7 @@
       </c>
       <c r="M157" s="86"/>
       <c r="R157" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="S157">
         <v>1</v>
@@ -15661,9 +15667,9 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B158" s="59">
         <f t="shared" si="12"/>
@@ -15708,7 +15714,7 @@
       </c>
       <c r="M158" s="86"/>
       <c r="R158" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="S158">
         <v>1</v>
@@ -15738,9 +15744,9 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B159" s="59">
         <f t="shared" si="12"/>
@@ -15785,7 +15791,7 @@
       </c>
       <c r="M159" s="86"/>
       <c r="R159" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="S159">
         <v>1</v>
@@ -15815,9 +15821,9 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B160" s="59">
         <f t="shared" si="12"/>
@@ -15862,7 +15868,7 @@
       </c>
       <c r="M160" s="86"/>
       <c r="R160" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="S160">
         <v>1</v>
@@ -15892,9 +15898,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B161" s="59">
         <f t="shared" si="12"/>
@@ -15939,7 +15945,7 @@
       </c>
       <c r="M161" s="86"/>
       <c r="R161" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="S161">
         <v>1</v>
@@ -15969,51 +15975,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J164" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K164" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R164" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F165" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="G165" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="H165" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="I165" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="J165" s="66" t="s">
         <v>487</v>
       </c>
-      <c r="G165" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="H165" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="I165" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="J165" s="66" t="s">
-        <v>491</v>
-      </c>
       <c r="K165" s="87" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L165" s="12"/>
       <c r="M165" s="12"/>
@@ -16022,37 +16028,37 @@
       <c r="P165" s="12"/>
       <c r="R165" s="9"/>
       <c r="S165" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="T165" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="U165" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="V165" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="W165" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="X165" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="T165" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="U165" s="9" t="s">
+      <c r="Y165" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="V165" s="9" t="s">
+      <c r="Z165" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="W165" s="9" t="s">
+      <c r="AA165" s="9" t="s">
         <v>474</v>
-      </c>
-      <c r="X165" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y165" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z165" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA165" s="9" t="s">
-        <v>478</v>
       </c>
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
       <c r="AD165" s="9"/>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>138</v>
       </c>
@@ -16131,7 +16137,7 @@
       </c>
       <c r="AD166" s="9"/>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
         <v>127</v>
       </c>
@@ -16232,10 +16238,10 @@
         <v>1</v>
       </c>
       <c r="AD167" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
         <v>128</v>
       </c>
@@ -16336,10 +16342,10 @@
         <v>12</v>
       </c>
       <c r="AD168" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
         <v>129</v>
       </c>
@@ -16441,7 +16447,7 @@
       </c>
       <c r="AD169" s="66"/>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="s">
         <v>176</v>
       </c>
@@ -16542,10 +16548,10 @@
         <v>4</v>
       </c>
       <c r="AD170" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="s">
         <v>182</v>
       </c>
@@ -16646,10 +16652,10 @@
         <v>16</v>
       </c>
       <c r="AD171" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="s">
         <v>187</v>
       </c>
@@ -16750,10 +16756,10 @@
         <v>14</v>
       </c>
       <c r="AD172" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="s">
         <v>285</v>
       </c>
@@ -16854,10 +16860,10 @@
         <v>13</v>
       </c>
       <c r="AD173" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
         <v>288</v>
       </c>
@@ -16959,7 +16965,7 @@
       </c>
       <c r="AD174" s="63"/>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
         <v>290</v>
       </c>
@@ -17060,10 +17066,10 @@
         <v>15</v>
       </c>
       <c r="AD175" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
         <v>291</v>
       </c>
@@ -17164,12 +17170,12 @@
         <v>11</v>
       </c>
       <c r="AD176" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B177" s="9">
         <f>B156*E18</f>
@@ -17221,7 +17227,7 @@
       </c>
       <c r="N177" s="9"/>
       <c r="R177" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="S177" s="62">
         <f>B156*D18</f>
@@ -17268,12 +17274,12 @@
         <v>2</v>
       </c>
       <c r="AD177" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B178" s="9">
         <f>B157*E18</f>
@@ -17325,7 +17331,7 @@
       </c>
       <c r="N178" s="9"/>
       <c r="R178" s="63" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="S178" s="64">
         <f>B157*D18</f>
@@ -17373,9 +17379,9 @@
       </c>
       <c r="AD178" s="63"/>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A179" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B179" s="9">
         <f>B158*E18</f>
@@ -17427,7 +17433,7 @@
       </c>
       <c r="N179" s="9"/>
       <c r="R179" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="S179" s="62">
         <f>B158*D18</f>
@@ -17474,12 +17480,12 @@
         <v>8</v>
       </c>
       <c r="AD179" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B180" s="9">
         <f>B159*E18</f>
@@ -17531,7 +17537,7 @@
       </c>
       <c r="N180" s="9"/>
       <c r="R180" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="S180" s="62">
         <f>B159*D18</f>
@@ -17578,12 +17584,12 @@
         <v>7</v>
       </c>
       <c r="AD180" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B181" s="9">
         <f>B160*E18</f>
@@ -17635,7 +17641,7 @@
       </c>
       <c r="N181" s="9"/>
       <c r="R181" s="66" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="S181" s="68">
         <f>B160*D18</f>
@@ -17683,9 +17689,9 @@
       </c>
       <c r="AD181" s="66"/>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B182" s="9">
         <f>B161*E18</f>
@@ -17737,7 +17743,7 @@
       </c>
       <c r="N182" s="9"/>
       <c r="R182" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="S182" s="62">
         <f>B161*D18</f>
@@ -17784,10 +17790,10 @@
         <v>6</v>
       </c>
       <c r="AD182" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.35">
       <c r="R185" t="s">
         <v>288</v>
       </c>
@@ -17832,9 +17838,9 @@
         <v>0.71353333333333335</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.35">
       <c r="R187" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="S187">
         <f>B153*D18</f>
@@ -17877,9 +17883,9 @@
         <v>0.76333333333333331</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.35">
       <c r="R189" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="S189">
         <f>B157*D18</f>
@@ -17936,15 +17942,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>112</v>
       </c>
@@ -17955,7 +17961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -17971,7 +17977,7 @@
         <v>0.31432980599647264</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -17983,7 +17989,7 @@
         <v>0.27420634920634918</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -17995,7 +18001,7 @@
         <v>0.28809523809523802</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -18003,7 +18009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -18011,7 +18017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -18019,7 +18025,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
@@ -18027,7 +18033,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -18035,7 +18041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -18056,28 +18062,28 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="8" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
-    <col min="19" max="19" width="22.21875" customWidth="1"/>
-    <col min="20" max="20" width="33.109375" customWidth="1"/>
-    <col min="24" max="24" width="17.44140625" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
+    <col min="18" max="18" width="18.453125" customWidth="1"/>
+    <col min="19" max="19" width="22.1796875" customWidth="1"/>
+    <col min="20" max="20" width="33.08984375" customWidth="1"/>
+    <col min="24" max="24" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -18085,7 +18091,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>112</v>
       </c>
@@ -18093,7 +18099,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -18119,7 +18125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -18148,7 +18154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -18177,7 +18183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -18206,7 +18212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -18235,7 +18241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -18264,7 +18270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -18272,7 +18278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
@@ -18280,7 +18286,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -18306,7 +18312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="J12" t="s">
@@ -18328,7 +18334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="J13" t="s">
         <v>194</v>
@@ -18349,7 +18355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="J14" t="s">
         <v>195</v>
@@ -18370,7 +18376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>110</v>
       </c>
@@ -18388,7 +18394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="J16" t="s">
@@ -18404,7 +18410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>112</v>
       </c>
@@ -18426,7 +18432,7 @@
       <c r="G17" s="9"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -18458,7 +18464,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
@@ -18490,7 +18496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -18522,7 +18528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -18566,7 +18572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -18613,7 +18619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -18654,7 +18660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
@@ -18695,7 +18701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -18736,7 +18742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -18777,7 +18783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17">
@@ -18799,19 +18805,19 @@
       <c r="G27" s="9"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>112</v>
       </c>
@@ -18839,7 +18845,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>17</v>
       </c>
@@ -18869,7 +18875,7 @@
         <v>31.432980599647259</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>18</v>
       </c>
@@ -18899,7 +18905,7 @@
         <v>20.321869488536155</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
@@ -18929,7 +18935,7 @@
         <v>14.766313932980598</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>20</v>
       </c>
@@ -18959,7 +18965,7 @@
         <v>11.062610229276896</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>21</v>
       </c>
@@ -18989,7 +18995,7 @@
         <v>8.284832451499117</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>22</v>
       </c>
@@ -19021,7 +19027,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>23</v>
       </c>
@@ -19053,7 +19059,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>24</v>
       </c>
@@ -19085,7 +19091,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>25</v>
       </c>
@@ -19115,7 +19121,7 @@
         <v>1.2345679012345678</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -19136,15 +19142,15 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>44</v>
       </c>
@@ -19185,7 +19191,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
     </row>
-    <row r="49" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>127</v>
       </c>
@@ -19226,7 +19232,7 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>128</v>
       </c>
@@ -19267,7 +19273,7 @@
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
     </row>
-    <row r="51" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>129</v>
       </c>
@@ -19308,7 +19314,7 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
     </row>
-    <row r="52" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>176</v>
       </c>
@@ -19347,7 +19353,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>182</v>
       </c>
@@ -19386,7 +19392,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>187</v>
       </c>
@@ -19425,7 +19431,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>109</v>
       </c>
@@ -19466,7 +19472,7 @@
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
     </row>
-    <row r="57" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -19507,7 +19513,7 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -19548,7 +19554,7 @@
       <c r="Q58" s="9"/>
       <c r="R58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -19589,7 +19595,7 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>176</v>
       </c>
@@ -19630,7 +19636,7 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>182</v>
       </c>
@@ -19671,7 +19677,7 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>187</v>
       </c>
@@ -19712,22 +19718,22 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="17"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="Q63" s="9"/>
       <c r="R63" s="17"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>137</v>
       </c>
       <c r="Q64" s="9"/>
       <c r="R64" s="17"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="Q65" s="9"/>
       <c r="R65" s="17"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>138</v>
       </c>
@@ -19764,7 +19770,7 @@
       </c>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>127</v>
       </c>
@@ -19801,7 +19807,7 @@
       </c>
       <c r="O67" s="9"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>128</v>
       </c>
@@ -19838,7 +19844,7 @@
       </c>
       <c r="O68" s="9"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>129</v>
       </c>
@@ -19875,7 +19881,7 @@
       </c>
       <c r="O69" s="9"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>176</v>
       </c>
@@ -19912,7 +19918,7 @@
       </c>
       <c r="O70" s="9"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>182</v>
       </c>
@@ -19949,7 +19955,7 @@
       </c>
       <c r="O71" s="9"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>187</v>
       </c>
@@ -19986,15 +19992,15 @@
       </c>
       <c r="O72" s="9"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>140</v>
       </c>
@@ -20005,7 +20011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -20028,7 +20034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -20051,7 +20057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -20074,7 +20080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -20097,7 +20103,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>182</v>
       </c>
@@ -20120,7 +20126,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -20143,7 +20149,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>223</v>
       </c>
@@ -20154,7 +20160,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -20177,7 +20183,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>128</v>
       </c>
@@ -20200,7 +20206,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -20223,7 +20229,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -20246,7 +20252,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -20269,7 +20275,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -20292,7 +20298,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>220</v>
       </c>
@@ -20303,7 +20309,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -20327,7 +20333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>128</v>
       </c>
@@ -20351,7 +20357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -20374,7 +20380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -20397,7 +20403,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -20420,7 +20426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>187</v>
       </c>
@@ -20443,16 +20449,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J100" s="19"/>
       <c r="O100" s="19"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>138</v>
       </c>
@@ -20489,7 +20495,7 @@
       </c>
       <c r="P103" s="9"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>127</v>
       </c>
@@ -20535,7 +20541,7 @@
       </c>
       <c r="P104" s="20"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>128</v>
       </c>
@@ -20581,7 +20587,7 @@
       </c>
       <c r="P105" s="20"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>129</v>
       </c>
@@ -20627,7 +20633,7 @@
       </c>
       <c r="P106" s="9"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>176</v>
       </c>
@@ -20674,7 +20680,7 @@
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>182</v>
       </c>
@@ -20719,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>187</v>
       </c>
@@ -20764,12 +20770,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>138</v>
       </c>
@@ -20811,7 +20817,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>127</v>
       </c>
@@ -20864,7 +20870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>128</v>
       </c>
@@ -20917,7 +20923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>129</v>
       </c>
@@ -20970,7 +20976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>176</v>
       </c>
@@ -21024,7 +21030,7 @@
       </c>
       <c r="R117" s="9"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>182</v>
       </c>
@@ -21077,7 +21083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>187</v>
       </c>
@@ -21151,15 +21157,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -21170,7 +21176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -21182,7 +21188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -21194,7 +21200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -21206,7 +21212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -21218,7 +21224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -21230,7 +21236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -21242,7 +21248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -21254,7 +21260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -21266,7 +21272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -21278,7 +21284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -21290,13 +21296,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12">
         <f>SUM(B2:B11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -21310,7 +21316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -21342,7 +21348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -21374,7 +21380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -21406,7 +21412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -21438,7 +21444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -21470,7 +21476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -21502,7 +21508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -21534,7 +21540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -21566,7 +21572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -21598,7 +21604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -21630,7 +21636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -21662,7 +21668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B25">
         <f>SUM(B15:B24)</f>
         <v>100</v>

--- a/Excel/STUDI KASUS.xlsx
+++ b/Excel/STUDI KASUS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SEMESTER 7\PROPOSAL SKRIPSI\skripsi\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\skripsi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D56CA-E725-4A56-83F3-8D233AAB842B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312B6E11-071E-4299-81D1-B460E2C5E32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
@@ -3110,26 +3110,26 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.453125" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="25.08984375" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="1" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" customWidth="1"/>
-    <col min="14" max="14" width="18.90625" customWidth="1"/>
-    <col min="15" max="15" width="20.6328125" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="116" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -3930,111 +3930,111 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="F21" s="2"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="F22" s="2"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="F23" s="2"/>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
     </row>
   </sheetData>
@@ -4051,27 +4051,27 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="23.6328125" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
-    <col min="11" max="11" width="21.90625" customWidth="1"/>
-    <col min="12" max="12" width="27.453125" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" customWidth="1"/>
-    <col min="14" max="14" width="22.6328125" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" customWidth="1"/>
-    <col min="16" max="16" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>109</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>127</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>128</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>129</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>176</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>182</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>187</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>285</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>288</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>290</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>291</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>420</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>421</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>422</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>423</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>424</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>425</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>340</v>
       </c>
@@ -4956,25 +4956,25 @@
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" customWidth="1"/>
-    <col min="15" max="15" width="20.1796875" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>112</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="G12" t="s">
@@ -5210,7 +5210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="G13" t="s">
         <v>105</v>
@@ -5231,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="G14" t="s">
         <v>372</v>
@@ -5252,7 +5252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>110</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="G16" t="s">
@@ -5280,7 +5280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>112</v>
       </c>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15">
@@ -5582,7 +5582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="42" t="s">
@@ -5595,12 +5595,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>112</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>17</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>18</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>20</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>21</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>22</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>23</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>24</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>25</v>
       </c>
@@ -5704,32 +5704,32 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="E42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="33" t="s">
         <v>109</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35" t="s">
         <v>127</v>
       </c>
@@ -5803,7 +5803,7 @@
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="35" t="s">
         <v>128</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="35" t="s">
         <v>129</v>
       </c>
@@ -5877,7 +5877,7 @@
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
         <v>176</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="35" t="s">
         <v>182</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
         <v>187</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
         <v>285</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="35" t="s">
         <v>288</v>
       </c>
@@ -6054,7 +6054,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="35" t="s">
         <v>290</v>
       </c>
@@ -6091,7 +6091,7 @@
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
         <v>291</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="35" t="s">
         <v>420</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
         <v>421</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35" t="s">
         <v>422</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
         <v>423</v>
       </c>
@@ -6276,7 +6276,7 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
         <v>424</v>
       </c>
@@ -6313,7 +6313,7 @@
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
         <v>425</v>
       </c>
@@ -6350,13 +6350,13 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="68" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="38" t="s">
         <v>138</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="40" t="s">
         <v>127</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="40" t="s">
         <v>128</v>
       </c>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="40" t="s">
         <v>129</v>
       </c>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="40" t="s">
         <v>176</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="40" t="s">
         <v>182</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="40" t="s">
         <v>187</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="40" t="s">
         <v>285</v>
       </c>
@@ -6622,7 +6622,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="40" t="s">
         <v>288</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="40" t="s">
         <v>290</v>
       </c>
@@ -6690,7 +6690,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="40" t="s">
         <v>291</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="40" t="s">
         <v>420</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="40" t="s">
         <v>421</v>
       </c>
@@ -6792,7 +6792,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="40" t="s">
         <v>422</v>
       </c>
@@ -6826,7 +6826,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="40" t="s">
         <v>423</v>
       </c>
@@ -6860,7 +6860,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="40" t="s">
         <v>424</v>
       </c>
@@ -6894,7 +6894,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="40" t="s">
         <v>425</v>
       </c>
@@ -6928,12 +6928,12 @@
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>182</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>288</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>420</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>421</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>422</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>423</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>424</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>425</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>176</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>182</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>285</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>290</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>291</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>420</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>421</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>422</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>423</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>424</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>425</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>145</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>176</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>182</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>187</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>285</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>288</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>291</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>420</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>421</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>422</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>423</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>424</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>425</v>
       </c>
@@ -8070,12 +8070,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>138</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>127</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>128</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>129</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>176</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>182</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>187</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>285</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>288</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>290</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>291</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>420</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>421</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>422</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>423</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>424</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>425</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>465</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
         <v>479</v>
@@ -9355,7 +9355,7 @@
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>138</v>
       </c>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="AB166" s="9"/>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>127</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>128</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>129</v>
       </c>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="AB169" s="66"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>176</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>182</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>187</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>285</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>288</v>
       </c>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="AB174" s="63"/>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>290</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>291</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>420</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>421</v>
       </c>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="AB178" s="63"/>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>422</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>423</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>424</v>
       </c>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="AB181" s="66"/>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>425</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
       <c r="P185" t="s">
         <v>288</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>0.71753333333333336</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="P187" t="s">
         <v>476</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>0.76733333333333331</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="P189" t="s">
         <v>477</v>
       </c>
@@ -11186,30 +11186,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871AEF4C-9567-4F69-A103-F367FD8FD456}">
   <dimension ref="A1:AD189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C124" zoomScale="118" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="84" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="M171" sqref="M171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" customWidth="1"/>
-    <col min="10" max="11" width="14.453125" customWidth="1"/>
-    <col min="12" max="13" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="13" width="15.77734375" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" customWidth="1"/>
-    <col min="17" max="17" width="20.1796875" customWidth="1"/>
-    <col min="20" max="20" width="19.453125" customWidth="1"/>
-    <col min="21" max="21" width="20.36328125" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.21875" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>112</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="G12" t="s">
@@ -11445,7 +11445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="G13" t="s">
         <v>105</v>
@@ -11472,7 +11472,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="G14" t="s">
         <v>372</v>
@@ -11500,7 +11500,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>110</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="G16" t="s">
@@ -11534,7 +11534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>112</v>
       </c>
@@ -11554,7 +11554,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15">
@@ -11841,7 +11841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="42" t="s">
@@ -11854,12 +11854,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>112</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>17</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>18</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>20</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>21</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>22</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>23</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>24</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>25</v>
       </c>
@@ -11963,29 +11963,29 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="E42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="L47" t="s">
         <v>496</v>
@@ -11994,7 +11994,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="33" t="s">
         <v>109</v>
       </c>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="O48" s="16"/>
     </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35" t="s">
         <v>127</v>
       </c>
@@ -12076,7 +12076,7 @@
       </c>
       <c r="O49" s="12"/>
     </row>
-    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="35" t="s">
         <v>128</v>
       </c>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="O50" s="12"/>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="35" t="s">
         <v>129</v>
       </c>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="O51" s="12"/>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
         <v>176</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="35" t="s">
         <v>182</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
         <v>187</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
         <v>285</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="35" t="s">
         <v>288</v>
       </c>
@@ -12359,7 +12359,7 @@
       </c>
       <c r="O56" s="9"/>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="35" t="s">
         <v>290</v>
       </c>
@@ -12400,7 +12400,7 @@
       </c>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
         <v>291</v>
       </c>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="35" t="s">
         <v>420</v>
       </c>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
         <v>421</v>
       </c>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35" t="s">
         <v>422</v>
       </c>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
         <v>423</v>
       </c>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
         <v>424</v>
       </c>
@@ -12646,7 +12646,7 @@
       </c>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
         <v>425</v>
       </c>
@@ -12687,18 +12687,18 @@
       </c>
       <c r="O64" s="12"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J67" s="37" t="s">
         <v>494</v>
       </c>
       <c r="K67" s="37"/>
     </row>
-    <row r="68" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="38" t="s">
         <v>138</v>
       </c>
@@ -12731,7 +12731,7 @@
       </c>
       <c r="K68" s="90"/>
     </row>
-    <row r="69" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="40" t="s">
         <v>127</v>
       </c>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="K69" s="73"/>
     </row>
-    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="40" t="s">
         <v>128</v>
       </c>
@@ -12798,7 +12798,7 @@
       <c r="K70" s="73"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="40" t="s">
         <v>129</v>
       </c>
@@ -12832,7 +12832,7 @@
       <c r="K71" s="73"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="40" t="s">
         <v>176</v>
       </c>
@@ -12868,7 +12868,7 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="40" t="s">
         <v>182</v>
       </c>
@@ -12904,7 +12904,7 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="40" t="s">
         <v>187</v>
       </c>
@@ -12940,7 +12940,7 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="40" t="s">
         <v>285</v>
       </c>
@@ -12976,7 +12976,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="40" t="s">
         <v>288</v>
       </c>
@@ -13012,7 +13012,7 @@
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
     </row>
-    <row r="77" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="40" t="s">
         <v>290</v>
       </c>
@@ -13048,7 +13048,7 @@
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
     </row>
-    <row r="78" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="40" t="s">
         <v>291</v>
       </c>
@@ -13084,7 +13084,7 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="40" t="s">
         <v>420</v>
       </c>
@@ -13120,7 +13120,7 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="40" t="s">
         <v>421</v>
       </c>
@@ -13156,7 +13156,7 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="40" t="s">
         <v>422</v>
       </c>
@@ -13192,7 +13192,7 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="40" t="s">
         <v>423</v>
       </c>
@@ -13228,7 +13228,7 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="40" t="s">
         <v>424</v>
       </c>
@@ -13264,7 +13264,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="40" t="s">
         <v>425</v>
       </c>
@@ -13300,12 +13300,12 @@
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>182</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>288</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>420</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>421</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>422</v>
       </c>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="M102" s="81"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>423</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>424</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>425</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>176</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>182</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>285</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>290</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>291</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>420</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>421</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>422</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>423</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>424</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>425</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>145</v>
       </c>
@@ -14085,7 +14085,7 @@
       <c r="R125" s="85"/>
       <c r="S125" s="85"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -14120,7 +14120,7 @@
       <c r="R126" s="85"/>
       <c r="S126" s="85"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -14155,7 +14155,7 @@
       <c r="R127" s="85"/>
       <c r="S127" s="85"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="R128" s="85"/>
       <c r="S128" s="85"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>176</v>
       </c>
@@ -14225,7 +14225,7 @@
       <c r="R129" s="85"/>
       <c r="S129" s="85"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>182</v>
       </c>
@@ -14260,7 +14260,7 @@
       <c r="R130" s="85"/>
       <c r="S130" s="85"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>187</v>
       </c>
@@ -14295,7 +14295,7 @@
       <c r="R131" s="85"/>
       <c r="S131" s="85"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>285</v>
       </c>
@@ -14330,7 +14330,7 @@
       <c r="R132" s="85"/>
       <c r="S132" s="85"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>288</v>
       </c>
@@ -14365,7 +14365,7 @@
       <c r="R133" s="85"/>
       <c r="S133" s="85"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -14400,7 +14400,7 @@
       <c r="R134" s="85"/>
       <c r="S134" s="85"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>291</v>
       </c>
@@ -14435,7 +14435,7 @@
       <c r="R135" s="85"/>
       <c r="S135" s="85"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>420</v>
       </c>
@@ -14470,7 +14470,7 @@
       <c r="R136" s="85"/>
       <c r="S136" s="85"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>421</v>
       </c>
@@ -14505,7 +14505,7 @@
       <c r="R137" s="85"/>
       <c r="S137" s="85"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>422</v>
       </c>
@@ -14540,7 +14540,7 @@
       <c r="R138" s="85"/>
       <c r="S138" s="85"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>423</v>
       </c>
@@ -14575,7 +14575,7 @@
       <c r="R139" s="85"/>
       <c r="S139" s="85"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>424</v>
       </c>
@@ -14610,7 +14610,7 @@
       <c r="R140" s="85"/>
       <c r="S140" s="85"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>425</v>
       </c>
@@ -14645,7 +14645,7 @@
       <c r="R141" s="85"/>
       <c r="S141" s="85"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L142" t="s">
         <v>495</v>
       </c>
@@ -14653,12 +14653,12 @@
         <v>498</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J144" t="s">
         <v>495</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>138</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>127</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>128</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>129</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>176</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>182</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>187</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>285</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>288</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>290</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>291</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>420</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>421</v>
       </c>
@@ -15667,7 +15667,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>422</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>423</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>424</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>425</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>465</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
         <v>479</v>
@@ -16058,7 +16058,7 @@
       <c r="AC165" s="9"/>
       <c r="AD165" s="9"/>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>138</v>
       </c>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="AD166" s="9"/>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>127</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>128</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>129</v>
       </c>
@@ -16447,7 +16447,7 @@
       </c>
       <c r="AD169" s="66"/>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>176</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>182</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>187</v>
       </c>
@@ -16759,7 +16759,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>285</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>288</v>
       </c>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="AD174" s="63"/>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>290</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>291</v>
       </c>
@@ -17173,7 +17173,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>420</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>421</v>
       </c>
@@ -17379,7 +17379,7 @@
       </c>
       <c r="AD178" s="63"/>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>422</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>423</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>424</v>
       </c>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="AD181" s="66"/>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>425</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R185" t="s">
         <v>288</v>
       </c>
@@ -17838,7 +17838,7 @@
         <v>0.71353333333333335</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R187" t="s">
         <v>476</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>0.76333333333333331</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R189" t="s">
         <v>477</v>
       </c>
@@ -17942,15 +17942,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>112</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>0.31432980599647264</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>0.27420634920634918</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>0.28809523809523802</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -18017,7 +18017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -18062,28 +18062,28 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="5" width="13.1796875" customWidth="1"/>
-    <col min="6" max="8" width="20.453125" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="11.453125" customWidth="1"/>
-    <col min="18" max="18" width="18.453125" customWidth="1"/>
-    <col min="19" max="19" width="22.1796875" customWidth="1"/>
-    <col min="20" max="20" width="33.08984375" customWidth="1"/>
-    <col min="24" max="24" width="17.453125" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="19" max="19" width="22.21875" customWidth="1"/>
+    <col min="20" max="20" width="33.109375" customWidth="1"/>
+    <col min="24" max="24" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>112</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -18312,7 +18312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="J12" t="s">
@@ -18334,7 +18334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="J13" t="s">
         <v>194</v>
@@ -18355,7 +18355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="J14" t="s">
         <v>195</v>
@@ -18376,7 +18376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>110</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="J16" t="s">
@@ -18410,7 +18410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>112</v>
       </c>
@@ -18432,7 +18432,7 @@
       <c r="G17" s="9"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -18464,7 +18464,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
@@ -18496,7 +18496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -18660,7 +18660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -18742,7 +18742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17">
@@ -18805,19 +18805,19 @@
       <c r="G27" s="9"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>112</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>17</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>31.432980599647259</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>18</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>20.321869488536155</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
@@ -18935,7 +18935,7 @@
         <v>14.766313932980598</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>20</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>11.062610229276896</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>21</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>8.284832451499117</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>22</v>
       </c>
@@ -19027,7 +19027,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>23</v>
       </c>
@@ -19059,7 +19059,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>24</v>
       </c>
@@ -19091,7 +19091,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>25</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>1.2345679012345678</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -19142,15 +19142,15 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
     </row>
-    <row r="48" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>44</v>
       </c>
@@ -19191,7 +19191,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
     </row>
-    <row r="49" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>127</v>
       </c>
@@ -19232,7 +19232,7 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>128</v>
       </c>
@@ -19273,7 +19273,7 @@
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
     </row>
-    <row r="51" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>129</v>
       </c>
@@ -19314,7 +19314,7 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
     </row>
-    <row r="52" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>176</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>182</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>187</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>109</v>
       </c>
@@ -19472,7 +19472,7 @@
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
     </row>
-    <row r="57" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>127</v>
       </c>
@@ -19513,7 +19513,7 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>128</v>
       </c>
@@ -19554,7 +19554,7 @@
       <c r="Q58" s="9"/>
       <c r="R58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>129</v>
       </c>
@@ -19595,7 +19595,7 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>176</v>
       </c>
@@ -19636,7 +19636,7 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>182</v>
       </c>
@@ -19677,7 +19677,7 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>187</v>
       </c>
@@ -19718,22 +19718,22 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="17"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="Q63" s="9"/>
       <c r="R63" s="17"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>137</v>
       </c>
       <c r="Q64" s="9"/>
       <c r="R64" s="17"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="Q65" s="9"/>
       <c r="R65" s="17"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>138</v>
       </c>
@@ -19770,7 +19770,7 @@
       </c>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>127</v>
       </c>
@@ -19807,7 +19807,7 @@
       </c>
       <c r="O67" s="9"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>128</v>
       </c>
@@ -19844,7 +19844,7 @@
       </c>
       <c r="O68" s="9"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>129</v>
       </c>
@@ -19881,7 +19881,7 @@
       </c>
       <c r="O69" s="9"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>176</v>
       </c>
@@ -19918,7 +19918,7 @@
       </c>
       <c r="O70" s="9"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>182</v>
       </c>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="O71" s="9"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>187</v>
       </c>
@@ -19992,15 +19992,15 @@
       </c>
       <c r="O72" s="9"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>140</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>182</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>223</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>128</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -20298,7 +20298,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>220</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>128</v>
       </c>
@@ -20357,7 +20357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>187</v>
       </c>
@@ -20449,16 +20449,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J100" s="19"/>
       <c r="O100" s="19"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>138</v>
       </c>
@@ -20495,7 +20495,7 @@
       </c>
       <c r="P103" s="9"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>127</v>
       </c>
@@ -20541,7 +20541,7 @@
       </c>
       <c r="P104" s="20"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>128</v>
       </c>
@@ -20587,7 +20587,7 @@
       </c>
       <c r="P105" s="20"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>129</v>
       </c>
@@ -20633,7 +20633,7 @@
       </c>
       <c r="P106" s="9"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>176</v>
       </c>
@@ -20680,7 +20680,7 @@
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>182</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>187</v>
       </c>
@@ -20770,12 +20770,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>138</v>
       </c>
@@ -20817,7 +20817,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>127</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>128</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>129</v>
       </c>
@@ -20976,7 +20976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>176</v>
       </c>
@@ -21030,7 +21030,7 @@
       </c>
       <c r="R117" s="9"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>182</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>187</v>
       </c>
@@ -21157,15 +21157,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -21188,7 +21188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -21212,7 +21212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -21260,7 +21260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -21284,7 +21284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -21296,13 +21296,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>SUM(B2:B11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -21348,7 +21348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -21444,7 +21444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -21476,7 +21476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -21572,7 +21572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -21604,7 +21604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <f>SUM(B15:B24)</f>
         <v>100</v>

--- a/Excel/STUDI KASUS.xlsx
+++ b/Excel/STUDI KASUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\skripsi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312B6E11-071E-4299-81D1-B460E2C5E32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3B197D-4F9F-486D-8B6A-6C3DA14C8A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
@@ -4047,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015FA8AF-97B1-4BAE-BA56-FF4AAB7B8C3B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11186,8 +11186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871AEF4C-9567-4F69-A103-F367FD8FD456}">
   <dimension ref="A1:AD189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="84" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="M171" sqref="M171"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="84" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="I47" activeCellId="1" sqref="E57 I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12369,7 +12369,7 @@
       <c r="C57" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="75">
         <v>6</v>
       </c>
       <c r="E57" s="36" t="s">

--- a/Excel/STUDI KASUS.xlsx
+++ b/Excel/STUDI KASUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNDIPA\Semester 7\Skripsi\skripsi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3B197D-4F9F-486D-8B6A-6C3DA14C8A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B3AD1D-0788-485A-9687-08BDAFBB01A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="3" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="1" xr2:uid="{901D0503-6946-40CA-8D36-37B156763246}"/>
   </bookViews>
   <sheets>
     <sheet name="Kost" sheetId="3" r:id="rId1"/>
@@ -4047,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015FA8AF-97B1-4BAE-BA56-FF4AAB7B8C3B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11186,8 +11186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871AEF4C-9567-4F69-A103-F367FD8FD456}">
   <dimension ref="A1:AD189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="84" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="I47" activeCellId="1" sqref="E57 I47"/>
+    <sheetView topLeftCell="A48" zoomScale="84" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
